--- a/5/9/Índice de stress local 2021 - Diaria.xlsx
+++ b/5/9/Índice de stress local 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="167">
   <si>
     <t>Serie</t>
   </si>
@@ -455,6 +455,66 @@
   </si>
   <si>
     <t>28-07-2021</t>
+  </si>
+  <si>
+    <t>29-07-2021</t>
+  </si>
+  <si>
+    <t>30-07-2021</t>
+  </si>
+  <si>
+    <t>02-08-2021</t>
+  </si>
+  <si>
+    <t>03-08-2021</t>
+  </si>
+  <si>
+    <t>04-08-2021</t>
+  </si>
+  <si>
+    <t>05-08-2021</t>
+  </si>
+  <si>
+    <t>06-08-2021</t>
+  </si>
+  <si>
+    <t>09-08-2021</t>
+  </si>
+  <si>
+    <t>10-08-2021</t>
+  </si>
+  <si>
+    <t>11-08-2021</t>
+  </si>
+  <si>
+    <t>12-08-2021</t>
+  </si>
+  <si>
+    <t>13-08-2021</t>
+  </si>
+  <si>
+    <t>16-08-2021</t>
+  </si>
+  <si>
+    <t>17-08-2021</t>
+  </si>
+  <si>
+    <t>18-08-2021</t>
+  </si>
+  <si>
+    <t>19-08-2021</t>
+  </si>
+  <si>
+    <t>20-08-2021</t>
+  </si>
+  <si>
+    <t>23-08-2021</t>
+  </si>
+  <si>
+    <t>24-08-2021</t>
+  </si>
+  <si>
+    <t>25-08-2021</t>
   </si>
 </sst>
 </file>
@@ -812,7 +872,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D144"/>
+  <dimension ref="A1:D164"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -837,13 +897,13 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>0.4384</v>
+        <v>0.389</v>
       </c>
       <c r="C2">
-        <v>0.1293</v>
+        <v>0.1323</v>
       </c>
       <c r="D2">
-        <v>0.3092</v>
+        <v>0.2567</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -851,13 +911,13 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>0.4371</v>
+        <v>0.3867</v>
       </c>
       <c r="C3">
-        <v>0.1279</v>
+        <v>0.1309</v>
       </c>
       <c r="D3">
-        <v>0.3092</v>
+        <v>0.2559</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -865,13 +925,13 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>0.4349</v>
+        <v>0.3838</v>
       </c>
       <c r="C4">
-        <v>0.1264</v>
+        <v>0.1293</v>
       </c>
       <c r="D4">
-        <v>0.3085</v>
+        <v>0.2546</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -879,13 +939,13 @@
         <v>7</v>
       </c>
       <c r="B5">
-        <v>0.4322</v>
+        <v>0.3806</v>
       </c>
       <c r="C5">
-        <v>0.1246</v>
+        <v>0.1273</v>
       </c>
       <c r="D5">
-        <v>0.3077</v>
+        <v>0.2533</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -893,13 +953,13 @@
         <v>8</v>
       </c>
       <c r="B6">
-        <v>0.4305</v>
+        <v>0.3786</v>
       </c>
       <c r="C6">
-        <v>0.1236</v>
+        <v>0.1262</v>
       </c>
       <c r="D6">
-        <v>0.3069</v>
+        <v>0.2524</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -907,13 +967,13 @@
         <v>9</v>
       </c>
       <c r="B7">
-        <v>0.4284</v>
+        <v>0.3764</v>
       </c>
       <c r="C7">
-        <v>0.1228</v>
+        <v>0.1254</v>
       </c>
       <c r="D7">
-        <v>0.3056</v>
+        <v>0.251</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -921,13 +981,13 @@
         <v>10</v>
       </c>
       <c r="B8">
-        <v>0.4276</v>
+        <v>0.3756</v>
       </c>
       <c r="C8">
-        <v>0.1231</v>
+        <v>0.1257</v>
       </c>
       <c r="D8">
-        <v>0.3045</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -935,13 +995,13 @@
         <v>11</v>
       </c>
       <c r="B9">
-        <v>0.4271</v>
+        <v>0.3755</v>
       </c>
       <c r="C9">
-        <v>0.1239</v>
+        <v>0.1265</v>
       </c>
       <c r="D9">
-        <v>0.3032</v>
+        <v>0.249</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -949,13 +1009,13 @@
         <v>12</v>
       </c>
       <c r="B10">
-        <v>0.4283</v>
+        <v>0.3773</v>
       </c>
       <c r="C10">
-        <v>0.1264</v>
+        <v>0.1291</v>
       </c>
       <c r="D10">
-        <v>0.302</v>
+        <v>0.2482</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -963,13 +1023,13 @@
         <v>13</v>
       </c>
       <c r="B11">
-        <v>0.4302</v>
+        <v>0.3801</v>
       </c>
       <c r="C11">
-        <v>0.1296</v>
+        <v>0.1325</v>
       </c>
       <c r="D11">
-        <v>0.3006</v>
+        <v>0.2476</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -977,13 +1037,13 @@
         <v>14</v>
       </c>
       <c r="B12">
-        <v>0.4325</v>
+        <v>0.3834</v>
       </c>
       <c r="C12">
-        <v>0.1332</v>
+        <v>0.1363</v>
       </c>
       <c r="D12">
-        <v>0.2993</v>
+        <v>0.2471</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -991,13 +1051,13 @@
         <v>15</v>
       </c>
       <c r="B13">
-        <v>0.4333</v>
+        <v>0.3854</v>
       </c>
       <c r="C13">
-        <v>0.136</v>
+        <v>0.1392</v>
       </c>
       <c r="D13">
-        <v>0.2973</v>
+        <v>0.2461</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1005,13 +1065,13 @@
         <v>16</v>
       </c>
       <c r="B14">
-        <v>0.4329</v>
+        <v>0.3864</v>
       </c>
       <c r="C14">
-        <v>0.138</v>
+        <v>0.1413</v>
       </c>
       <c r="D14">
-        <v>0.295</v>
+        <v>0.2451</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -1019,13 +1079,13 @@
         <v>17</v>
       </c>
       <c r="B15">
-        <v>0.4324</v>
+        <v>0.3872</v>
       </c>
       <c r="C15">
-        <v>0.1398</v>
+        <v>0.1432</v>
       </c>
       <c r="D15">
-        <v>0.2926</v>
+        <v>0.244</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -1033,13 +1093,13 @@
         <v>18</v>
       </c>
       <c r="B16">
-        <v>0.4315</v>
+        <v>0.3878</v>
       </c>
       <c r="C16">
-        <v>0.1413</v>
+        <v>0.1449</v>
       </c>
       <c r="D16">
-        <v>0.2902</v>
+        <v>0.2429</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -1047,13 +1107,13 @@
         <v>19</v>
       </c>
       <c r="B17">
-        <v>0.4311</v>
+        <v>0.389</v>
       </c>
       <c r="C17">
-        <v>0.1431</v>
+        <v>0.1468</v>
       </c>
       <c r="D17">
-        <v>0.2879</v>
+        <v>0.2421</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -1061,13 +1121,13 @@
         <v>20</v>
       </c>
       <c r="B18">
-        <v>0.4299</v>
+        <v>0.3895</v>
       </c>
       <c r="C18">
-        <v>0.1443</v>
+        <v>0.1481</v>
       </c>
       <c r="D18">
-        <v>0.2856</v>
+        <v>0.2414</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -1075,13 +1135,13 @@
         <v>21</v>
       </c>
       <c r="B19">
-        <v>0.4289</v>
+        <v>0.3904</v>
       </c>
       <c r="C19">
-        <v>0.1457</v>
+        <v>0.1496</v>
       </c>
       <c r="D19">
-        <v>0.2832</v>
+        <v>0.2408</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -1089,13 +1149,13 @@
         <v>22</v>
       </c>
       <c r="B20">
-        <v>0.4279</v>
+        <v>0.3914</v>
       </c>
       <c r="C20">
-        <v>0.1476</v>
+        <v>0.1516</v>
       </c>
       <c r="D20">
-        <v>0.2803</v>
+        <v>0.2398</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -1103,13 +1163,13 @@
         <v>23</v>
       </c>
       <c r="B21">
-        <v>0.4261</v>
+        <v>0.3918</v>
       </c>
       <c r="C21">
-        <v>0.1491</v>
+        <v>0.1532</v>
       </c>
       <c r="D21">
-        <v>0.277</v>
+        <v>0.2386</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -1117,13 +1177,13 @@
         <v>24</v>
       </c>
       <c r="B22">
-        <v>0.4245</v>
+        <v>0.3925</v>
       </c>
       <c r="C22">
-        <v>0.1511</v>
+        <v>0.1553</v>
       </c>
       <c r="D22">
-        <v>0.2734</v>
+        <v>0.2371</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -1131,13 +1191,13 @@
         <v>25</v>
       </c>
       <c r="B23">
-        <v>0.4224</v>
+        <v>0.3928</v>
       </c>
       <c r="C23">
-        <v>0.153</v>
+        <v>0.1574</v>
       </c>
       <c r="D23">
-        <v>0.2695</v>
+        <v>0.2354</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -1145,13 +1205,13 @@
         <v>26</v>
       </c>
       <c r="B24">
-        <v>0.4209</v>
+        <v>0.3935</v>
       </c>
       <c r="C24">
-        <v>0.1554</v>
+        <v>0.1599</v>
       </c>
       <c r="D24">
-        <v>0.2655</v>
+        <v>0.2336</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -1159,13 +1219,13 @@
         <v>27</v>
       </c>
       <c r="B25">
-        <v>0.4189</v>
+        <v>0.3938</v>
       </c>
       <c r="C25">
-        <v>0.1575</v>
+        <v>0.1622</v>
       </c>
       <c r="D25">
-        <v>0.2614</v>
+        <v>0.2316</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -1173,13 +1233,13 @@
         <v>28</v>
       </c>
       <c r="B26">
-        <v>0.4161</v>
+        <v>0.3933</v>
       </c>
       <c r="C26">
-        <v>0.1592</v>
+        <v>0.164</v>
       </c>
       <c r="D26">
-        <v>0.2569</v>
+        <v>0.2293</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -1187,13 +1247,13 @@
         <v>29</v>
       </c>
       <c r="B27">
-        <v>0.413</v>
+        <v>0.3926</v>
       </c>
       <c r="C27">
-        <v>0.1608</v>
+        <v>0.1657</v>
       </c>
       <c r="D27">
-        <v>0.2522</v>
+        <v>0.2269</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -1201,13 +1261,13 @@
         <v>30</v>
       </c>
       <c r="B28">
-        <v>0.4087</v>
+        <v>0.3907</v>
       </c>
       <c r="C28">
-        <v>0.1614</v>
+        <v>0.1665</v>
       </c>
       <c r="D28">
-        <v>0.2473</v>
+        <v>0.2242</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -1215,13 +1275,13 @@
         <v>31</v>
       </c>
       <c r="B29">
-        <v>0.4044</v>
+        <v>0.3886</v>
       </c>
       <c r="C29">
-        <v>0.162</v>
+        <v>0.1671</v>
       </c>
       <c r="D29">
-        <v>0.2424</v>
+        <v>0.2215</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -1229,13 +1289,13 @@
         <v>32</v>
       </c>
       <c r="B30">
-        <v>0.3986</v>
+        <v>0.3849</v>
       </c>
       <c r="C30">
-        <v>0.1613</v>
+        <v>0.1664</v>
       </c>
       <c r="D30">
-        <v>0.2373</v>
+        <v>0.2185</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -1243,13 +1303,13 @@
         <v>33</v>
       </c>
       <c r="B31">
-        <v>0.3911</v>
+        <v>0.3794</v>
       </c>
       <c r="C31">
-        <v>0.1591</v>
+        <v>0.1641</v>
       </c>
       <c r="D31">
-        <v>0.232</v>
+        <v>0.2153</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -1257,13 +1317,13 @@
         <v>34</v>
       </c>
       <c r="B32">
-        <v>0.3825</v>
+        <v>0.3727</v>
       </c>
       <c r="C32">
-        <v>0.1561</v>
+        <v>0.161</v>
       </c>
       <c r="D32">
-        <v>0.2263</v>
+        <v>0.2117</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -1271,13 +1331,13 @@
         <v>35</v>
       </c>
       <c r="B33">
-        <v>0.3751</v>
+        <v>0.3672</v>
       </c>
       <c r="C33">
-        <v>0.154</v>
+        <v>0.1589</v>
       </c>
       <c r="D33">
-        <v>0.2211</v>
+        <v>0.2084</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -1285,13 +1345,13 @@
         <v>36</v>
       </c>
       <c r="B34">
-        <v>0.3684</v>
+        <v>0.3624</v>
       </c>
       <c r="C34">
-        <v>0.1522</v>
+        <v>0.157</v>
       </c>
       <c r="D34">
-        <v>0.2162</v>
+        <v>0.2054</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -1299,13 +1359,13 @@
         <v>37</v>
       </c>
       <c r="B35">
-        <v>0.3616</v>
+        <v>0.3575</v>
       </c>
       <c r="C35">
-        <v>0.1504</v>
+        <v>0.1551</v>
       </c>
       <c r="D35">
-        <v>0.2112</v>
+        <v>0.2024</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -1313,13 +1373,13 @@
         <v>38</v>
       </c>
       <c r="B36">
-        <v>0.3551</v>
+        <v>0.3529</v>
       </c>
       <c r="C36">
-        <v>0.149</v>
+        <v>0.1537</v>
       </c>
       <c r="D36">
-        <v>0.2061</v>
+        <v>0.1992</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -1327,13 +1387,13 @@
         <v>39</v>
       </c>
       <c r="B37">
-        <v>0.3487</v>
+        <v>0.3484</v>
       </c>
       <c r="C37">
-        <v>0.1478</v>
+        <v>0.1525</v>
       </c>
       <c r="D37">
-        <v>0.2009</v>
+        <v>0.1959</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -1341,13 +1401,13 @@
         <v>40</v>
       </c>
       <c r="B38">
-        <v>0.3429</v>
+        <v>0.3442</v>
       </c>
       <c r="C38">
-        <v>0.1464</v>
+        <v>0.1511</v>
       </c>
       <c r="D38">
-        <v>0.1965</v>
+        <v>0.1931</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -1355,13 +1415,13 @@
         <v>41</v>
       </c>
       <c r="B39">
-        <v>0.3369</v>
+        <v>0.3398</v>
       </c>
       <c r="C39">
-        <v>0.145</v>
+        <v>0.1496</v>
       </c>
       <c r="D39">
-        <v>0.1919</v>
+        <v>0.1902</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -1369,13 +1429,13 @@
         <v>42</v>
       </c>
       <c r="B40">
-        <v>0.3298</v>
+        <v>0.3344</v>
       </c>
       <c r="C40">
-        <v>0.1427</v>
+        <v>0.1473</v>
       </c>
       <c r="D40">
-        <v>0.1871</v>
+        <v>0.187</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -1383,13 +1443,13 @@
         <v>43</v>
       </c>
       <c r="B41">
-        <v>0.3243</v>
+        <v>0.3306</v>
       </c>
       <c r="C41">
-        <v>0.1416</v>
+        <v>0.1462</v>
       </c>
       <c r="D41">
-        <v>0.1827</v>
+        <v>0.1843</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -1397,13 +1457,13 @@
         <v>44</v>
       </c>
       <c r="B42">
-        <v>0.3197</v>
+        <v>0.3278</v>
       </c>
       <c r="C42">
-        <v>0.1412</v>
+        <v>0.1458</v>
       </c>
       <c r="D42">
-        <v>0.1786</v>
+        <v>0.1819</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -1411,13 +1471,13 @@
         <v>45</v>
       </c>
       <c r="B43">
-        <v>0.3153</v>
+        <v>0.3251</v>
       </c>
       <c r="C43">
-        <v>0.1405</v>
+        <v>0.1452</v>
       </c>
       <c r="D43">
-        <v>0.1748</v>
+        <v>0.1799</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -1425,13 +1485,13 @@
         <v>46</v>
       </c>
       <c r="B44">
-        <v>0.3108</v>
+        <v>0.3227</v>
       </c>
       <c r="C44">
-        <v>0.14</v>
+        <v>0.1448</v>
       </c>
       <c r="D44">
-        <v>0.1708</v>
+        <v>0.1779</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1439,13 +1499,13 @@
         <v>47</v>
       </c>
       <c r="B45">
-        <v>0.3075</v>
+        <v>0.3215</v>
       </c>
       <c r="C45">
-        <v>0.14</v>
+        <v>0.1449</v>
       </c>
       <c r="D45">
-        <v>0.1676</v>
+        <v>0.1766</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1453,13 +1513,13 @@
         <v>48</v>
       </c>
       <c r="B46">
-        <v>0.3037</v>
+        <v>0.3199</v>
       </c>
       <c r="C46">
-        <v>0.1396</v>
+        <v>0.1446</v>
       </c>
       <c r="D46">
-        <v>0.1641</v>
+        <v>0.1752</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1467,13 +1527,13 @@
         <v>49</v>
       </c>
       <c r="B47">
-        <v>0.3003</v>
+        <v>0.3188</v>
       </c>
       <c r="C47">
-        <v>0.1394</v>
+        <v>0.1446</v>
       </c>
       <c r="D47">
-        <v>0.1609</v>
+        <v>0.1742</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1481,13 +1541,13 @@
         <v>50</v>
       </c>
       <c r="B48">
-        <v>0.2969</v>
+        <v>0.3179</v>
       </c>
       <c r="C48">
-        <v>0.1395</v>
+        <v>0.1449</v>
       </c>
       <c r="D48">
-        <v>0.1573</v>
+        <v>0.173</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1495,13 +1555,13 @@
         <v>51</v>
       </c>
       <c r="B49">
-        <v>0.293</v>
+        <v>0.3167</v>
       </c>
       <c r="C49">
-        <v>0.1395</v>
+        <v>0.1451</v>
       </c>
       <c r="D49">
-        <v>0.1535</v>
+        <v>0.1717</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -1509,13 +1569,13 @@
         <v>52</v>
       </c>
       <c r="B50">
-        <v>0.2901</v>
+        <v>0.3166</v>
       </c>
       <c r="C50">
-        <v>0.1402</v>
+        <v>0.146</v>
       </c>
       <c r="D50">
-        <v>0.1499</v>
+        <v>0.1706</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -1523,13 +1583,13 @@
         <v>53</v>
       </c>
       <c r="B51">
-        <v>0.287</v>
+        <v>0.3165</v>
       </c>
       <c r="C51">
-        <v>0.1407</v>
+        <v>0.1468</v>
       </c>
       <c r="D51">
-        <v>0.1463</v>
+        <v>0.1697</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -1537,13 +1597,13 @@
         <v>54</v>
       </c>
       <c r="B52">
-        <v>0.2848</v>
+        <v>0.3174</v>
       </c>
       <c r="C52">
-        <v>0.1418</v>
+        <v>0.1482</v>
       </c>
       <c r="D52">
-        <v>0.1429</v>
+        <v>0.1691</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -1551,13 +1611,13 @@
         <v>55</v>
       </c>
       <c r="B53">
-        <v>0.2821</v>
+        <v>0.318</v>
       </c>
       <c r="C53">
-        <v>0.1429</v>
+        <v>0.1496</v>
       </c>
       <c r="D53">
-        <v>0.1392</v>
+        <v>0.1684</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -1565,13 +1625,13 @@
         <v>56</v>
       </c>
       <c r="B54">
-        <v>0.2788</v>
+        <v>0.3179</v>
       </c>
       <c r="C54">
-        <v>0.1437</v>
+        <v>0.1507</v>
       </c>
       <c r="D54">
-        <v>0.1351</v>
+        <v>0.1672</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -1579,13 +1639,13 @@
         <v>57</v>
       </c>
       <c r="B55">
-        <v>0.2755</v>
+        <v>0.3178</v>
       </c>
       <c r="C55">
-        <v>0.1445</v>
+        <v>0.1518</v>
       </c>
       <c r="D55">
-        <v>0.1311</v>
+        <v>0.166</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -1593,13 +1653,13 @@
         <v>58</v>
       </c>
       <c r="B56">
-        <v>0.2732</v>
+        <v>0.3186</v>
       </c>
       <c r="C56">
-        <v>0.1457</v>
+        <v>0.1533</v>
       </c>
       <c r="D56">
-        <v>0.1275</v>
+        <v>0.1653</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -1607,13 +1667,13 @@
         <v>59</v>
       </c>
       <c r="B57">
-        <v>0.2706</v>
+        <v>0.3192</v>
       </c>
       <c r="C57">
-        <v>0.1465</v>
+        <v>0.1545</v>
       </c>
       <c r="D57">
-        <v>0.1241</v>
+        <v>0.1647</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -1621,13 +1681,13 @@
         <v>60</v>
       </c>
       <c r="B58">
-        <v>0.2673</v>
+        <v>0.3193</v>
       </c>
       <c r="C58">
-        <v>0.1476</v>
+        <v>0.1559</v>
       </c>
       <c r="D58">
-        <v>0.1197</v>
+        <v>0.1634</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -1635,13 +1695,13 @@
         <v>61</v>
       </c>
       <c r="B59">
-        <v>0.2643</v>
+        <v>0.3197</v>
       </c>
       <c r="C59">
-        <v>0.1489</v>
+        <v>0.1576</v>
       </c>
       <c r="D59">
-        <v>0.1154</v>
+        <v>0.1621</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -1649,13 +1709,13 @@
         <v>62</v>
       </c>
       <c r="B60">
-        <v>0.2624</v>
+        <v>0.3212</v>
       </c>
       <c r="C60">
-        <v>0.151</v>
+        <v>0.1601</v>
       </c>
       <c r="D60">
-        <v>0.1114</v>
+        <v>0.1611</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -1663,13 +1723,13 @@
         <v>63</v>
       </c>
       <c r="B61">
-        <v>0.2587</v>
+        <v>0.3207</v>
       </c>
       <c r="C61">
-        <v>0.1516</v>
+        <v>0.1611</v>
       </c>
       <c r="D61">
-        <v>0.107</v>
+        <v>0.1596</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -1677,13 +1737,13 @@
         <v>64</v>
       </c>
       <c r="B62">
-        <v>0.2566</v>
+        <v>0.3212</v>
       </c>
       <c r="C62">
-        <v>0.1519</v>
+        <v>0.1616</v>
       </c>
       <c r="D62">
-        <v>0.1047</v>
+        <v>0.1596</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -1691,13 +1751,13 @@
         <v>65</v>
       </c>
       <c r="B63">
-        <v>0.2542</v>
+        <v>0.3212</v>
       </c>
       <c r="C63">
-        <v>0.1522</v>
+        <v>0.1621</v>
       </c>
       <c r="D63">
-        <v>0.102</v>
+        <v>0.1591</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -1705,13 +1765,13 @@
         <v>66</v>
       </c>
       <c r="B64">
-        <v>0.2515</v>
+        <v>0.3205</v>
       </c>
       <c r="C64">
-        <v>0.1519</v>
+        <v>0.162</v>
       </c>
       <c r="D64">
-        <v>0.09950000000000001</v>
+        <v>0.1585</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -1719,13 +1779,13 @@
         <v>67</v>
       </c>
       <c r="B65">
-        <v>0.249</v>
+        <v>0.32</v>
       </c>
       <c r="C65">
-        <v>0.1522</v>
+        <v>0.1625</v>
       </c>
       <c r="D65">
-        <v>0.0968</v>
+        <v>0.1575</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -1733,13 +1793,13 @@
         <v>68</v>
       </c>
       <c r="B66">
-        <v>0.2463</v>
+        <v>0.319</v>
       </c>
       <c r="C66">
-        <v>0.1518</v>
+        <v>0.1622</v>
       </c>
       <c r="D66">
-        <v>0.0944</v>
+        <v>0.1567</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -1747,13 +1807,13 @@
         <v>69</v>
       </c>
       <c r="B67">
-        <v>0.244</v>
+        <v>0.3179</v>
       </c>
       <c r="C67">
-        <v>0.1514</v>
+        <v>0.1619</v>
       </c>
       <c r="D67">
-        <v>0.0926</v>
+        <v>0.156</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -1761,13 +1821,13 @@
         <v>70</v>
       </c>
       <c r="B68">
-        <v>0.2415</v>
+        <v>0.3165</v>
       </c>
       <c r="C68">
-        <v>0.1506</v>
+        <v>0.1611</v>
       </c>
       <c r="D68">
-        <v>0.091</v>
+        <v>0.1553</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -1775,13 +1835,13 @@
         <v>71</v>
       </c>
       <c r="B69">
-        <v>0.2391</v>
+        <v>0.3147</v>
       </c>
       <c r="C69">
-        <v>0.1494</v>
+        <v>0.16</v>
       </c>
       <c r="D69">
-        <v>0.0898</v>
+        <v>0.1548</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -1789,13 +1849,13 @@
         <v>72</v>
       </c>
       <c r="B70">
-        <v>0.2355</v>
+        <v>0.3115</v>
       </c>
       <c r="C70">
-        <v>0.1471</v>
+        <v>0.1576</v>
       </c>
       <c r="D70">
-        <v>0.08840000000000001</v>
+        <v>0.1539</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -1803,13 +1863,13 @@
         <v>73</v>
       </c>
       <c r="B71">
-        <v>0.2329</v>
+        <v>0.309</v>
       </c>
       <c r="C71">
-        <v>0.1454</v>
+        <v>0.1559</v>
       </c>
       <c r="D71">
-        <v>0.08749999999999999</v>
+        <v>0.1531</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -1817,13 +1877,13 @@
         <v>74</v>
       </c>
       <c r="B72">
-        <v>0.2304</v>
+        <v>0.3064</v>
       </c>
       <c r="C72">
-        <v>0.1437</v>
+        <v>0.1541</v>
       </c>
       <c r="D72">
-        <v>0.0867</v>
+        <v>0.1523</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -1831,13 +1891,13 @@
         <v>75</v>
       </c>
       <c r="B73">
-        <v>0.2293</v>
+        <v>0.3049</v>
       </c>
       <c r="C73">
-        <v>0.1425</v>
+        <v>0.1529</v>
       </c>
       <c r="D73">
-        <v>0.0868</v>
+        <v>0.152</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -1845,13 +1905,13 @@
         <v>76</v>
       </c>
       <c r="B74">
-        <v>0.229</v>
+        <v>0.3038</v>
       </c>
       <c r="C74">
-        <v>0.1412</v>
+        <v>0.1513</v>
       </c>
       <c r="D74">
-        <v>0.08790000000000001</v>
+        <v>0.1525</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -1859,13 +1919,13 @@
         <v>77</v>
       </c>
       <c r="B75">
-        <v>0.2296</v>
+        <v>0.3033</v>
       </c>
       <c r="C75">
-        <v>0.1401</v>
+        <v>0.1501</v>
       </c>
       <c r="D75">
-        <v>0.0895</v>
+        <v>0.1532</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -1873,13 +1933,13 @@
         <v>78</v>
       </c>
       <c r="B76">
-        <v>0.2299</v>
+        <v>0.3025</v>
       </c>
       <c r="C76">
-        <v>0.1388</v>
+        <v>0.1487</v>
       </c>
       <c r="D76">
-        <v>0.0911</v>
+        <v>0.1538</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -1887,13 +1947,13 @@
         <v>79</v>
       </c>
       <c r="B77">
-        <v>0.2301</v>
+        <v>0.3014</v>
       </c>
       <c r="C77">
-        <v>0.1376</v>
+        <v>0.1472</v>
       </c>
       <c r="D77">
-        <v>0.0926</v>
+        <v>0.1542</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -1901,13 +1961,13 @@
         <v>80</v>
       </c>
       <c r="B78">
-        <v>0.2305</v>
+        <v>0.3003</v>
       </c>
       <c r="C78">
-        <v>0.1365</v>
+        <v>0.1459</v>
       </c>
       <c r="D78">
-        <v>0.094</v>
+        <v>0.1544</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -1915,13 +1975,13 @@
         <v>81</v>
       </c>
       <c r="B79">
-        <v>0.2309</v>
+        <v>0.2991</v>
       </c>
       <c r="C79">
-        <v>0.1351</v>
+        <v>0.1443</v>
       </c>
       <c r="D79">
-        <v>0.0958</v>
+        <v>0.1547</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -1929,13 +1989,13 @@
         <v>82</v>
       </c>
       <c r="B80">
-        <v>0.232</v>
+        <v>0.2983</v>
       </c>
       <c r="C80">
-        <v>0.134</v>
+        <v>0.143</v>
       </c>
       <c r="D80">
-        <v>0.0979</v>
+        <v>0.1553</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -1943,13 +2003,13 @@
         <v>83</v>
       </c>
       <c r="B81">
-        <v>0.2334</v>
+        <v>0.2979</v>
       </c>
       <c r="C81">
-        <v>0.1331</v>
+        <v>0.1418</v>
       </c>
       <c r="D81">
-        <v>0.1004</v>
+        <v>0.1561</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -1957,13 +2017,13 @@
         <v>84</v>
       </c>
       <c r="B82">
-        <v>0.2331</v>
+        <v>0.296</v>
       </c>
       <c r="C82">
-        <v>0.1319</v>
+        <v>0.1404</v>
       </c>
       <c r="D82">
-        <v>0.1013</v>
+        <v>0.1556</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -1971,13 +2031,13 @@
         <v>85</v>
       </c>
       <c r="B83">
-        <v>0.2332</v>
+        <v>0.2944</v>
       </c>
       <c r="C83">
-        <v>0.1305</v>
+        <v>0.1388</v>
       </c>
       <c r="D83">
-        <v>0.1027</v>
+        <v>0.1556</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -1985,13 +2045,13 @@
         <v>86</v>
       </c>
       <c r="B84">
-        <v>0.2339</v>
+        <v>0.2933</v>
       </c>
       <c r="C84">
-        <v>0.1294</v>
+        <v>0.1374</v>
       </c>
       <c r="D84">
-        <v>0.1045</v>
+        <v>0.1558</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -1999,13 +2059,13 @@
         <v>87</v>
       </c>
       <c r="B85">
-        <v>0.2344</v>
+        <v>0.2921</v>
       </c>
       <c r="C85">
-        <v>0.1281</v>
+        <v>0.1359</v>
       </c>
       <c r="D85">
-        <v>0.1063</v>
+        <v>0.1561</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -2013,13 +2073,13 @@
         <v>88</v>
       </c>
       <c r="B86">
-        <v>0.2357</v>
+        <v>0.2915</v>
       </c>
       <c r="C86">
-        <v>0.1271</v>
+        <v>0.1348</v>
       </c>
       <c r="D86">
-        <v>0.1086</v>
+        <v>0.1568</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -2027,13 +2087,13 @@
         <v>89</v>
       </c>
       <c r="B87">
-        <v>0.2372</v>
+        <v>0.2912</v>
       </c>
       <c r="C87">
-        <v>0.1264</v>
+        <v>0.1338</v>
       </c>
       <c r="D87">
-        <v>0.1108</v>
+        <v>0.1574</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -2041,13 +2101,13 @@
         <v>90</v>
       </c>
       <c r="B88">
-        <v>0.2398</v>
+        <v>0.2921</v>
       </c>
       <c r="C88">
-        <v>0.126</v>
+        <v>0.1332</v>
       </c>
       <c r="D88">
-        <v>0.1139</v>
+        <v>0.1588</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -2055,13 +2115,13 @@
         <v>91</v>
       </c>
       <c r="B89">
-        <v>0.2426</v>
+        <v>0.293</v>
       </c>
       <c r="C89">
-        <v>0.1258</v>
+        <v>0.1329</v>
       </c>
       <c r="D89">
-        <v>0.1167</v>
+        <v>0.1601</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -2069,13 +2129,13 @@
         <v>92</v>
       </c>
       <c r="B90">
-        <v>0.2459</v>
+        <v>0.2945</v>
       </c>
       <c r="C90">
-        <v>0.1261</v>
+        <v>0.133</v>
       </c>
       <c r="D90">
-        <v>0.1198</v>
+        <v>0.1615</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -2083,13 +2143,13 @@
         <v>93</v>
       </c>
       <c r="B91">
-        <v>0.2488</v>
+        <v>0.2958</v>
       </c>
       <c r="C91">
-        <v>0.1261</v>
+        <v>0.1329</v>
       </c>
       <c r="D91">
-        <v>0.1227</v>
+        <v>0.1629</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -2097,13 +2157,13 @@
         <v>94</v>
       </c>
       <c r="B92">
-        <v>0.251</v>
+        <v>0.2963</v>
       </c>
       <c r="C92">
-        <v>0.1257</v>
+        <v>0.1323</v>
       </c>
       <c r="D92">
-        <v>0.1253</v>
+        <v>0.164</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -2111,13 +2171,13 @@
         <v>95</v>
       </c>
       <c r="B93">
-        <v>0.253</v>
+        <v>0.2968</v>
       </c>
       <c r="C93">
-        <v>0.1259</v>
+        <v>0.1324</v>
       </c>
       <c r="D93">
-        <v>0.127</v>
+        <v>0.1644</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -2125,13 +2185,13 @@
         <v>96</v>
       </c>
       <c r="B94">
-        <v>0.2552</v>
+        <v>0.2978</v>
       </c>
       <c r="C94">
-        <v>0.1266</v>
+        <v>0.133</v>
       </c>
       <c r="D94">
-        <v>0.1286</v>
+        <v>0.1648</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -2139,13 +2199,13 @@
         <v>97</v>
       </c>
       <c r="B95">
-        <v>0.256</v>
+        <v>0.2975</v>
       </c>
       <c r="C95">
-        <v>0.1263</v>
+        <v>0.1326</v>
       </c>
       <c r="D95">
-        <v>0.1297</v>
+        <v>0.1649</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -2153,13 +2213,13 @@
         <v>98</v>
       </c>
       <c r="B96">
-        <v>0.2567</v>
+        <v>0.2973</v>
       </c>
       <c r="C96">
-        <v>0.1264</v>
+        <v>0.1327</v>
       </c>
       <c r="D96">
-        <v>0.1302</v>
+        <v>0.1646</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -2167,13 +2227,13 @@
         <v>99</v>
       </c>
       <c r="B97">
-        <v>0.261</v>
+        <v>0.3006</v>
       </c>
       <c r="C97">
-        <v>0.1283</v>
+        <v>0.1346</v>
       </c>
       <c r="D97">
-        <v>0.1327</v>
+        <v>0.166</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -2181,13 +2241,13 @@
         <v>100</v>
       </c>
       <c r="B98">
-        <v>0.2656</v>
+        <v>0.3041</v>
       </c>
       <c r="C98">
-        <v>0.1303</v>
+        <v>0.1365</v>
       </c>
       <c r="D98">
-        <v>0.1353</v>
+        <v>0.1676</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -2195,13 +2255,13 @@
         <v>101</v>
       </c>
       <c r="B99">
-        <v>0.27</v>
+        <v>0.3078</v>
       </c>
       <c r="C99">
-        <v>0.1325</v>
+        <v>0.1388</v>
       </c>
       <c r="D99">
-        <v>0.1375</v>
+        <v>0.169</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -2209,13 +2269,13 @@
         <v>102</v>
       </c>
       <c r="B100">
-        <v>0.2738</v>
+        <v>0.3109</v>
       </c>
       <c r="C100">
-        <v>0.1344</v>
+        <v>0.1407</v>
       </c>
       <c r="D100">
-        <v>0.1394</v>
+        <v>0.1702</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -2223,13 +2283,13 @@
         <v>103</v>
       </c>
       <c r="B101">
-        <v>0.2788</v>
+        <v>0.3154</v>
       </c>
       <c r="C101">
-        <v>0.1374</v>
+        <v>0.1438</v>
       </c>
       <c r="D101">
-        <v>0.1414</v>
+        <v>0.1715</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -2237,13 +2297,13 @@
         <v>104</v>
       </c>
       <c r="B102">
-        <v>0.2836</v>
+        <v>0.3196</v>
       </c>
       <c r="C102">
-        <v>0.1405</v>
+        <v>0.147</v>
       </c>
       <c r="D102">
-        <v>0.1431</v>
+        <v>0.1726</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -2251,13 +2311,13 @@
         <v>105</v>
       </c>
       <c r="B103">
-        <v>0.2883</v>
+        <v>0.3237</v>
       </c>
       <c r="C103">
-        <v>0.1437</v>
+        <v>0.1503</v>
       </c>
       <c r="D103">
-        <v>0.1446</v>
+        <v>0.1734</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -2265,13 +2325,13 @@
         <v>106</v>
       </c>
       <c r="B104">
-        <v>0.2921</v>
+        <v>0.327</v>
       </c>
       <c r="C104">
-        <v>0.1463</v>
+        <v>0.153</v>
       </c>
       <c r="D104">
-        <v>0.1458</v>
+        <v>0.1739</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -2279,13 +2339,13 @@
         <v>107</v>
       </c>
       <c r="B105">
-        <v>0.2946</v>
+        <v>0.3287</v>
       </c>
       <c r="C105">
-        <v>0.1476</v>
+        <v>0.1543</v>
       </c>
       <c r="D105">
-        <v>0.147</v>
+        <v>0.1744</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -2293,13 +2353,13 @@
         <v>108</v>
       </c>
       <c r="B106">
-        <v>0.2965</v>
+        <v>0.3299</v>
       </c>
       <c r="C106">
-        <v>0.1487</v>
+        <v>0.1554</v>
       </c>
       <c r="D106">
-        <v>0.1478</v>
+        <v>0.1745</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -2307,13 +2367,13 @@
         <v>109</v>
       </c>
       <c r="B107">
-        <v>0.2982</v>
+        <v>0.3309</v>
       </c>
       <c r="C107">
-        <v>0.1498</v>
+        <v>0.1565</v>
       </c>
       <c r="D107">
-        <v>0.1483</v>
+        <v>0.1743</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -2321,13 +2381,13 @@
         <v>110</v>
       </c>
       <c r="B108">
-        <v>0.2993</v>
+        <v>0.3313</v>
       </c>
       <c r="C108">
-        <v>0.1512</v>
+        <v>0.1579</v>
       </c>
       <c r="D108">
-        <v>0.1481</v>
+        <v>0.1734</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -2335,13 +2395,13 @@
         <v>111</v>
       </c>
       <c r="B109">
-        <v>0.3009</v>
+        <v>0.3323</v>
       </c>
       <c r="C109">
-        <v>0.1526</v>
+        <v>0.1593</v>
       </c>
       <c r="D109">
-        <v>0.1483</v>
+        <v>0.1729</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -2349,13 +2409,13 @@
         <v>112</v>
       </c>
       <c r="B110">
-        <v>0.3035</v>
+        <v>0.3338</v>
       </c>
       <c r="C110">
-        <v>0.1539</v>
+        <v>0.1606</v>
       </c>
       <c r="D110">
-        <v>0.1495</v>
+        <v>0.1731</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -2363,13 +2423,13 @@
         <v>113</v>
       </c>
       <c r="B111">
-        <v>0.3062</v>
+        <v>0.3354</v>
       </c>
       <c r="C111">
-        <v>0.1553</v>
+        <v>0.162</v>
       </c>
       <c r="D111">
-        <v>0.1509</v>
+        <v>0.1734</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -2377,13 +2437,13 @@
         <v>114</v>
       </c>
       <c r="B112">
-        <v>0.3093</v>
+        <v>0.3372</v>
       </c>
       <c r="C112">
-        <v>0.1566</v>
+        <v>0.1632</v>
       </c>
       <c r="D112">
-        <v>0.1527</v>
+        <v>0.174</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -2391,13 +2451,13 @@
         <v>115</v>
       </c>
       <c r="B113">
-        <v>0.3118</v>
+        <v>0.3382</v>
       </c>
       <c r="C113">
-        <v>0.157</v>
+        <v>0.1635</v>
       </c>
       <c r="D113">
-        <v>0.1548</v>
+        <v>0.1746</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -2405,13 +2465,13 @@
         <v>116</v>
       </c>
       <c r="B114">
-        <v>0.3134</v>
+        <v>0.3384</v>
       </c>
       <c r="C114">
-        <v>0.1573</v>
+        <v>0.1637</v>
       </c>
       <c r="D114">
-        <v>0.1562</v>
+        <v>0.1746</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -2419,13 +2479,13 @@
         <v>117</v>
       </c>
       <c r="B115">
-        <v>0.3155</v>
+        <v>0.339</v>
       </c>
       <c r="C115">
-        <v>0.1581</v>
+        <v>0.1645</v>
       </c>
       <c r="D115">
-        <v>0.1574</v>
+        <v>0.1745</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -2433,13 +2493,13 @@
         <v>118</v>
       </c>
       <c r="B116">
-        <v>0.3178</v>
+        <v>0.3397</v>
       </c>
       <c r="C116">
-        <v>0.1586</v>
+        <v>0.165</v>
       </c>
       <c r="D116">
-        <v>0.1591</v>
+        <v>0.1747</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -2447,13 +2507,13 @@
         <v>119</v>
       </c>
       <c r="B117">
-        <v>0.3168</v>
+        <v>0.3373</v>
       </c>
       <c r="C117">
-        <v>0.1579</v>
+        <v>0.164</v>
       </c>
       <c r="D117">
-        <v>0.159</v>
+        <v>0.1732</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -2461,13 +2521,13 @@
         <v>120</v>
       </c>
       <c r="B118">
-        <v>0.3159</v>
+        <v>0.3347</v>
       </c>
       <c r="C118">
-        <v>0.1572</v>
+        <v>0.1632</v>
       </c>
       <c r="D118">
-        <v>0.1587</v>
+        <v>0.1715</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -2475,13 +2535,13 @@
         <v>121</v>
       </c>
       <c r="B119">
-        <v>0.316</v>
+        <v>0.3331</v>
       </c>
       <c r="C119">
-        <v>0.1572</v>
+        <v>0.1631</v>
       </c>
       <c r="D119">
-        <v>0.1588</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -2489,13 +2549,13 @@
         <v>122</v>
       </c>
       <c r="B120">
-        <v>0.316</v>
+        <v>0.3312</v>
       </c>
       <c r="C120">
-        <v>0.1572</v>
+        <v>0.1629</v>
       </c>
       <c r="D120">
-        <v>0.1588</v>
+        <v>0.1684</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -2503,13 +2563,13 @@
         <v>123</v>
       </c>
       <c r="B121">
-        <v>0.3145</v>
+        <v>0.3277</v>
       </c>
       <c r="C121">
-        <v>0.1559</v>
+        <v>0.1614</v>
       </c>
       <c r="D121">
-        <v>0.1586</v>
+        <v>0.1664</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -2517,13 +2577,13 @@
         <v>124</v>
       </c>
       <c r="B122">
-        <v>0.3124</v>
+        <v>0.3239</v>
       </c>
       <c r="C122">
-        <v>0.1544</v>
+        <v>0.1597</v>
       </c>
       <c r="D122">
-        <v>0.1581</v>
+        <v>0.1642</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -2531,13 +2591,13 @@
         <v>125</v>
       </c>
       <c r="B123">
-        <v>0.3098</v>
+        <v>0.3194</v>
       </c>
       <c r="C123">
-        <v>0.1526</v>
+        <v>0.1577</v>
       </c>
       <c r="D123">
-        <v>0.1572</v>
+        <v>0.1618</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -2545,13 +2605,13 @@
         <v>126</v>
       </c>
       <c r="B124">
-        <v>0.309</v>
+        <v>0.3169</v>
       </c>
       <c r="C124">
-        <v>0.152</v>
+        <v>0.1569</v>
       </c>
       <c r="D124">
-        <v>0.157</v>
+        <v>0.1601</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -2559,13 +2619,13 @@
         <v>127</v>
       </c>
       <c r="B125">
-        <v>0.3076</v>
+        <v>0.314</v>
       </c>
       <c r="C125">
-        <v>0.1514</v>
+        <v>0.156</v>
       </c>
       <c r="D125">
-        <v>0.1562</v>
+        <v>0.158</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -2573,13 +2633,13 @@
         <v>128</v>
       </c>
       <c r="B126">
-        <v>0.3076</v>
+        <v>0.3123</v>
       </c>
       <c r="C126">
-        <v>0.1515</v>
+        <v>0.156</v>
       </c>
       <c r="D126">
-        <v>0.1561</v>
+        <v>0.1563</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -2587,13 +2647,13 @@
         <v>129</v>
       </c>
       <c r="B127">
-        <v>0.3074</v>
+        <v>0.3106</v>
       </c>
       <c r="C127">
-        <v>0.1519</v>
+        <v>0.1564</v>
       </c>
       <c r="D127">
-        <v>0.1554</v>
+        <v>0.1542</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -2601,13 +2661,13 @@
         <v>130</v>
       </c>
       <c r="B128">
-        <v>0.3071</v>
+        <v>0.3086</v>
       </c>
       <c r="C128">
-        <v>0.1516</v>
+        <v>0.1559</v>
       </c>
       <c r="D128">
-        <v>0.1555</v>
+        <v>0.1527</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -2615,13 +2675,13 @@
         <v>131</v>
       </c>
       <c r="B129">
-        <v>0.3074</v>
+        <v>0.3072</v>
       </c>
       <c r="C129">
-        <v>0.1513</v>
+        <v>0.1555</v>
       </c>
       <c r="D129">
-        <v>0.1561</v>
+        <v>0.1517</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -2629,13 +2689,13 @@
         <v>132</v>
       </c>
       <c r="B130">
-        <v>0.3079</v>
+        <v>0.3062</v>
       </c>
       <c r="C130">
-        <v>0.1522</v>
+        <v>0.1562</v>
       </c>
       <c r="D130">
-        <v>0.1557</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -2643,13 +2703,13 @@
         <v>133</v>
       </c>
       <c r="B131">
-        <v>0.3097</v>
+        <v>0.3068</v>
       </c>
       <c r="C131">
-        <v>0.1544</v>
+        <v>0.1584</v>
       </c>
       <c r="D131">
-        <v>0.1553</v>
+        <v>0.1483</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -2657,13 +2717,13 @@
         <v>134</v>
       </c>
       <c r="B132">
-        <v>0.3127</v>
+        <v>0.3081</v>
       </c>
       <c r="C132">
-        <v>0.1561</v>
+        <v>0.1601</v>
       </c>
       <c r="D132">
-        <v>0.1566</v>
+        <v>0.148</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -2671,13 +2731,13 @@
         <v>135</v>
       </c>
       <c r="B133">
-        <v>0.3144</v>
+        <v>0.3082</v>
       </c>
       <c r="C133">
-        <v>0.1568</v>
+        <v>0.1608</v>
       </c>
       <c r="D133">
-        <v>0.1576</v>
+        <v>0.1474</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -2685,13 +2745,13 @@
         <v>136</v>
       </c>
       <c r="B134">
-        <v>0.3161</v>
+        <v>0.3084</v>
       </c>
       <c r="C134">
-        <v>0.1576</v>
+        <v>0.1615</v>
       </c>
       <c r="D134">
-        <v>0.1585</v>
+        <v>0.1469</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -2699,13 +2759,13 @@
         <v>137</v>
       </c>
       <c r="B135">
-        <v>0.3175</v>
+        <v>0.3083</v>
       </c>
       <c r="C135">
-        <v>0.1582</v>
+        <v>0.1621</v>
       </c>
       <c r="D135">
-        <v>0.1593</v>
+        <v>0.1463</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -2713,13 +2773,13 @@
         <v>138</v>
       </c>
       <c r="B136">
-        <v>0.3187</v>
+        <v>0.308</v>
       </c>
       <c r="C136">
-        <v>0.1589</v>
+        <v>0.1627</v>
       </c>
       <c r="D136">
-        <v>0.1597</v>
+        <v>0.1453</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -2727,13 +2787,13 @@
         <v>139</v>
       </c>
       <c r="B137">
-        <v>0.3206</v>
+        <v>0.3084</v>
       </c>
       <c r="C137">
-        <v>0.1598</v>
+        <v>0.1635</v>
       </c>
       <c r="D137">
-        <v>0.1608</v>
+        <v>0.1449</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -2741,13 +2801,13 @@
         <v>140</v>
       </c>
       <c r="B138">
-        <v>0.3226</v>
+        <v>0.3088</v>
       </c>
       <c r="C138">
-        <v>0.1607</v>
+        <v>0.1643</v>
       </c>
       <c r="D138">
-        <v>0.162</v>
+        <v>0.1445</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -2755,13 +2815,13 @@
         <v>141</v>
       </c>
       <c r="B139">
-        <v>0.3228</v>
+        <v>0.3075</v>
       </c>
       <c r="C139">
-        <v>0.1601</v>
+        <v>0.1636</v>
       </c>
       <c r="D139">
-        <v>0.1626</v>
+        <v>0.1438</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -2769,13 +2829,13 @@
         <v>142</v>
       </c>
       <c r="B140">
-        <v>0.3232</v>
+        <v>0.3064</v>
       </c>
       <c r="C140">
-        <v>0.1594</v>
+        <v>0.1628</v>
       </c>
       <c r="D140">
-        <v>0.1637</v>
+        <v>0.1436</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -2783,13 +2843,13 @@
         <v>143</v>
       </c>
       <c r="B141">
-        <v>0.3246</v>
+        <v>0.3064</v>
       </c>
       <c r="C141">
-        <v>0.16</v>
+        <v>0.1632</v>
       </c>
       <c r="D141">
-        <v>0.1646</v>
+        <v>0.1432</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -2797,13 +2857,13 @@
         <v>144</v>
       </c>
       <c r="B142">
-        <v>0.3249</v>
+        <v>0.3052</v>
       </c>
       <c r="C142">
-        <v>0.1596</v>
+        <v>0.1628</v>
       </c>
       <c r="D142">
-        <v>0.1652</v>
+        <v>0.1425</v>
       </c>
     </row>
     <row r="143" spans="1:4">
@@ -2811,13 +2871,13 @@
         <v>145</v>
       </c>
       <c r="B143">
-        <v>0.3251</v>
+        <v>0.304</v>
       </c>
       <c r="C143">
-        <v>0.1593</v>
+        <v>0.1623</v>
       </c>
       <c r="D143">
-        <v>0.1657</v>
+        <v>0.1417</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -2825,13 +2885,293 @@
         <v>146</v>
       </c>
       <c r="B144">
-        <v>0.3237</v>
+        <v>0.3014</v>
       </c>
       <c r="C144">
-        <v>0.1582</v>
+        <v>0.1611</v>
       </c>
       <c r="D144">
-        <v>0.1655</v>
+        <v>0.1403</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4">
+      <c r="A145" t="s">
+        <v>147</v>
+      </c>
+      <c r="B145">
+        <v>0.3001</v>
+      </c>
+      <c r="C145">
+        <v>0.1607</v>
+      </c>
+      <c r="D145">
+        <v>0.1395</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4">
+      <c r="A146" t="s">
+        <v>148</v>
+      </c>
+      <c r="B146">
+        <v>0.299</v>
+      </c>
+      <c r="C146">
+        <v>0.1606</v>
+      </c>
+      <c r="D146">
+        <v>0.1384</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4">
+      <c r="A147" t="s">
+        <v>149</v>
+      </c>
+      <c r="B147">
+        <v>0.2968</v>
+      </c>
+      <c r="C147">
+        <v>0.1591</v>
+      </c>
+      <c r="D147">
+        <v>0.1377</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4">
+      <c r="A148" t="s">
+        <v>150</v>
+      </c>
+      <c r="B148">
+        <v>0.2953</v>
+      </c>
+      <c r="C148">
+        <v>0.1589</v>
+      </c>
+      <c r="D148">
+        <v>0.1364</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4">
+      <c r="A149" t="s">
+        <v>151</v>
+      </c>
+      <c r="B149">
+        <v>0.2944</v>
+      </c>
+      <c r="C149">
+        <v>0.16</v>
+      </c>
+      <c r="D149">
+        <v>0.1344</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4">
+      <c r="A150" t="s">
+        <v>152</v>
+      </c>
+      <c r="B150">
+        <v>0.2913</v>
+      </c>
+      <c r="C150">
+        <v>0.1592</v>
+      </c>
+      <c r="D150">
+        <v>0.1321</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4">
+      <c r="A151" t="s">
+        <v>153</v>
+      </c>
+      <c r="B151">
+        <v>0.2886</v>
+      </c>
+      <c r="C151">
+        <v>0.1584</v>
+      </c>
+      <c r="D151">
+        <v>0.1301</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4">
+      <c r="A152" t="s">
+        <v>154</v>
+      </c>
+      <c r="B152">
+        <v>0.2844</v>
+      </c>
+      <c r="C152">
+        <v>0.1577</v>
+      </c>
+      <c r="D152">
+        <v>0.1267</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4">
+      <c r="A153" t="s">
+        <v>155</v>
+      </c>
+      <c r="B153">
+        <v>0.2815</v>
+      </c>
+      <c r="C153">
+        <v>0.1581</v>
+      </c>
+      <c r="D153">
+        <v>0.1234</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4">
+      <c r="A154" t="s">
+        <v>156</v>
+      </c>
+      <c r="B154">
+        <v>0.2787</v>
+      </c>
+      <c r="C154">
+        <v>0.1585</v>
+      </c>
+      <c r="D154">
+        <v>0.1202</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4">
+      <c r="A155" t="s">
+        <v>157</v>
+      </c>
+      <c r="B155">
+        <v>0.2758</v>
+      </c>
+      <c r="C155">
+        <v>0.1585</v>
+      </c>
+      <c r="D155">
+        <v>0.1173</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4">
+      <c r="A156" t="s">
+        <v>158</v>
+      </c>
+      <c r="B156">
+        <v>0.2734</v>
+      </c>
+      <c r="C156">
+        <v>0.1588</v>
+      </c>
+      <c r="D156">
+        <v>0.1146</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4">
+      <c r="A157" t="s">
+        <v>159</v>
+      </c>
+      <c r="B157">
+        <v>0.269</v>
+      </c>
+      <c r="C157">
+        <v>0.1575</v>
+      </c>
+      <c r="D157">
+        <v>0.1115</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4">
+      <c r="A158" t="s">
+        <v>160</v>
+      </c>
+      <c r="B158">
+        <v>0.2651</v>
+      </c>
+      <c r="C158">
+        <v>0.1564</v>
+      </c>
+      <c r="D158">
+        <v>0.1086</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4">
+      <c r="A159" t="s">
+        <v>161</v>
+      </c>
+      <c r="B159">
+        <v>0.2615</v>
+      </c>
+      <c r="C159">
+        <v>0.1555</v>
+      </c>
+      <c r="D159">
+        <v>0.106</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4">
+      <c r="A160" t="s">
+        <v>162</v>
+      </c>
+      <c r="B160">
+        <v>0.2582</v>
+      </c>
+      <c r="C160">
+        <v>0.155</v>
+      </c>
+      <c r="D160">
+        <v>0.1032</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4">
+      <c r="A161" t="s">
+        <v>163</v>
+      </c>
+      <c r="B161">
+        <v>0.2549</v>
+      </c>
+      <c r="C161">
+        <v>0.154</v>
+      </c>
+      <c r="D161">
+        <v>0.1009</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4">
+      <c r="A162" t="s">
+        <v>164</v>
+      </c>
+      <c r="B162">
+        <v>0.2518</v>
+      </c>
+      <c r="C162">
+        <v>0.1529</v>
+      </c>
+      <c r="D162">
+        <v>0.0989</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4">
+      <c r="A163" t="s">
+        <v>165</v>
+      </c>
+      <c r="B163">
+        <v>0.2498</v>
+      </c>
+      <c r="C163">
+        <v>0.1525</v>
+      </c>
+      <c r="D163">
+        <v>0.0973</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4">
+      <c r="A164" t="s">
+        <v>166</v>
+      </c>
+      <c r="B164">
+        <v>0.247</v>
+      </c>
+      <c r="C164">
+        <v>0.151</v>
+      </c>
+      <c r="D164">
+        <v>0.0959</v>
       </c>
     </row>
   </sheetData>

--- a/5/9/Índice de stress local 2021 - Diaria.xlsx
+++ b/5/9/Índice de stress local 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="177">
   <si>
     <t>Serie</t>
   </si>
@@ -515,6 +515,36 @@
   </si>
   <si>
     <t>25-08-2021</t>
+  </si>
+  <si>
+    <t>26-08-2021</t>
+  </si>
+  <si>
+    <t>27-08-2021</t>
+  </si>
+  <si>
+    <t>30-08-2021</t>
+  </si>
+  <si>
+    <t>31-08-2021</t>
+  </si>
+  <si>
+    <t>01-09-2021</t>
+  </si>
+  <si>
+    <t>02-09-2021</t>
+  </si>
+  <si>
+    <t>03-09-2021</t>
+  </si>
+  <si>
+    <t>06-09-2021</t>
+  </si>
+  <si>
+    <t>07-09-2021</t>
+  </si>
+  <si>
+    <t>08-09-2021</t>
   </si>
 </sst>
 </file>
@@ -872,7 +902,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D164"/>
+  <dimension ref="A1:D174"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -897,13 +927,13 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>0.389</v>
+        <v>0.3873</v>
       </c>
       <c r="C2">
-        <v>0.1323</v>
+        <v>0.1322</v>
       </c>
       <c r="D2">
-        <v>0.2567</v>
+        <v>0.2551</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -911,13 +941,13 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>0.3867</v>
+        <v>0.385</v>
       </c>
       <c r="C3">
-        <v>0.1309</v>
+        <v>0.1307</v>
       </c>
       <c r="D3">
-        <v>0.2559</v>
+        <v>0.2543</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -925,13 +955,13 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>0.3838</v>
+        <v>0.3821</v>
       </c>
       <c r="C4">
-        <v>0.1293</v>
+        <v>0.1291</v>
       </c>
       <c r="D4">
-        <v>0.2546</v>
+        <v>0.253</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -939,13 +969,13 @@
         <v>7</v>
       </c>
       <c r="B5">
-        <v>0.3806</v>
+        <v>0.3789</v>
       </c>
       <c r="C5">
-        <v>0.1273</v>
+        <v>0.1272</v>
       </c>
       <c r="D5">
-        <v>0.2533</v>
+        <v>0.2517</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -953,13 +983,13 @@
         <v>8</v>
       </c>
       <c r="B6">
-        <v>0.3786</v>
+        <v>0.3769</v>
       </c>
       <c r="C6">
-        <v>0.1262</v>
+        <v>0.1261</v>
       </c>
       <c r="D6">
-        <v>0.2524</v>
+        <v>0.2508</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -967,13 +997,13 @@
         <v>9</v>
       </c>
       <c r="B7">
-        <v>0.3764</v>
+        <v>0.3747</v>
       </c>
       <c r="C7">
-        <v>0.1254</v>
+        <v>0.1253</v>
       </c>
       <c r="D7">
-        <v>0.251</v>
+        <v>0.2494</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -981,13 +1011,13 @@
         <v>10</v>
       </c>
       <c r="B8">
-        <v>0.3756</v>
+        <v>0.3739</v>
       </c>
       <c r="C8">
-        <v>0.1257</v>
+        <v>0.1255</v>
       </c>
       <c r="D8">
-        <v>0.25</v>
+        <v>0.2484</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -995,13 +1025,13 @@
         <v>11</v>
       </c>
       <c r="B9">
-        <v>0.3755</v>
+        <v>0.3737</v>
       </c>
       <c r="C9">
-        <v>0.1265</v>
+        <v>0.1264</v>
       </c>
       <c r="D9">
-        <v>0.249</v>
+        <v>0.2473</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1009,13 +1039,13 @@
         <v>12</v>
       </c>
       <c r="B10">
-        <v>0.3773</v>
+        <v>0.3755</v>
       </c>
       <c r="C10">
-        <v>0.1291</v>
+        <v>0.129</v>
       </c>
       <c r="D10">
-        <v>0.2482</v>
+        <v>0.2466</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1023,13 +1053,13 @@
         <v>13</v>
       </c>
       <c r="B11">
-        <v>0.3801</v>
+        <v>0.3783</v>
       </c>
       <c r="C11">
-        <v>0.1325</v>
+        <v>0.1324</v>
       </c>
       <c r="D11">
-        <v>0.2476</v>
+        <v>0.2459</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1037,13 +1067,13 @@
         <v>14</v>
       </c>
       <c r="B12">
-        <v>0.3834</v>
+        <v>0.3816</v>
       </c>
       <c r="C12">
-        <v>0.1363</v>
+        <v>0.1362</v>
       </c>
       <c r="D12">
-        <v>0.2471</v>
+        <v>0.2454</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1051,13 +1081,13 @@
         <v>15</v>
       </c>
       <c r="B13">
-        <v>0.3854</v>
+        <v>0.3836</v>
       </c>
       <c r="C13">
-        <v>0.1392</v>
+        <v>0.1391</v>
       </c>
       <c r="D13">
-        <v>0.2461</v>
+        <v>0.2445</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1065,13 +1095,13 @@
         <v>16</v>
       </c>
       <c r="B14">
-        <v>0.3864</v>
+        <v>0.3846</v>
       </c>
       <c r="C14">
-        <v>0.1413</v>
+        <v>0.1412</v>
       </c>
       <c r="D14">
-        <v>0.2451</v>
+        <v>0.2434</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -1079,13 +1109,13 @@
         <v>17</v>
       </c>
       <c r="B15">
-        <v>0.3872</v>
+        <v>0.3854</v>
       </c>
       <c r="C15">
-        <v>0.1432</v>
+        <v>0.1431</v>
       </c>
       <c r="D15">
-        <v>0.244</v>
+        <v>0.2423</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -1093,13 +1123,13 @@
         <v>18</v>
       </c>
       <c r="B16">
-        <v>0.3878</v>
+        <v>0.386</v>
       </c>
       <c r="C16">
-        <v>0.1449</v>
+        <v>0.1447</v>
       </c>
       <c r="D16">
-        <v>0.2429</v>
+        <v>0.2412</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -1107,13 +1137,13 @@
         <v>19</v>
       </c>
       <c r="B17">
-        <v>0.389</v>
+        <v>0.3871</v>
       </c>
       <c r="C17">
-        <v>0.1468</v>
+        <v>0.1467</v>
       </c>
       <c r="D17">
-        <v>0.2421</v>
+        <v>0.2404</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -1121,13 +1151,13 @@
         <v>20</v>
       </c>
       <c r="B18">
-        <v>0.3895</v>
+        <v>0.3876</v>
       </c>
       <c r="C18">
-        <v>0.1481</v>
+        <v>0.1479</v>
       </c>
       <c r="D18">
-        <v>0.2414</v>
+        <v>0.2397</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -1135,13 +1165,13 @@
         <v>21</v>
       </c>
       <c r="B19">
-        <v>0.3904</v>
+        <v>0.3885</v>
       </c>
       <c r="C19">
-        <v>0.1496</v>
+        <v>0.1495</v>
       </c>
       <c r="D19">
-        <v>0.2408</v>
+        <v>0.239</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -1149,13 +1179,13 @@
         <v>22</v>
       </c>
       <c r="B20">
-        <v>0.3914</v>
+        <v>0.3894</v>
       </c>
       <c r="C20">
-        <v>0.1516</v>
+        <v>0.1514</v>
       </c>
       <c r="D20">
-        <v>0.2398</v>
+        <v>0.238</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -1163,13 +1193,13 @@
         <v>23</v>
       </c>
       <c r="B21">
-        <v>0.3918</v>
+        <v>0.3899</v>
       </c>
       <c r="C21">
-        <v>0.1532</v>
+        <v>0.1531</v>
       </c>
       <c r="D21">
-        <v>0.2386</v>
+        <v>0.2368</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -1177,13 +1207,13 @@
         <v>24</v>
       </c>
       <c r="B22">
-        <v>0.3925</v>
+        <v>0.3905</v>
       </c>
       <c r="C22">
-        <v>0.1553</v>
+        <v>0.1552</v>
       </c>
       <c r="D22">
-        <v>0.2371</v>
+        <v>0.2353</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -1191,13 +1221,13 @@
         <v>25</v>
       </c>
       <c r="B23">
-        <v>0.3928</v>
+        <v>0.3908</v>
       </c>
       <c r="C23">
-        <v>0.1574</v>
+        <v>0.1572</v>
       </c>
       <c r="D23">
-        <v>0.2354</v>
+        <v>0.2336</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -1205,13 +1235,13 @@
         <v>26</v>
       </c>
       <c r="B24">
-        <v>0.3935</v>
+        <v>0.3915</v>
       </c>
       <c r="C24">
-        <v>0.1599</v>
+        <v>0.1598</v>
       </c>
       <c r="D24">
-        <v>0.2336</v>
+        <v>0.2317</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -1219,13 +1249,13 @@
         <v>27</v>
       </c>
       <c r="B25">
-        <v>0.3938</v>
+        <v>0.3919</v>
       </c>
       <c r="C25">
-        <v>0.1622</v>
+        <v>0.1621</v>
       </c>
       <c r="D25">
-        <v>0.2316</v>
+        <v>0.2298</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -1233,13 +1263,13 @@
         <v>28</v>
       </c>
       <c r="B26">
-        <v>0.3933</v>
+        <v>0.3913</v>
       </c>
       <c r="C26">
-        <v>0.164</v>
+        <v>0.1638</v>
       </c>
       <c r="D26">
-        <v>0.2293</v>
+        <v>0.2275</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -1247,13 +1277,13 @@
         <v>29</v>
       </c>
       <c r="B27">
-        <v>0.3926</v>
+        <v>0.3906</v>
       </c>
       <c r="C27">
-        <v>0.1657</v>
+        <v>0.1655</v>
       </c>
       <c r="D27">
-        <v>0.2269</v>
+        <v>0.225</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -1261,13 +1291,13 @@
         <v>30</v>
       </c>
       <c r="B28">
-        <v>0.3907</v>
+        <v>0.3886</v>
       </c>
       <c r="C28">
-        <v>0.1665</v>
+        <v>0.1663</v>
       </c>
       <c r="D28">
-        <v>0.2242</v>
+        <v>0.2223</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -1275,13 +1305,13 @@
         <v>31</v>
       </c>
       <c r="B29">
-        <v>0.3886</v>
+        <v>0.3865</v>
       </c>
       <c r="C29">
-        <v>0.1671</v>
+        <v>0.1669</v>
       </c>
       <c r="D29">
-        <v>0.2215</v>
+        <v>0.2196</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -1289,13 +1319,13 @@
         <v>32</v>
       </c>
       <c r="B30">
-        <v>0.3849</v>
+        <v>0.3828</v>
       </c>
       <c r="C30">
-        <v>0.1664</v>
+        <v>0.1662</v>
       </c>
       <c r="D30">
-        <v>0.2185</v>
+        <v>0.2166</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -1303,13 +1333,13 @@
         <v>33</v>
       </c>
       <c r="B31">
-        <v>0.3794</v>
+        <v>0.3773</v>
       </c>
       <c r="C31">
-        <v>0.1641</v>
+        <v>0.164</v>
       </c>
       <c r="D31">
-        <v>0.2153</v>
+        <v>0.2133</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -1317,13 +1347,13 @@
         <v>34</v>
       </c>
       <c r="B32">
-        <v>0.3727</v>
+        <v>0.3705</v>
       </c>
       <c r="C32">
-        <v>0.161</v>
+        <v>0.1609</v>
       </c>
       <c r="D32">
-        <v>0.2117</v>
+        <v>0.2097</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -1331,13 +1361,13 @@
         <v>35</v>
       </c>
       <c r="B33">
-        <v>0.3672</v>
+        <v>0.365</v>
       </c>
       <c r="C33">
-        <v>0.1589</v>
+        <v>0.1587</v>
       </c>
       <c r="D33">
-        <v>0.2084</v>
+        <v>0.2064</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -1345,13 +1375,13 @@
         <v>36</v>
       </c>
       <c r="B34">
-        <v>0.3624</v>
+        <v>0.3602</v>
       </c>
       <c r="C34">
-        <v>0.157</v>
+        <v>0.1568</v>
       </c>
       <c r="D34">
-        <v>0.2054</v>
+        <v>0.2034</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -1359,13 +1389,13 @@
         <v>37</v>
       </c>
       <c r="B35">
-        <v>0.3575</v>
+        <v>0.3553</v>
       </c>
       <c r="C35">
-        <v>0.1551</v>
+        <v>0.155</v>
       </c>
       <c r="D35">
-        <v>0.2024</v>
+        <v>0.2003</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -1373,13 +1403,13 @@
         <v>38</v>
       </c>
       <c r="B36">
-        <v>0.3529</v>
+        <v>0.3506</v>
       </c>
       <c r="C36">
-        <v>0.1537</v>
+        <v>0.1535</v>
       </c>
       <c r="D36">
-        <v>0.1992</v>
+        <v>0.1971</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -1387,13 +1417,13 @@
         <v>39</v>
       </c>
       <c r="B37">
-        <v>0.3484</v>
+        <v>0.3461</v>
       </c>
       <c r="C37">
-        <v>0.1525</v>
+        <v>0.1523</v>
       </c>
       <c r="D37">
-        <v>0.1959</v>
+        <v>0.1937</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -1401,13 +1431,13 @@
         <v>40</v>
       </c>
       <c r="B38">
-        <v>0.3442</v>
+        <v>0.3418</v>
       </c>
       <c r="C38">
-        <v>0.1511</v>
+        <v>0.1509</v>
       </c>
       <c r="D38">
-        <v>0.1931</v>
+        <v>0.1909</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -1415,13 +1445,13 @@
         <v>41</v>
       </c>
       <c r="B39">
-        <v>0.3398</v>
+        <v>0.3374</v>
       </c>
       <c r="C39">
-        <v>0.1496</v>
+        <v>0.1494</v>
       </c>
       <c r="D39">
-        <v>0.1902</v>
+        <v>0.188</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -1429,13 +1459,13 @@
         <v>42</v>
       </c>
       <c r="B40">
-        <v>0.3344</v>
+        <v>0.3319</v>
       </c>
       <c r="C40">
-        <v>0.1473</v>
+        <v>0.1471</v>
       </c>
       <c r="D40">
-        <v>0.187</v>
+        <v>0.1848</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -1443,13 +1473,13 @@
         <v>43</v>
       </c>
       <c r="B41">
-        <v>0.3306</v>
+        <v>0.3281</v>
       </c>
       <c r="C41">
-        <v>0.1462</v>
+        <v>0.146</v>
       </c>
       <c r="D41">
-        <v>0.1843</v>
+        <v>0.1821</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -1457,13 +1487,13 @@
         <v>44</v>
       </c>
       <c r="B42">
-        <v>0.3278</v>
+        <v>0.3252</v>
       </c>
       <c r="C42">
-        <v>0.1458</v>
+        <v>0.1456</v>
       </c>
       <c r="D42">
-        <v>0.1819</v>
+        <v>0.1796</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -1471,13 +1501,13 @@
         <v>45</v>
       </c>
       <c r="B43">
-        <v>0.3251</v>
+        <v>0.3226</v>
       </c>
       <c r="C43">
-        <v>0.1452</v>
+        <v>0.145</v>
       </c>
       <c r="D43">
-        <v>0.1799</v>
+        <v>0.1776</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -1485,13 +1515,13 @@
         <v>46</v>
       </c>
       <c r="B44">
-        <v>0.3227</v>
+        <v>0.3201</v>
       </c>
       <c r="C44">
-        <v>0.1448</v>
+        <v>0.1446</v>
       </c>
       <c r="D44">
-        <v>0.1779</v>
+        <v>0.1755</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1499,13 +1529,13 @@
         <v>47</v>
       </c>
       <c r="B45">
-        <v>0.3215</v>
+        <v>0.3189</v>
       </c>
       <c r="C45">
-        <v>0.1449</v>
+        <v>0.1447</v>
       </c>
       <c r="D45">
-        <v>0.1766</v>
+        <v>0.1742</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1513,13 +1543,13 @@
         <v>48</v>
       </c>
       <c r="B46">
-        <v>0.3199</v>
+        <v>0.3172</v>
       </c>
       <c r="C46">
-        <v>0.1446</v>
+        <v>0.1444</v>
       </c>
       <c r="D46">
-        <v>0.1752</v>
+        <v>0.1728</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1527,13 +1557,13 @@
         <v>49</v>
       </c>
       <c r="B47">
-        <v>0.3188</v>
+        <v>0.3161</v>
       </c>
       <c r="C47">
-        <v>0.1446</v>
+        <v>0.1444</v>
       </c>
       <c r="D47">
-        <v>0.1742</v>
+        <v>0.1718</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1541,13 +1571,13 @@
         <v>50</v>
       </c>
       <c r="B48">
-        <v>0.3179</v>
+        <v>0.3152</v>
       </c>
       <c r="C48">
-        <v>0.1449</v>
+        <v>0.1447</v>
       </c>
       <c r="D48">
-        <v>0.173</v>
+        <v>0.1705</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1555,13 +1585,13 @@
         <v>51</v>
       </c>
       <c r="B49">
-        <v>0.3167</v>
+        <v>0.3141</v>
       </c>
       <c r="C49">
-        <v>0.1451</v>
+        <v>0.1449</v>
       </c>
       <c r="D49">
-        <v>0.1717</v>
+        <v>0.1692</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -1569,13 +1599,13 @@
         <v>52</v>
       </c>
       <c r="B50">
-        <v>0.3166</v>
+        <v>0.3139</v>
       </c>
       <c r="C50">
-        <v>0.146</v>
+        <v>0.1458</v>
       </c>
       <c r="D50">
-        <v>0.1706</v>
+        <v>0.1681</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -1583,13 +1613,13 @@
         <v>53</v>
       </c>
       <c r="B51">
-        <v>0.3165</v>
+        <v>0.3138</v>
       </c>
       <c r="C51">
-        <v>0.1468</v>
+        <v>0.1466</v>
       </c>
       <c r="D51">
-        <v>0.1697</v>
+        <v>0.1672</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -1597,13 +1627,13 @@
         <v>54</v>
       </c>
       <c r="B52">
-        <v>0.3174</v>
+        <v>0.3147</v>
       </c>
       <c r="C52">
-        <v>0.1482</v>
+        <v>0.148</v>
       </c>
       <c r="D52">
-        <v>0.1691</v>
+        <v>0.1667</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -1611,13 +1641,13 @@
         <v>55</v>
       </c>
       <c r="B53">
-        <v>0.318</v>
+        <v>0.3153</v>
       </c>
       <c r="C53">
-        <v>0.1496</v>
+        <v>0.1494</v>
       </c>
       <c r="D53">
-        <v>0.1684</v>
+        <v>0.1659</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -1625,13 +1655,13 @@
         <v>56</v>
       </c>
       <c r="B54">
-        <v>0.3179</v>
+        <v>0.3152</v>
       </c>
       <c r="C54">
-        <v>0.1507</v>
+        <v>0.1505</v>
       </c>
       <c r="D54">
-        <v>0.1672</v>
+        <v>0.1648</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -1639,13 +1669,13 @@
         <v>57</v>
       </c>
       <c r="B55">
-        <v>0.3178</v>
+        <v>0.3152</v>
       </c>
       <c r="C55">
-        <v>0.1518</v>
+        <v>0.1516</v>
       </c>
       <c r="D55">
-        <v>0.166</v>
+        <v>0.1636</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -1653,13 +1683,13 @@
         <v>58</v>
       </c>
       <c r="B56">
-        <v>0.3186</v>
+        <v>0.316</v>
       </c>
       <c r="C56">
-        <v>0.1533</v>
+        <v>0.1531</v>
       </c>
       <c r="D56">
-        <v>0.1653</v>
+        <v>0.1629</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -1667,13 +1697,13 @@
         <v>59</v>
       </c>
       <c r="B57">
-        <v>0.3192</v>
+        <v>0.3166</v>
       </c>
       <c r="C57">
-        <v>0.1545</v>
+        <v>0.1543</v>
       </c>
       <c r="D57">
-        <v>0.1647</v>
+        <v>0.1623</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -1681,13 +1711,13 @@
         <v>60</v>
       </c>
       <c r="B58">
-        <v>0.3193</v>
+        <v>0.3167</v>
       </c>
       <c r="C58">
-        <v>0.1559</v>
+        <v>0.1557</v>
       </c>
       <c r="D58">
-        <v>0.1634</v>
+        <v>0.161</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -1695,13 +1725,13 @@
         <v>61</v>
       </c>
       <c r="B59">
-        <v>0.3197</v>
+        <v>0.3171</v>
       </c>
       <c r="C59">
-        <v>0.1576</v>
+        <v>0.1574</v>
       </c>
       <c r="D59">
-        <v>0.1621</v>
+        <v>0.1598</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -1709,13 +1739,13 @@
         <v>62</v>
       </c>
       <c r="B60">
-        <v>0.3212</v>
+        <v>0.3187</v>
       </c>
       <c r="C60">
-        <v>0.1601</v>
+        <v>0.1599</v>
       </c>
       <c r="D60">
-        <v>0.1611</v>
+        <v>0.1588</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -1723,13 +1753,13 @@
         <v>63</v>
       </c>
       <c r="B61">
-        <v>0.3207</v>
+        <v>0.3181</v>
       </c>
       <c r="C61">
-        <v>0.1611</v>
+        <v>0.1608</v>
       </c>
       <c r="D61">
-        <v>0.1596</v>
+        <v>0.1573</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -1737,13 +1767,13 @@
         <v>64</v>
       </c>
       <c r="B62">
-        <v>0.3212</v>
+        <v>0.3186</v>
       </c>
       <c r="C62">
-        <v>0.1616</v>
+        <v>0.1614</v>
       </c>
       <c r="D62">
-        <v>0.1596</v>
+        <v>0.1572</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -1751,13 +1781,13 @@
         <v>65</v>
       </c>
       <c r="B63">
-        <v>0.3212</v>
+        <v>0.3186</v>
       </c>
       <c r="C63">
-        <v>0.1621</v>
+        <v>0.1619</v>
       </c>
       <c r="D63">
-        <v>0.1591</v>
+        <v>0.1567</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -1765,13 +1795,13 @@
         <v>66</v>
       </c>
       <c r="B64">
-        <v>0.3205</v>
+        <v>0.318</v>
       </c>
       <c r="C64">
-        <v>0.162</v>
+        <v>0.1618</v>
       </c>
       <c r="D64">
-        <v>0.1585</v>
+        <v>0.1562</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -1779,13 +1809,13 @@
         <v>67</v>
       </c>
       <c r="B65">
-        <v>0.32</v>
+        <v>0.3174</v>
       </c>
       <c r="C65">
-        <v>0.1625</v>
+        <v>0.1622</v>
       </c>
       <c r="D65">
-        <v>0.1575</v>
+        <v>0.1552</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -1793,13 +1823,13 @@
         <v>68</v>
       </c>
       <c r="B66">
-        <v>0.319</v>
+        <v>0.3164</v>
       </c>
       <c r="C66">
-        <v>0.1622</v>
+        <v>0.162</v>
       </c>
       <c r="D66">
-        <v>0.1567</v>
+        <v>0.1544</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -1807,13 +1837,13 @@
         <v>69</v>
       </c>
       <c r="B67">
-        <v>0.3179</v>
+        <v>0.3154</v>
       </c>
       <c r="C67">
-        <v>0.1619</v>
+        <v>0.1617</v>
       </c>
       <c r="D67">
-        <v>0.156</v>
+        <v>0.1537</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -1821,13 +1851,13 @@
         <v>70</v>
       </c>
       <c r="B68">
-        <v>0.3165</v>
+        <v>0.3139</v>
       </c>
       <c r="C68">
-        <v>0.1611</v>
+        <v>0.1609</v>
       </c>
       <c r="D68">
-        <v>0.1553</v>
+        <v>0.153</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -1835,13 +1865,13 @@
         <v>71</v>
       </c>
       <c r="B69">
-        <v>0.3147</v>
+        <v>0.3121</v>
       </c>
       <c r="C69">
-        <v>0.16</v>
+        <v>0.1597</v>
       </c>
       <c r="D69">
-        <v>0.1548</v>
+        <v>0.1524</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -1849,13 +1879,13 @@
         <v>72</v>
       </c>
       <c r="B70">
-        <v>0.3115</v>
+        <v>0.3089</v>
       </c>
       <c r="C70">
-        <v>0.1576</v>
+        <v>0.1573</v>
       </c>
       <c r="D70">
-        <v>0.1539</v>
+        <v>0.1515</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -1863,13 +1893,13 @@
         <v>73</v>
       </c>
       <c r="B71">
-        <v>0.309</v>
+        <v>0.3065</v>
       </c>
       <c r="C71">
-        <v>0.1559</v>
+        <v>0.1557</v>
       </c>
       <c r="D71">
-        <v>0.1531</v>
+        <v>0.1508</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -1877,13 +1907,13 @@
         <v>74</v>
       </c>
       <c r="B72">
-        <v>0.3064</v>
+        <v>0.3038</v>
       </c>
       <c r="C72">
-        <v>0.1541</v>
+        <v>0.1538</v>
       </c>
       <c r="D72">
-        <v>0.1523</v>
+        <v>0.1499</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -1891,13 +1921,13 @@
         <v>75</v>
       </c>
       <c r="B73">
-        <v>0.3049</v>
+        <v>0.3023</v>
       </c>
       <c r="C73">
-        <v>0.1529</v>
+        <v>0.1526</v>
       </c>
       <c r="D73">
-        <v>0.152</v>
+        <v>0.1497</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -1905,13 +1935,13 @@
         <v>76</v>
       </c>
       <c r="B74">
-        <v>0.3038</v>
+        <v>0.3012</v>
       </c>
       <c r="C74">
-        <v>0.1513</v>
+        <v>0.1511</v>
       </c>
       <c r="D74">
-        <v>0.1525</v>
+        <v>0.1501</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -1919,13 +1949,13 @@
         <v>77</v>
       </c>
       <c r="B75">
-        <v>0.3033</v>
+        <v>0.3007</v>
       </c>
       <c r="C75">
-        <v>0.1501</v>
+        <v>0.1499</v>
       </c>
       <c r="D75">
-        <v>0.1532</v>
+        <v>0.1508</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -1933,13 +1963,13 @@
         <v>78</v>
       </c>
       <c r="B76">
-        <v>0.3025</v>
+        <v>0.2998</v>
       </c>
       <c r="C76">
-        <v>0.1487</v>
+        <v>0.1484</v>
       </c>
       <c r="D76">
-        <v>0.1538</v>
+        <v>0.1514</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -1947,13 +1977,13 @@
         <v>79</v>
       </c>
       <c r="B77">
-        <v>0.3014</v>
+        <v>0.2987</v>
       </c>
       <c r="C77">
-        <v>0.1472</v>
+        <v>0.147</v>
       </c>
       <c r="D77">
-        <v>0.1542</v>
+        <v>0.1517</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -1961,13 +1991,13 @@
         <v>80</v>
       </c>
       <c r="B78">
-        <v>0.3003</v>
+        <v>0.2976</v>
       </c>
       <c r="C78">
-        <v>0.1459</v>
+        <v>0.1457</v>
       </c>
       <c r="D78">
-        <v>0.1544</v>
+        <v>0.1519</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -1975,13 +2005,13 @@
         <v>81</v>
       </c>
       <c r="B79">
-        <v>0.2991</v>
+        <v>0.2964</v>
       </c>
       <c r="C79">
-        <v>0.1443</v>
+        <v>0.1441</v>
       </c>
       <c r="D79">
-        <v>0.1547</v>
+        <v>0.1523</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -1989,13 +2019,13 @@
         <v>82</v>
       </c>
       <c r="B80">
-        <v>0.2983</v>
+        <v>0.2956</v>
       </c>
       <c r="C80">
-        <v>0.143</v>
+        <v>0.1427</v>
       </c>
       <c r="D80">
-        <v>0.1553</v>
+        <v>0.1528</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -2003,13 +2033,13 @@
         <v>83</v>
       </c>
       <c r="B81">
-        <v>0.2979</v>
+        <v>0.2951</v>
       </c>
       <c r="C81">
-        <v>0.1418</v>
+        <v>0.1415</v>
       </c>
       <c r="D81">
-        <v>0.1561</v>
+        <v>0.1536</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -2017,13 +2047,13 @@
         <v>84</v>
       </c>
       <c r="B82">
-        <v>0.296</v>
+        <v>0.2933</v>
       </c>
       <c r="C82">
-        <v>0.1404</v>
+        <v>0.1401</v>
       </c>
       <c r="D82">
-        <v>0.1556</v>
+        <v>0.1531</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -2031,13 +2061,13 @@
         <v>85</v>
       </c>
       <c r="B83">
-        <v>0.2944</v>
+        <v>0.2917</v>
       </c>
       <c r="C83">
-        <v>0.1388</v>
+        <v>0.1386</v>
       </c>
       <c r="D83">
-        <v>0.1556</v>
+        <v>0.1531</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -2045,13 +2075,13 @@
         <v>86</v>
       </c>
       <c r="B84">
-        <v>0.2933</v>
+        <v>0.2906</v>
       </c>
       <c r="C84">
-        <v>0.1374</v>
+        <v>0.1372</v>
       </c>
       <c r="D84">
-        <v>0.1558</v>
+        <v>0.1534</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -2059,13 +2089,13 @@
         <v>87</v>
       </c>
       <c r="B85">
-        <v>0.2921</v>
+        <v>0.2893</v>
       </c>
       <c r="C85">
-        <v>0.1359</v>
+        <v>0.1357</v>
       </c>
       <c r="D85">
-        <v>0.1561</v>
+        <v>0.1536</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -2073,13 +2103,13 @@
         <v>88</v>
       </c>
       <c r="B86">
-        <v>0.2915</v>
+        <v>0.2888</v>
       </c>
       <c r="C86">
-        <v>0.1348</v>
+        <v>0.1345</v>
       </c>
       <c r="D86">
-        <v>0.1568</v>
+        <v>0.1543</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -2087,13 +2117,13 @@
         <v>89</v>
       </c>
       <c r="B87">
-        <v>0.2912</v>
+        <v>0.2885</v>
       </c>
       <c r="C87">
-        <v>0.1338</v>
+        <v>0.1336</v>
       </c>
       <c r="D87">
-        <v>0.1574</v>
+        <v>0.1549</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -2101,13 +2131,13 @@
         <v>90</v>
       </c>
       <c r="B88">
-        <v>0.2921</v>
+        <v>0.2893</v>
       </c>
       <c r="C88">
-        <v>0.1332</v>
+        <v>0.133</v>
       </c>
       <c r="D88">
-        <v>0.1588</v>
+        <v>0.1563</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -2115,13 +2145,13 @@
         <v>91</v>
       </c>
       <c r="B89">
-        <v>0.293</v>
+        <v>0.2902</v>
       </c>
       <c r="C89">
-        <v>0.1329</v>
+        <v>0.1327</v>
       </c>
       <c r="D89">
-        <v>0.1601</v>
+        <v>0.1575</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -2129,13 +2159,13 @@
         <v>92</v>
       </c>
       <c r="B90">
-        <v>0.2945</v>
+        <v>0.2917</v>
       </c>
       <c r="C90">
-        <v>0.133</v>
+        <v>0.1328</v>
       </c>
       <c r="D90">
-        <v>0.1615</v>
+        <v>0.1589</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -2143,13 +2173,13 @@
         <v>93</v>
       </c>
       <c r="B91">
-        <v>0.2958</v>
+        <v>0.2929</v>
       </c>
       <c r="C91">
-        <v>0.1329</v>
+        <v>0.1326</v>
       </c>
       <c r="D91">
-        <v>0.1629</v>
+        <v>0.1603</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -2157,13 +2187,13 @@
         <v>94</v>
       </c>
       <c r="B92">
-        <v>0.2963</v>
+        <v>0.2935</v>
       </c>
       <c r="C92">
-        <v>0.1323</v>
+        <v>0.1321</v>
       </c>
       <c r="D92">
-        <v>0.164</v>
+        <v>0.1614</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -2171,13 +2201,13 @@
         <v>95</v>
       </c>
       <c r="B93">
-        <v>0.2968</v>
+        <v>0.294</v>
       </c>
       <c r="C93">
-        <v>0.1324</v>
+        <v>0.1322</v>
       </c>
       <c r="D93">
-        <v>0.1644</v>
+        <v>0.1618</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -2185,13 +2215,13 @@
         <v>96</v>
       </c>
       <c r="B94">
-        <v>0.2978</v>
+        <v>0.295</v>
       </c>
       <c r="C94">
-        <v>0.133</v>
+        <v>0.1328</v>
       </c>
       <c r="D94">
-        <v>0.1648</v>
+        <v>0.1622</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -2199,13 +2229,13 @@
         <v>97</v>
       </c>
       <c r="B95">
-        <v>0.2975</v>
+        <v>0.2947</v>
       </c>
       <c r="C95">
-        <v>0.1326</v>
+        <v>0.1324</v>
       </c>
       <c r="D95">
-        <v>0.1649</v>
+        <v>0.1623</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -2213,13 +2243,13 @@
         <v>98</v>
       </c>
       <c r="B96">
-        <v>0.2973</v>
+        <v>0.2944</v>
       </c>
       <c r="C96">
-        <v>0.1327</v>
+        <v>0.1324</v>
       </c>
       <c r="D96">
-        <v>0.1646</v>
+        <v>0.162</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -2227,13 +2257,13 @@
         <v>99</v>
       </c>
       <c r="B97">
-        <v>0.3006</v>
+        <v>0.2977</v>
       </c>
       <c r="C97">
-        <v>0.1346</v>
+        <v>0.1343</v>
       </c>
       <c r="D97">
-        <v>0.166</v>
+        <v>0.1634</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -2241,13 +2271,13 @@
         <v>100</v>
       </c>
       <c r="B98">
-        <v>0.3041</v>
+        <v>0.3012</v>
       </c>
       <c r="C98">
-        <v>0.1365</v>
+        <v>0.1363</v>
       </c>
       <c r="D98">
-        <v>0.1676</v>
+        <v>0.1649</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -2255,13 +2285,13 @@
         <v>101</v>
       </c>
       <c r="B99">
-        <v>0.3078</v>
+        <v>0.3048</v>
       </c>
       <c r="C99">
-        <v>0.1388</v>
+        <v>0.1385</v>
       </c>
       <c r="D99">
-        <v>0.169</v>
+        <v>0.1663</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -2269,13 +2299,13 @@
         <v>102</v>
       </c>
       <c r="B100">
-        <v>0.3109</v>
+        <v>0.3079</v>
       </c>
       <c r="C100">
-        <v>0.1407</v>
+        <v>0.1405</v>
       </c>
       <c r="D100">
-        <v>0.1702</v>
+        <v>0.1674</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -2283,13 +2313,13 @@
         <v>103</v>
       </c>
       <c r="B101">
-        <v>0.3154</v>
+        <v>0.3124</v>
       </c>
       <c r="C101">
-        <v>0.1438</v>
+        <v>0.1436</v>
       </c>
       <c r="D101">
-        <v>0.1715</v>
+        <v>0.1688</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -2297,13 +2327,13 @@
         <v>104</v>
       </c>
       <c r="B102">
-        <v>0.3196</v>
+        <v>0.3166</v>
       </c>
       <c r="C102">
-        <v>0.147</v>
+        <v>0.1468</v>
       </c>
       <c r="D102">
-        <v>0.1726</v>
+        <v>0.1698</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -2311,13 +2341,13 @@
         <v>105</v>
       </c>
       <c r="B103">
-        <v>0.3237</v>
+        <v>0.3207</v>
       </c>
       <c r="C103">
-        <v>0.1503</v>
+        <v>0.1501</v>
       </c>
       <c r="D103">
-        <v>0.1734</v>
+        <v>0.1707</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -2325,13 +2355,13 @@
         <v>106</v>
       </c>
       <c r="B104">
-        <v>0.327</v>
+        <v>0.324</v>
       </c>
       <c r="C104">
-        <v>0.153</v>
+        <v>0.1528</v>
       </c>
       <c r="D104">
-        <v>0.1739</v>
+        <v>0.1712</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -2339,13 +2369,13 @@
         <v>107</v>
       </c>
       <c r="B105">
-        <v>0.3287</v>
+        <v>0.3257</v>
       </c>
       <c r="C105">
-        <v>0.1543</v>
+        <v>0.1541</v>
       </c>
       <c r="D105">
-        <v>0.1744</v>
+        <v>0.1716</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -2353,13 +2383,13 @@
         <v>108</v>
       </c>
       <c r="B106">
-        <v>0.3299</v>
+        <v>0.3269</v>
       </c>
       <c r="C106">
-        <v>0.1554</v>
+        <v>0.1552</v>
       </c>
       <c r="D106">
-        <v>0.1745</v>
+        <v>0.1717</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -2367,13 +2397,13 @@
         <v>109</v>
       </c>
       <c r="B107">
-        <v>0.3309</v>
+        <v>0.3279</v>
       </c>
       <c r="C107">
-        <v>0.1565</v>
+        <v>0.1563</v>
       </c>
       <c r="D107">
-        <v>0.1743</v>
+        <v>0.1716</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -2381,13 +2411,13 @@
         <v>110</v>
       </c>
       <c r="B108">
-        <v>0.3313</v>
+        <v>0.3284</v>
       </c>
       <c r="C108">
-        <v>0.1579</v>
+        <v>0.1577</v>
       </c>
       <c r="D108">
-        <v>0.1734</v>
+        <v>0.1707</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -2395,13 +2425,13 @@
         <v>111</v>
       </c>
       <c r="B109">
-        <v>0.3323</v>
+        <v>0.3293</v>
       </c>
       <c r="C109">
-        <v>0.1593</v>
+        <v>0.1591</v>
       </c>
       <c r="D109">
-        <v>0.1729</v>
+        <v>0.1702</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -2409,13 +2439,13 @@
         <v>112</v>
       </c>
       <c r="B110">
-        <v>0.3338</v>
+        <v>0.3307</v>
       </c>
       <c r="C110">
-        <v>0.1606</v>
+        <v>0.1604</v>
       </c>
       <c r="D110">
-        <v>0.1731</v>
+        <v>0.1704</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -2423,13 +2453,13 @@
         <v>113</v>
       </c>
       <c r="B111">
-        <v>0.3354</v>
+        <v>0.3324</v>
       </c>
       <c r="C111">
-        <v>0.162</v>
+        <v>0.1617</v>
       </c>
       <c r="D111">
-        <v>0.1734</v>
+        <v>0.1706</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -2437,13 +2467,13 @@
         <v>114</v>
       </c>
       <c r="B112">
-        <v>0.3372</v>
+        <v>0.3341</v>
       </c>
       <c r="C112">
-        <v>0.1632</v>
+        <v>0.163</v>
       </c>
       <c r="D112">
-        <v>0.174</v>
+        <v>0.1711</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -2451,13 +2481,13 @@
         <v>115</v>
       </c>
       <c r="B113">
-        <v>0.3382</v>
+        <v>0.3351</v>
       </c>
       <c r="C113">
-        <v>0.1635</v>
+        <v>0.1633</v>
       </c>
       <c r="D113">
-        <v>0.1746</v>
+        <v>0.1718</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -2465,13 +2495,13 @@
         <v>116</v>
       </c>
       <c r="B114">
-        <v>0.3384</v>
+        <v>0.3352</v>
       </c>
       <c r="C114">
-        <v>0.1637</v>
+        <v>0.1635</v>
       </c>
       <c r="D114">
-        <v>0.1746</v>
+        <v>0.1717</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -2479,13 +2509,13 @@
         <v>117</v>
       </c>
       <c r="B115">
-        <v>0.339</v>
+        <v>0.3359</v>
       </c>
       <c r="C115">
-        <v>0.1645</v>
+        <v>0.1642</v>
       </c>
       <c r="D115">
-        <v>0.1745</v>
+        <v>0.1716</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -2493,13 +2523,13 @@
         <v>118</v>
       </c>
       <c r="B116">
-        <v>0.3397</v>
+        <v>0.3365</v>
       </c>
       <c r="C116">
-        <v>0.165</v>
+        <v>0.1647</v>
       </c>
       <c r="D116">
-        <v>0.1747</v>
+        <v>0.1718</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -2507,13 +2537,13 @@
         <v>119</v>
       </c>
       <c r="B117">
-        <v>0.3373</v>
+        <v>0.3341</v>
       </c>
       <c r="C117">
-        <v>0.164</v>
+        <v>0.1638</v>
       </c>
       <c r="D117">
-        <v>0.1732</v>
+        <v>0.1703</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -2521,13 +2551,13 @@
         <v>120</v>
       </c>
       <c r="B118">
-        <v>0.3347</v>
+        <v>0.3316</v>
       </c>
       <c r="C118">
-        <v>0.1632</v>
+        <v>0.163</v>
       </c>
       <c r="D118">
-        <v>0.1715</v>
+        <v>0.1687</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -2535,13 +2565,13 @@
         <v>121</v>
       </c>
       <c r="B119">
-        <v>0.3331</v>
+        <v>0.33</v>
       </c>
       <c r="C119">
-        <v>0.1631</v>
+        <v>0.1628</v>
       </c>
       <c r="D119">
-        <v>0.17</v>
+        <v>0.1672</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -2549,13 +2579,13 @@
         <v>122</v>
       </c>
       <c r="B120">
-        <v>0.3312</v>
+        <v>0.3281</v>
       </c>
       <c r="C120">
-        <v>0.1629</v>
+        <v>0.1626</v>
       </c>
       <c r="D120">
-        <v>0.1684</v>
+        <v>0.1655</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -2563,13 +2593,13 @@
         <v>123</v>
       </c>
       <c r="B121">
-        <v>0.3277</v>
+        <v>0.3246</v>
       </c>
       <c r="C121">
-        <v>0.1614</v>
+        <v>0.1611</v>
       </c>
       <c r="D121">
-        <v>0.1664</v>
+        <v>0.1635</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -2577,13 +2607,13 @@
         <v>124</v>
       </c>
       <c r="B122">
-        <v>0.3239</v>
+        <v>0.3208</v>
       </c>
       <c r="C122">
-        <v>0.1597</v>
+        <v>0.1594</v>
       </c>
       <c r="D122">
-        <v>0.1642</v>
+        <v>0.1614</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -2591,13 +2621,13 @@
         <v>125</v>
       </c>
       <c r="B123">
-        <v>0.3194</v>
+        <v>0.3163</v>
       </c>
       <c r="C123">
-        <v>0.1577</v>
+        <v>0.1574</v>
       </c>
       <c r="D123">
-        <v>0.1618</v>
+        <v>0.1589</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -2605,13 +2635,13 @@
         <v>126</v>
       </c>
       <c r="B124">
-        <v>0.3169</v>
+        <v>0.3138</v>
       </c>
       <c r="C124">
-        <v>0.1569</v>
+        <v>0.1566</v>
       </c>
       <c r="D124">
-        <v>0.1601</v>
+        <v>0.1572</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -2619,13 +2649,13 @@
         <v>127</v>
       </c>
       <c r="B125">
-        <v>0.314</v>
+        <v>0.3108</v>
       </c>
       <c r="C125">
-        <v>0.156</v>
+        <v>0.1558</v>
       </c>
       <c r="D125">
-        <v>0.158</v>
+        <v>0.1551</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -2633,13 +2663,13 @@
         <v>128</v>
       </c>
       <c r="B126">
-        <v>0.3123</v>
+        <v>0.3091</v>
       </c>
       <c r="C126">
-        <v>0.156</v>
+        <v>0.1558</v>
       </c>
       <c r="D126">
-        <v>0.1563</v>
+        <v>0.1533</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -2647,13 +2677,13 @@
         <v>129</v>
       </c>
       <c r="B127">
-        <v>0.3106</v>
+        <v>0.3073</v>
       </c>
       <c r="C127">
-        <v>0.1564</v>
+        <v>0.1561</v>
       </c>
       <c r="D127">
-        <v>0.1542</v>
+        <v>0.1512</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -2661,13 +2691,13 @@
         <v>130</v>
       </c>
       <c r="B128">
-        <v>0.3086</v>
+        <v>0.3052</v>
       </c>
       <c r="C128">
-        <v>0.1559</v>
+        <v>0.1556</v>
       </c>
       <c r="D128">
-        <v>0.1527</v>
+        <v>0.1496</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -2675,13 +2705,13 @@
         <v>131</v>
       </c>
       <c r="B129">
-        <v>0.3072</v>
+        <v>0.3037</v>
       </c>
       <c r="C129">
-        <v>0.1555</v>
+        <v>0.1551</v>
       </c>
       <c r="D129">
-        <v>0.1517</v>
+        <v>0.1486</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -2689,13 +2719,13 @@
         <v>132</v>
       </c>
       <c r="B130">
-        <v>0.3062</v>
+        <v>0.3027</v>
       </c>
       <c r="C130">
-        <v>0.1562</v>
+        <v>0.1559</v>
       </c>
       <c r="D130">
-        <v>0.15</v>
+        <v>0.1468</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -2703,13 +2733,13 @@
         <v>133</v>
       </c>
       <c r="B131">
-        <v>0.3068</v>
+        <v>0.3032</v>
       </c>
       <c r="C131">
-        <v>0.1584</v>
+        <v>0.1581</v>
       </c>
       <c r="D131">
-        <v>0.1483</v>
+        <v>0.1451</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -2717,13 +2747,13 @@
         <v>134</v>
       </c>
       <c r="B132">
-        <v>0.3081</v>
+        <v>0.3045</v>
       </c>
       <c r="C132">
-        <v>0.1601</v>
+        <v>0.1598</v>
       </c>
       <c r="D132">
-        <v>0.148</v>
+        <v>0.1447</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -2731,13 +2761,13 @@
         <v>135</v>
       </c>
       <c r="B133">
-        <v>0.3082</v>
+        <v>0.3045</v>
       </c>
       <c r="C133">
-        <v>0.1608</v>
+        <v>0.1604</v>
       </c>
       <c r="D133">
-        <v>0.1474</v>
+        <v>0.1441</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -2745,13 +2775,13 @@
         <v>136</v>
       </c>
       <c r="B134">
-        <v>0.3084</v>
+        <v>0.3046</v>
       </c>
       <c r="C134">
-        <v>0.1615</v>
+        <v>0.1612</v>
       </c>
       <c r="D134">
-        <v>0.1469</v>
+        <v>0.1435</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -2759,13 +2789,13 @@
         <v>137</v>
       </c>
       <c r="B135">
-        <v>0.3083</v>
+        <v>0.3045</v>
       </c>
       <c r="C135">
-        <v>0.1621</v>
+        <v>0.1617</v>
       </c>
       <c r="D135">
-        <v>0.1463</v>
+        <v>0.1428</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -2773,13 +2803,13 @@
         <v>138</v>
       </c>
       <c r="B136">
-        <v>0.308</v>
+        <v>0.3042</v>
       </c>
       <c r="C136">
-        <v>0.1627</v>
+        <v>0.1623</v>
       </c>
       <c r="D136">
-        <v>0.1453</v>
+        <v>0.1419</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -2787,13 +2817,13 @@
         <v>139</v>
       </c>
       <c r="B137">
-        <v>0.3084</v>
+        <v>0.3045</v>
       </c>
       <c r="C137">
-        <v>0.1635</v>
+        <v>0.1632</v>
       </c>
       <c r="D137">
-        <v>0.1449</v>
+        <v>0.1414</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -2801,13 +2831,13 @@
         <v>140</v>
       </c>
       <c r="B138">
-        <v>0.3088</v>
+        <v>0.3049</v>
       </c>
       <c r="C138">
-        <v>0.1643</v>
+        <v>0.1639</v>
       </c>
       <c r="D138">
-        <v>0.1445</v>
+        <v>0.141</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -2815,13 +2845,13 @@
         <v>141</v>
       </c>
       <c r="B139">
-        <v>0.3075</v>
+        <v>0.3036</v>
       </c>
       <c r="C139">
-        <v>0.1636</v>
+        <v>0.1633</v>
       </c>
       <c r="D139">
-        <v>0.1438</v>
+        <v>0.1403</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -2829,13 +2859,13 @@
         <v>142</v>
       </c>
       <c r="B140">
-        <v>0.3064</v>
+        <v>0.3024</v>
       </c>
       <c r="C140">
-        <v>0.1628</v>
+        <v>0.1624</v>
       </c>
       <c r="D140">
-        <v>0.1436</v>
+        <v>0.14</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -2843,13 +2873,13 @@
         <v>143</v>
       </c>
       <c r="B141">
-        <v>0.3064</v>
+        <v>0.3024</v>
       </c>
       <c r="C141">
-        <v>0.1632</v>
+        <v>0.1629</v>
       </c>
       <c r="D141">
-        <v>0.1432</v>
+        <v>0.1395</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -2857,13 +2887,13 @@
         <v>144</v>
       </c>
       <c r="B142">
-        <v>0.3052</v>
+        <v>0.3012</v>
       </c>
       <c r="C142">
-        <v>0.1628</v>
+        <v>0.1624</v>
       </c>
       <c r="D142">
-        <v>0.1425</v>
+        <v>0.1389</v>
       </c>
     </row>
     <row r="143" spans="1:4">
@@ -2871,13 +2901,13 @@
         <v>145</v>
       </c>
       <c r="B143">
-        <v>0.304</v>
+        <v>0.3</v>
       </c>
       <c r="C143">
-        <v>0.1623</v>
+        <v>0.1619</v>
       </c>
       <c r="D143">
-        <v>0.1417</v>
+        <v>0.1381</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -2885,13 +2915,13 @@
         <v>146</v>
       </c>
       <c r="B144">
-        <v>0.3014</v>
+        <v>0.2974</v>
       </c>
       <c r="C144">
-        <v>0.1611</v>
+        <v>0.1608</v>
       </c>
       <c r="D144">
-        <v>0.1403</v>
+        <v>0.1367</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -2899,13 +2929,13 @@
         <v>147</v>
       </c>
       <c r="B145">
-        <v>0.3001</v>
+        <v>0.2961</v>
       </c>
       <c r="C145">
-        <v>0.1607</v>
+        <v>0.1603</v>
       </c>
       <c r="D145">
-        <v>0.1395</v>
+        <v>0.1358</v>
       </c>
     </row>
     <row r="146" spans="1:4">
@@ -2913,13 +2943,13 @@
         <v>148</v>
       </c>
       <c r="B146">
-        <v>0.299</v>
+        <v>0.295</v>
       </c>
       <c r="C146">
-        <v>0.1606</v>
+        <v>0.1602</v>
       </c>
       <c r="D146">
-        <v>0.1384</v>
+        <v>0.1348</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -2927,13 +2957,13 @@
         <v>149</v>
       </c>
       <c r="B147">
-        <v>0.2968</v>
+        <v>0.2928</v>
       </c>
       <c r="C147">
-        <v>0.1591</v>
+        <v>0.1587</v>
       </c>
       <c r="D147">
-        <v>0.1377</v>
+        <v>0.1341</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -2941,13 +2971,13 @@
         <v>150</v>
       </c>
       <c r="B148">
-        <v>0.2953</v>
+        <v>0.2914</v>
       </c>
       <c r="C148">
-        <v>0.1589</v>
+        <v>0.1585</v>
       </c>
       <c r="D148">
-        <v>0.1364</v>
+        <v>0.1328</v>
       </c>
     </row>
     <row r="149" spans="1:4">
@@ -2955,13 +2985,13 @@
         <v>151</v>
       </c>
       <c r="B149">
-        <v>0.2944</v>
+        <v>0.2905</v>
       </c>
       <c r="C149">
-        <v>0.16</v>
+        <v>0.1596</v>
       </c>
       <c r="D149">
-        <v>0.1344</v>
+        <v>0.1309</v>
       </c>
     </row>
     <row r="150" spans="1:4">
@@ -2969,13 +2999,13 @@
         <v>152</v>
       </c>
       <c r="B150">
-        <v>0.2913</v>
+        <v>0.2874</v>
       </c>
       <c r="C150">
-        <v>0.1592</v>
+        <v>0.1588</v>
       </c>
       <c r="D150">
-        <v>0.1321</v>
+        <v>0.1286</v>
       </c>
     </row>
     <row r="151" spans="1:4">
@@ -2983,13 +3013,13 @@
         <v>153</v>
       </c>
       <c r="B151">
-        <v>0.2886</v>
+        <v>0.2847</v>
       </c>
       <c r="C151">
-        <v>0.1584</v>
+        <v>0.1581</v>
       </c>
       <c r="D151">
-        <v>0.1301</v>
+        <v>0.1266</v>
       </c>
     </row>
     <row r="152" spans="1:4">
@@ -2997,13 +3027,13 @@
         <v>154</v>
       </c>
       <c r="B152">
-        <v>0.2844</v>
+        <v>0.2806</v>
       </c>
       <c r="C152">
-        <v>0.1577</v>
+        <v>0.1573</v>
       </c>
       <c r="D152">
-        <v>0.1267</v>
+        <v>0.1233</v>
       </c>
     </row>
     <row r="153" spans="1:4">
@@ -3011,13 +3041,13 @@
         <v>155</v>
       </c>
       <c r="B153">
-        <v>0.2815</v>
+        <v>0.2777</v>
       </c>
       <c r="C153">
-        <v>0.1581</v>
+        <v>0.1577</v>
       </c>
       <c r="D153">
-        <v>0.1234</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="154" spans="1:4">
@@ -3025,13 +3055,13 @@
         <v>156</v>
       </c>
       <c r="B154">
-        <v>0.2787</v>
+        <v>0.2748</v>
       </c>
       <c r="C154">
-        <v>0.1585</v>
+        <v>0.1581</v>
       </c>
       <c r="D154">
-        <v>0.1202</v>
+        <v>0.1168</v>
       </c>
     </row>
     <row r="155" spans="1:4">
@@ -3039,13 +3069,13 @@
         <v>157</v>
       </c>
       <c r="B155">
-        <v>0.2758</v>
+        <v>0.272</v>
       </c>
       <c r="C155">
-        <v>0.1585</v>
+        <v>0.1581</v>
       </c>
       <c r="D155">
-        <v>0.1173</v>
+        <v>0.1139</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -3053,13 +3083,13 @@
         <v>158</v>
       </c>
       <c r="B156">
-        <v>0.2734</v>
+        <v>0.2695</v>
       </c>
       <c r="C156">
-        <v>0.1588</v>
+        <v>0.1584</v>
       </c>
       <c r="D156">
-        <v>0.1146</v>
+        <v>0.1111</v>
       </c>
     </row>
     <row r="157" spans="1:4">
@@ -3067,13 +3097,13 @@
         <v>159</v>
       </c>
       <c r="B157">
-        <v>0.269</v>
+        <v>0.2651</v>
       </c>
       <c r="C157">
-        <v>0.1575</v>
+        <v>0.1571</v>
       </c>
       <c r="D157">
-        <v>0.1115</v>
+        <v>0.1081</v>
       </c>
     </row>
     <row r="158" spans="1:4">
@@ -3081,13 +3111,13 @@
         <v>160</v>
       </c>
       <c r="B158">
-        <v>0.2651</v>
+        <v>0.2611</v>
       </c>
       <c r="C158">
-        <v>0.1564</v>
+        <v>0.156</v>
       </c>
       <c r="D158">
-        <v>0.1086</v>
+        <v>0.1051</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -3095,13 +3125,13 @@
         <v>161</v>
       </c>
       <c r="B159">
-        <v>0.2615</v>
+        <v>0.2575</v>
       </c>
       <c r="C159">
-        <v>0.1555</v>
+        <v>0.1551</v>
       </c>
       <c r="D159">
-        <v>0.106</v>
+        <v>0.1024</v>
       </c>
     </row>
     <row r="160" spans="1:4">
@@ -3109,13 +3139,13 @@
         <v>162</v>
       </c>
       <c r="B160">
-        <v>0.2582</v>
+        <v>0.2542</v>
       </c>
       <c r="C160">
-        <v>0.155</v>
+        <v>0.1546</v>
       </c>
       <c r="D160">
-        <v>0.1032</v>
+        <v>0.0997</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -3123,13 +3153,13 @@
         <v>163</v>
       </c>
       <c r="B161">
-        <v>0.2549</v>
+        <v>0.2508</v>
       </c>
       <c r="C161">
-        <v>0.154</v>
+        <v>0.1536</v>
       </c>
       <c r="D161">
-        <v>0.1009</v>
+        <v>0.0973</v>
       </c>
     </row>
     <row r="162" spans="1:4">
@@ -3137,13 +3167,13 @@
         <v>164</v>
       </c>
       <c r="B162">
-        <v>0.2518</v>
+        <v>0.2477</v>
       </c>
       <c r="C162">
-        <v>0.1529</v>
+        <v>0.1524</v>
       </c>
       <c r="D162">
-        <v>0.0989</v>
+        <v>0.09520000000000001</v>
       </c>
     </row>
     <row r="163" spans="1:4">
@@ -3151,13 +3181,13 @@
         <v>165</v>
       </c>
       <c r="B163">
-        <v>0.2498</v>
+        <v>0.2457</v>
       </c>
       <c r="C163">
-        <v>0.1525</v>
+        <v>0.152</v>
       </c>
       <c r="D163">
-        <v>0.0973</v>
+        <v>0.0936</v>
       </c>
     </row>
     <row r="164" spans="1:4">
@@ -3165,13 +3195,153 @@
         <v>166</v>
       </c>
       <c r="B164">
-        <v>0.247</v>
+        <v>0.2436</v>
       </c>
       <c r="C164">
-        <v>0.151</v>
+        <v>0.1513</v>
       </c>
       <c r="D164">
-        <v>0.0959</v>
+        <v>0.09229999999999999</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4">
+      <c r="A165" t="s">
+        <v>167</v>
+      </c>
+      <c r="B165">
+        <v>0.2413</v>
+      </c>
+      <c r="C165">
+        <v>0.1503</v>
+      </c>
+      <c r="D165">
+        <v>0.091</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4">
+      <c r="A166" t="s">
+        <v>168</v>
+      </c>
+      <c r="B166">
+        <v>0.2396</v>
+      </c>
+      <c r="C166">
+        <v>0.1497</v>
+      </c>
+      <c r="D166">
+        <v>0.0898</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4">
+      <c r="A167" t="s">
+        <v>169</v>
+      </c>
+      <c r="B167">
+        <v>0.2371</v>
+      </c>
+      <c r="C167">
+        <v>0.1485</v>
+      </c>
+      <c r="D167">
+        <v>0.0886</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4">
+      <c r="A168" t="s">
+        <v>170</v>
+      </c>
+      <c r="B168">
+        <v>0.2339</v>
+      </c>
+      <c r="C168">
+        <v>0.1465</v>
+      </c>
+      <c r="D168">
+        <v>0.08740000000000001</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4">
+      <c r="A169" t="s">
+        <v>171</v>
+      </c>
+      <c r="B169">
+        <v>0.2294</v>
+      </c>
+      <c r="C169">
+        <v>0.1428</v>
+      </c>
+      <c r="D169">
+        <v>0.0866</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4">
+      <c r="A170" t="s">
+        <v>172</v>
+      </c>
+      <c r="B170">
+        <v>0.2293</v>
+      </c>
+      <c r="C170">
+        <v>0.141</v>
+      </c>
+      <c r="D170">
+        <v>0.0883</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4">
+      <c r="A171" t="s">
+        <v>173</v>
+      </c>
+      <c r="B171">
+        <v>0.2278</v>
+      </c>
+      <c r="C171">
+        <v>0.1381</v>
+      </c>
+      <c r="D171">
+        <v>0.0897</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4">
+      <c r="A172" t="s">
+        <v>174</v>
+      </c>
+      <c r="B172">
+        <v>0.227</v>
+      </c>
+      <c r="C172">
+        <v>0.1359</v>
+      </c>
+      <c r="D172">
+        <v>0.0912</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4">
+      <c r="A173" t="s">
+        <v>175</v>
+      </c>
+      <c r="B173">
+        <v>0.2259</v>
+      </c>
+      <c r="C173">
+        <v>0.1332</v>
+      </c>
+      <c r="D173">
+        <v>0.0926</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4">
+      <c r="A174" t="s">
+        <v>176</v>
+      </c>
+      <c r="B174">
+        <v>0.225</v>
+      </c>
+      <c r="C174">
+        <v>0.1308</v>
+      </c>
+      <c r="D174">
+        <v>0.09420000000000001</v>
       </c>
     </row>
   </sheetData>

--- a/5/9/Índice de stress local 2021 - Diaria.xlsx
+++ b/5/9/Índice de stress local 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="191">
   <si>
     <t>Serie</t>
   </si>
@@ -545,6 +545,48 @@
   </si>
   <si>
     <t>08-09-2021</t>
+  </si>
+  <si>
+    <t>09-09-2021</t>
+  </si>
+  <si>
+    <t>10-09-2021</t>
+  </si>
+  <si>
+    <t>13-09-2021</t>
+  </si>
+  <si>
+    <t>14-09-2021</t>
+  </si>
+  <si>
+    <t>15-09-2021</t>
+  </si>
+  <si>
+    <t>16-09-2021</t>
+  </si>
+  <si>
+    <t>20-09-2021</t>
+  </si>
+  <si>
+    <t>21-09-2021</t>
+  </si>
+  <si>
+    <t>22-09-2021</t>
+  </si>
+  <si>
+    <t>23-09-2021</t>
+  </si>
+  <si>
+    <t>24-09-2021</t>
+  </si>
+  <si>
+    <t>27-09-2021</t>
+  </si>
+  <si>
+    <t>28-09-2021</t>
+  </si>
+  <si>
+    <t>29-09-2021</t>
   </si>
 </sst>
 </file>
@@ -902,7 +944,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D174"/>
+  <dimension ref="A1:D188"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -927,13 +969,13 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>0.3873</v>
+        <v>0.3876</v>
       </c>
       <c r="C2">
         <v>0.1322</v>
       </c>
       <c r="D2">
-        <v>0.2551</v>
+        <v>0.2554</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -941,13 +983,13 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>0.385</v>
+        <v>0.3853</v>
       </c>
       <c r="C3">
-        <v>0.1307</v>
+        <v>0.1308</v>
       </c>
       <c r="D3">
-        <v>0.2543</v>
+        <v>0.2545</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -955,13 +997,13 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>0.3821</v>
+        <v>0.3824</v>
       </c>
       <c r="C4">
-        <v>0.1291</v>
+        <v>0.1292</v>
       </c>
       <c r="D4">
-        <v>0.253</v>
+        <v>0.2532</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -969,13 +1011,13 @@
         <v>7</v>
       </c>
       <c r="B5">
-        <v>0.3789</v>
+        <v>0.3792</v>
       </c>
       <c r="C5">
         <v>0.1272</v>
       </c>
       <c r="D5">
-        <v>0.2517</v>
+        <v>0.252</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -983,13 +1025,13 @@
         <v>8</v>
       </c>
       <c r="B6">
-        <v>0.3769</v>
+        <v>0.3772</v>
       </c>
       <c r="C6">
-        <v>0.1261</v>
+        <v>0.1262</v>
       </c>
       <c r="D6">
-        <v>0.2508</v>
+        <v>0.251</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -997,13 +1039,13 @@
         <v>9</v>
       </c>
       <c r="B7">
-        <v>0.3747</v>
+        <v>0.375</v>
       </c>
       <c r="C7">
         <v>0.1253</v>
       </c>
       <c r="D7">
-        <v>0.2494</v>
+        <v>0.2496</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1011,13 +1053,13 @@
         <v>10</v>
       </c>
       <c r="B8">
-        <v>0.3739</v>
+        <v>0.3742</v>
       </c>
       <c r="C8">
-        <v>0.1255</v>
+        <v>0.1256</v>
       </c>
       <c r="D8">
-        <v>0.2484</v>
+        <v>0.2486</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1025,13 +1067,13 @@
         <v>11</v>
       </c>
       <c r="B9">
-        <v>0.3737</v>
+        <v>0.374</v>
       </c>
       <c r="C9">
         <v>0.1264</v>
       </c>
       <c r="D9">
-        <v>0.2473</v>
+        <v>0.2476</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1039,13 +1081,13 @@
         <v>12</v>
       </c>
       <c r="B10">
-        <v>0.3755</v>
+        <v>0.3758</v>
       </c>
       <c r="C10">
         <v>0.129</v>
       </c>
       <c r="D10">
-        <v>0.2466</v>
+        <v>0.2468</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1053,13 +1095,13 @@
         <v>13</v>
       </c>
       <c r="B11">
-        <v>0.3783</v>
+        <v>0.3785</v>
       </c>
       <c r="C11">
         <v>0.1324</v>
       </c>
       <c r="D11">
-        <v>0.2459</v>
+        <v>0.2461</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1067,13 +1109,13 @@
         <v>14</v>
       </c>
       <c r="B12">
-        <v>0.3816</v>
+        <v>0.3818</v>
       </c>
       <c r="C12">
         <v>0.1362</v>
       </c>
       <c r="D12">
-        <v>0.2454</v>
+        <v>0.2456</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1081,13 +1123,13 @@
         <v>15</v>
       </c>
       <c r="B13">
-        <v>0.3836</v>
+        <v>0.3838</v>
       </c>
       <c r="C13">
         <v>0.1391</v>
       </c>
       <c r="D13">
-        <v>0.2445</v>
+        <v>0.2446</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1095,13 +1137,13 @@
         <v>16</v>
       </c>
       <c r="B14">
-        <v>0.3846</v>
+        <v>0.3848</v>
       </c>
       <c r="C14">
-        <v>0.1412</v>
+        <v>0.1413</v>
       </c>
       <c r="D14">
-        <v>0.2434</v>
+        <v>0.2436</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -1109,13 +1151,13 @@
         <v>17</v>
       </c>
       <c r="B15">
-        <v>0.3854</v>
+        <v>0.3856</v>
       </c>
       <c r="C15">
         <v>0.1431</v>
       </c>
       <c r="D15">
-        <v>0.2423</v>
+        <v>0.2425</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -1123,13 +1165,13 @@
         <v>18</v>
       </c>
       <c r="B16">
-        <v>0.386</v>
+        <v>0.3862</v>
       </c>
       <c r="C16">
-        <v>0.1447</v>
+        <v>0.1448</v>
       </c>
       <c r="D16">
-        <v>0.2412</v>
+        <v>0.2414</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -1137,13 +1179,13 @@
         <v>19</v>
       </c>
       <c r="B17">
-        <v>0.3871</v>
+        <v>0.3873</v>
       </c>
       <c r="C17">
         <v>0.1467</v>
       </c>
       <c r="D17">
-        <v>0.2404</v>
+        <v>0.2405</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -1151,13 +1193,13 @@
         <v>20</v>
       </c>
       <c r="B18">
-        <v>0.3876</v>
+        <v>0.3878</v>
       </c>
       <c r="C18">
-        <v>0.1479</v>
+        <v>0.148</v>
       </c>
       <c r="D18">
-        <v>0.2397</v>
+        <v>0.2398</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -1165,13 +1207,13 @@
         <v>21</v>
       </c>
       <c r="B19">
-        <v>0.3885</v>
+        <v>0.3886</v>
       </c>
       <c r="C19">
         <v>0.1495</v>
       </c>
       <c r="D19">
-        <v>0.239</v>
+        <v>0.2391</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -1179,13 +1221,13 @@
         <v>22</v>
       </c>
       <c r="B20">
-        <v>0.3894</v>
+        <v>0.3896</v>
       </c>
       <c r="C20">
-        <v>0.1514</v>
+        <v>0.1515</v>
       </c>
       <c r="D20">
-        <v>0.238</v>
+        <v>0.2381</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -1193,7 +1235,7 @@
         <v>23</v>
       </c>
       <c r="B21">
-        <v>0.3899</v>
+        <v>0.39</v>
       </c>
       <c r="C21">
         <v>0.1531</v>
@@ -1207,13 +1249,13 @@
         <v>24</v>
       </c>
       <c r="B22">
-        <v>0.3905</v>
+        <v>0.3906</v>
       </c>
       <c r="C22">
         <v>0.1552</v>
       </c>
       <c r="D22">
-        <v>0.2353</v>
+        <v>0.2354</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -1221,10 +1263,10 @@
         <v>25</v>
       </c>
       <c r="B23">
-        <v>0.3908</v>
+        <v>0.3909</v>
       </c>
       <c r="C23">
-        <v>0.1572</v>
+        <v>0.1573</v>
       </c>
       <c r="D23">
         <v>0.2336</v>
@@ -1235,13 +1277,13 @@
         <v>26</v>
       </c>
       <c r="B24">
-        <v>0.3915</v>
+        <v>0.3916</v>
       </c>
       <c r="C24">
         <v>0.1598</v>
       </c>
       <c r="D24">
-        <v>0.2317</v>
+        <v>0.2318</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -1263,10 +1305,10 @@
         <v>28</v>
       </c>
       <c r="B26">
-        <v>0.3913</v>
+        <v>0.3914</v>
       </c>
       <c r="C26">
-        <v>0.1638</v>
+        <v>0.1639</v>
       </c>
       <c r="D26">
         <v>0.2275</v>
@@ -1280,7 +1322,7 @@
         <v>0.3906</v>
       </c>
       <c r="C27">
-        <v>0.1655</v>
+        <v>0.1656</v>
       </c>
       <c r="D27">
         <v>0.225</v>
@@ -1294,10 +1336,10 @@
         <v>0.3886</v>
       </c>
       <c r="C28">
-        <v>0.1663</v>
+        <v>0.1664</v>
       </c>
       <c r="D28">
-        <v>0.2223</v>
+        <v>0.2222</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -1308,10 +1350,10 @@
         <v>0.3865</v>
       </c>
       <c r="C29">
-        <v>0.1669</v>
+        <v>0.167</v>
       </c>
       <c r="D29">
-        <v>0.2196</v>
+        <v>0.2195</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -1319,13 +1361,13 @@
         <v>32</v>
       </c>
       <c r="B30">
-        <v>0.3828</v>
+        <v>0.3829</v>
       </c>
       <c r="C30">
-        <v>0.1662</v>
+        <v>0.1664</v>
       </c>
       <c r="D30">
-        <v>0.2166</v>
+        <v>0.2165</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -1336,10 +1378,10 @@
         <v>0.3773</v>
       </c>
       <c r="C31">
-        <v>0.164</v>
+        <v>0.1641</v>
       </c>
       <c r="D31">
-        <v>0.2133</v>
+        <v>0.2132</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -1347,13 +1389,13 @@
         <v>34</v>
       </c>
       <c r="B32">
-        <v>0.3705</v>
+        <v>0.3706</v>
       </c>
       <c r="C32">
-        <v>0.1609</v>
+        <v>0.161</v>
       </c>
       <c r="D32">
-        <v>0.2097</v>
+        <v>0.2096</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -1361,13 +1403,13 @@
         <v>35</v>
       </c>
       <c r="B33">
-        <v>0.365</v>
+        <v>0.3651</v>
       </c>
       <c r="C33">
-        <v>0.1587</v>
+        <v>0.1588</v>
       </c>
       <c r="D33">
-        <v>0.2064</v>
+        <v>0.2062</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -1378,10 +1420,10 @@
         <v>0.3602</v>
       </c>
       <c r="C34">
-        <v>0.1568</v>
+        <v>0.157</v>
       </c>
       <c r="D34">
-        <v>0.2034</v>
+        <v>0.2032</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -1392,10 +1434,10 @@
         <v>0.3553</v>
       </c>
       <c r="C35">
-        <v>0.155</v>
+        <v>0.1551</v>
       </c>
       <c r="D35">
-        <v>0.2003</v>
+        <v>0.2001</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -1406,10 +1448,10 @@
         <v>0.3506</v>
       </c>
       <c r="C36">
-        <v>0.1535</v>
+        <v>0.1537</v>
       </c>
       <c r="D36">
-        <v>0.1971</v>
+        <v>0.1969</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -1417,13 +1459,13 @@
         <v>39</v>
       </c>
       <c r="B37">
-        <v>0.3461</v>
+        <v>0.346</v>
       </c>
       <c r="C37">
-        <v>0.1523</v>
+        <v>0.1525</v>
       </c>
       <c r="D37">
-        <v>0.1937</v>
+        <v>0.1935</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -1434,10 +1476,10 @@
         <v>0.3418</v>
       </c>
       <c r="C38">
-        <v>0.1509</v>
+        <v>0.1511</v>
       </c>
       <c r="D38">
-        <v>0.1909</v>
+        <v>0.1907</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -1448,10 +1490,10 @@
         <v>0.3374</v>
       </c>
       <c r="C39">
-        <v>0.1494</v>
+        <v>0.1496</v>
       </c>
       <c r="D39">
-        <v>0.188</v>
+        <v>0.1877</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -1462,10 +1504,10 @@
         <v>0.3319</v>
       </c>
       <c r="C40">
-        <v>0.1471</v>
+        <v>0.1473</v>
       </c>
       <c r="D40">
-        <v>0.1848</v>
+        <v>0.1846</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -1473,13 +1515,13 @@
         <v>43</v>
       </c>
       <c r="B41">
-        <v>0.3281</v>
+        <v>0.328</v>
       </c>
       <c r="C41">
-        <v>0.146</v>
+        <v>0.1462</v>
       </c>
       <c r="D41">
-        <v>0.1821</v>
+        <v>0.1818</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -1490,10 +1532,10 @@
         <v>0.3252</v>
       </c>
       <c r="C42">
-        <v>0.1456</v>
+        <v>0.1458</v>
       </c>
       <c r="D42">
-        <v>0.1796</v>
+        <v>0.1793</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -1501,13 +1543,13 @@
         <v>45</v>
       </c>
       <c r="B43">
-        <v>0.3226</v>
+        <v>0.3225</v>
       </c>
       <c r="C43">
-        <v>0.145</v>
+        <v>0.1452</v>
       </c>
       <c r="D43">
-        <v>0.1776</v>
+        <v>0.1773</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -1515,13 +1557,13 @@
         <v>46</v>
       </c>
       <c r="B44">
-        <v>0.3201</v>
+        <v>0.32</v>
       </c>
       <c r="C44">
-        <v>0.1446</v>
+        <v>0.1448</v>
       </c>
       <c r="D44">
-        <v>0.1755</v>
+        <v>0.1752</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1529,13 +1571,13 @@
         <v>47</v>
       </c>
       <c r="B45">
-        <v>0.3189</v>
+        <v>0.3187</v>
       </c>
       <c r="C45">
-        <v>0.1447</v>
+        <v>0.1448</v>
       </c>
       <c r="D45">
-        <v>0.1742</v>
+        <v>0.1739</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1543,13 +1585,13 @@
         <v>48</v>
       </c>
       <c r="B46">
-        <v>0.3172</v>
+        <v>0.3171</v>
       </c>
       <c r="C46">
-        <v>0.1444</v>
+        <v>0.1446</v>
       </c>
       <c r="D46">
-        <v>0.1728</v>
+        <v>0.1725</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1557,13 +1599,13 @@
         <v>49</v>
       </c>
       <c r="B47">
-        <v>0.3161</v>
+        <v>0.3159</v>
       </c>
       <c r="C47">
-        <v>0.1444</v>
+        <v>0.1445</v>
       </c>
       <c r="D47">
-        <v>0.1718</v>
+        <v>0.1714</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1571,13 +1613,13 @@
         <v>50</v>
       </c>
       <c r="B48">
-        <v>0.3152</v>
+        <v>0.315</v>
       </c>
       <c r="C48">
-        <v>0.1447</v>
+        <v>0.1448</v>
       </c>
       <c r="D48">
-        <v>0.1705</v>
+        <v>0.1702</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1585,13 +1627,13 @@
         <v>51</v>
       </c>
       <c r="B49">
-        <v>0.3141</v>
+        <v>0.3138</v>
       </c>
       <c r="C49">
-        <v>0.1449</v>
+        <v>0.145</v>
       </c>
       <c r="D49">
-        <v>0.1692</v>
+        <v>0.1688</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -1599,13 +1641,13 @@
         <v>52</v>
       </c>
       <c r="B50">
-        <v>0.3139</v>
+        <v>0.3136</v>
       </c>
       <c r="C50">
-        <v>0.1458</v>
+        <v>0.1459</v>
       </c>
       <c r="D50">
-        <v>0.1681</v>
+        <v>0.1677</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -1613,13 +1655,13 @@
         <v>53</v>
       </c>
       <c r="B51">
-        <v>0.3138</v>
+        <v>0.3134</v>
       </c>
       <c r="C51">
         <v>0.1466</v>
       </c>
       <c r="D51">
-        <v>0.1672</v>
+        <v>0.1668</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -1627,13 +1669,13 @@
         <v>54</v>
       </c>
       <c r="B52">
-        <v>0.3147</v>
+        <v>0.3143</v>
       </c>
       <c r="C52">
-        <v>0.148</v>
+        <v>0.1481</v>
       </c>
       <c r="D52">
-        <v>0.1667</v>
+        <v>0.1662</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -1641,13 +1683,13 @@
         <v>55</v>
       </c>
       <c r="B53">
-        <v>0.3153</v>
+        <v>0.3149</v>
       </c>
       <c r="C53">
         <v>0.1494</v>
       </c>
       <c r="D53">
-        <v>0.1659</v>
+        <v>0.1655</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -1655,13 +1697,13 @@
         <v>56</v>
       </c>
       <c r="B54">
-        <v>0.3152</v>
+        <v>0.3148</v>
       </c>
       <c r="C54">
         <v>0.1505</v>
       </c>
       <c r="D54">
-        <v>0.1648</v>
+        <v>0.1643</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -1669,13 +1711,13 @@
         <v>57</v>
       </c>
       <c r="B55">
-        <v>0.3152</v>
+        <v>0.3147</v>
       </c>
       <c r="C55">
         <v>0.1516</v>
       </c>
       <c r="D55">
-        <v>0.1636</v>
+        <v>0.1631</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -1683,13 +1725,13 @@
         <v>58</v>
       </c>
       <c r="B56">
-        <v>0.316</v>
+        <v>0.3155</v>
       </c>
       <c r="C56">
-        <v>0.1531</v>
+        <v>0.1532</v>
       </c>
       <c r="D56">
-        <v>0.1629</v>
+        <v>0.1624</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -1697,13 +1739,13 @@
         <v>59</v>
       </c>
       <c r="B57">
-        <v>0.3166</v>
+        <v>0.3161</v>
       </c>
       <c r="C57">
         <v>0.1543</v>
       </c>
       <c r="D57">
-        <v>0.1623</v>
+        <v>0.1617</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -1711,13 +1753,13 @@
         <v>60</v>
       </c>
       <c r="B58">
-        <v>0.3167</v>
+        <v>0.3162</v>
       </c>
       <c r="C58">
         <v>0.1557</v>
       </c>
       <c r="D58">
-        <v>0.161</v>
+        <v>0.1604</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -1725,13 +1767,13 @@
         <v>61</v>
       </c>
       <c r="B59">
-        <v>0.3171</v>
+        <v>0.3166</v>
       </c>
       <c r="C59">
         <v>0.1574</v>
       </c>
       <c r="D59">
-        <v>0.1598</v>
+        <v>0.1592</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -1739,13 +1781,13 @@
         <v>62</v>
       </c>
       <c r="B60">
-        <v>0.3187</v>
+        <v>0.318</v>
       </c>
       <c r="C60">
         <v>0.1599</v>
       </c>
       <c r="D60">
-        <v>0.1588</v>
+        <v>0.1581</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -1753,13 +1795,13 @@
         <v>63</v>
       </c>
       <c r="B61">
-        <v>0.3181</v>
+        <v>0.3175</v>
       </c>
       <c r="C61">
-        <v>0.1608</v>
+        <v>0.1609</v>
       </c>
       <c r="D61">
-        <v>0.1573</v>
+        <v>0.1566</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -1767,13 +1809,13 @@
         <v>64</v>
       </c>
       <c r="B62">
-        <v>0.3186</v>
+        <v>0.318</v>
       </c>
       <c r="C62">
         <v>0.1614</v>
       </c>
       <c r="D62">
-        <v>0.1572</v>
+        <v>0.1565</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -1781,13 +1823,13 @@
         <v>65</v>
       </c>
       <c r="B63">
-        <v>0.3186</v>
+        <v>0.3179</v>
       </c>
       <c r="C63">
         <v>0.1619</v>
       </c>
       <c r="D63">
-        <v>0.1567</v>
+        <v>0.156</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -1795,13 +1837,13 @@
         <v>66</v>
       </c>
       <c r="B64">
-        <v>0.318</v>
+        <v>0.3173</v>
       </c>
       <c r="C64">
         <v>0.1618</v>
       </c>
       <c r="D64">
-        <v>0.1562</v>
+        <v>0.1554</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -1809,13 +1851,13 @@
         <v>67</v>
       </c>
       <c r="B65">
-        <v>0.3174</v>
+        <v>0.3167</v>
       </c>
       <c r="C65">
-        <v>0.1622</v>
+        <v>0.1623</v>
       </c>
       <c r="D65">
-        <v>0.1552</v>
+        <v>0.1544</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -1823,13 +1865,13 @@
         <v>68</v>
       </c>
       <c r="B66">
-        <v>0.3164</v>
+        <v>0.3156</v>
       </c>
       <c r="C66">
         <v>0.162</v>
       </c>
       <c r="D66">
-        <v>0.1544</v>
+        <v>0.1536</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -1837,13 +1879,13 @@
         <v>69</v>
       </c>
       <c r="B67">
-        <v>0.3154</v>
+        <v>0.3146</v>
       </c>
       <c r="C67">
         <v>0.1617</v>
       </c>
       <c r="D67">
-        <v>0.1537</v>
+        <v>0.1529</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -1851,13 +1893,13 @@
         <v>70</v>
       </c>
       <c r="B68">
-        <v>0.3139</v>
+        <v>0.3131</v>
       </c>
       <c r="C68">
-        <v>0.1609</v>
+        <v>0.161</v>
       </c>
       <c r="D68">
-        <v>0.153</v>
+        <v>0.1521</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -1865,13 +1907,13 @@
         <v>71</v>
       </c>
       <c r="B69">
-        <v>0.3121</v>
+        <v>0.3113</v>
       </c>
       <c r="C69">
-        <v>0.1597</v>
+        <v>0.1598</v>
       </c>
       <c r="D69">
-        <v>0.1524</v>
+        <v>0.1516</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -1879,13 +1921,13 @@
         <v>72</v>
       </c>
       <c r="B70">
-        <v>0.3089</v>
+        <v>0.308</v>
       </c>
       <c r="C70">
-        <v>0.1573</v>
+        <v>0.1574</v>
       </c>
       <c r="D70">
-        <v>0.1515</v>
+        <v>0.1506</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -1893,13 +1935,13 @@
         <v>73</v>
       </c>
       <c r="B71">
-        <v>0.3065</v>
+        <v>0.3056</v>
       </c>
       <c r="C71">
         <v>0.1557</v>
       </c>
       <c r="D71">
-        <v>0.1508</v>
+        <v>0.1499</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -1907,13 +1949,13 @@
         <v>74</v>
       </c>
       <c r="B72">
-        <v>0.3038</v>
+        <v>0.3029</v>
       </c>
       <c r="C72">
-        <v>0.1538</v>
+        <v>0.1539</v>
       </c>
       <c r="D72">
-        <v>0.1499</v>
+        <v>0.149</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -1921,13 +1963,13 @@
         <v>75</v>
       </c>
       <c r="B73">
-        <v>0.3023</v>
+        <v>0.3014</v>
       </c>
       <c r="C73">
-        <v>0.1526</v>
+        <v>0.1527</v>
       </c>
       <c r="D73">
-        <v>0.1497</v>
+        <v>0.1487</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -1935,13 +1977,13 @@
         <v>76</v>
       </c>
       <c r="B74">
-        <v>0.3012</v>
+        <v>0.3003</v>
       </c>
       <c r="C74">
         <v>0.1511</v>
       </c>
       <c r="D74">
-        <v>0.1501</v>
+        <v>0.1491</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -1949,13 +1991,13 @@
         <v>77</v>
       </c>
       <c r="B75">
-        <v>0.3007</v>
+        <v>0.2997</v>
       </c>
       <c r="C75">
         <v>0.1499</v>
       </c>
       <c r="D75">
-        <v>0.1508</v>
+        <v>0.1498</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -1963,13 +2005,13 @@
         <v>78</v>
       </c>
       <c r="B76">
-        <v>0.2998</v>
+        <v>0.2988</v>
       </c>
       <c r="C76">
-        <v>0.1484</v>
+        <v>0.1485</v>
       </c>
       <c r="D76">
-        <v>0.1514</v>
+        <v>0.1504</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -1977,13 +2019,13 @@
         <v>79</v>
       </c>
       <c r="B77">
-        <v>0.2987</v>
+        <v>0.2977</v>
       </c>
       <c r="C77">
         <v>0.147</v>
       </c>
       <c r="D77">
-        <v>0.1517</v>
+        <v>0.1507</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -1991,13 +2033,13 @@
         <v>80</v>
       </c>
       <c r="B78">
-        <v>0.2976</v>
+        <v>0.2965</v>
       </c>
       <c r="C78">
         <v>0.1457</v>
       </c>
       <c r="D78">
-        <v>0.1519</v>
+        <v>0.1508</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -2005,13 +2047,13 @@
         <v>81</v>
       </c>
       <c r="B79">
-        <v>0.2964</v>
+        <v>0.2953</v>
       </c>
       <c r="C79">
         <v>0.1441</v>
       </c>
       <c r="D79">
-        <v>0.1523</v>
+        <v>0.1512</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -2019,13 +2061,13 @@
         <v>82</v>
       </c>
       <c r="B80">
-        <v>0.2956</v>
+        <v>0.2944</v>
       </c>
       <c r="C80">
-        <v>0.1427</v>
+        <v>0.1428</v>
       </c>
       <c r="D80">
-        <v>0.1528</v>
+        <v>0.1517</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -2033,13 +2075,13 @@
         <v>83</v>
       </c>
       <c r="B81">
-        <v>0.2951</v>
+        <v>0.294</v>
       </c>
       <c r="C81">
         <v>0.1415</v>
       </c>
       <c r="D81">
-        <v>0.1536</v>
+        <v>0.1524</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -2047,13 +2089,13 @@
         <v>84</v>
       </c>
       <c r="B82">
-        <v>0.2933</v>
+        <v>0.2921</v>
       </c>
       <c r="C82">
-        <v>0.1401</v>
+        <v>0.1402</v>
       </c>
       <c r="D82">
-        <v>0.1531</v>
+        <v>0.1519</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -2061,13 +2103,13 @@
         <v>85</v>
       </c>
       <c r="B83">
-        <v>0.2917</v>
+        <v>0.2905</v>
       </c>
       <c r="C83">
         <v>0.1386</v>
       </c>
       <c r="D83">
-        <v>0.1531</v>
+        <v>0.1519</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -2075,13 +2117,13 @@
         <v>86</v>
       </c>
       <c r="B84">
-        <v>0.2906</v>
+        <v>0.2893</v>
       </c>
       <c r="C84">
         <v>0.1372</v>
       </c>
       <c r="D84">
-        <v>0.1534</v>
+        <v>0.1521</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -2089,13 +2131,13 @@
         <v>87</v>
       </c>
       <c r="B85">
-        <v>0.2893</v>
+        <v>0.2881</v>
       </c>
       <c r="C85">
         <v>0.1357</v>
       </c>
       <c r="D85">
-        <v>0.1536</v>
+        <v>0.1523</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -2103,13 +2145,13 @@
         <v>88</v>
       </c>
       <c r="B86">
-        <v>0.2888</v>
+        <v>0.2875</v>
       </c>
       <c r="C86">
         <v>0.1345</v>
       </c>
       <c r="D86">
-        <v>0.1543</v>
+        <v>0.153</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -2117,13 +2159,13 @@
         <v>89</v>
       </c>
       <c r="B87">
-        <v>0.2885</v>
+        <v>0.2871</v>
       </c>
       <c r="C87">
         <v>0.1336</v>
       </c>
       <c r="D87">
-        <v>0.1549</v>
+        <v>0.1536</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -2131,13 +2173,13 @@
         <v>90</v>
       </c>
       <c r="B88">
-        <v>0.2893</v>
+        <v>0.2879</v>
       </c>
       <c r="C88">
         <v>0.133</v>
       </c>
       <c r="D88">
-        <v>0.1563</v>
+        <v>0.1549</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -2145,13 +2187,13 @@
         <v>91</v>
       </c>
       <c r="B89">
-        <v>0.2902</v>
+        <v>0.2888</v>
       </c>
       <c r="C89">
         <v>0.1327</v>
       </c>
       <c r="D89">
-        <v>0.1575</v>
+        <v>0.1561</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -2159,13 +2201,13 @@
         <v>92</v>
       </c>
       <c r="B90">
-        <v>0.2917</v>
+        <v>0.2903</v>
       </c>
       <c r="C90">
         <v>0.1328</v>
       </c>
       <c r="D90">
-        <v>0.1589</v>
+        <v>0.1575</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -2173,13 +2215,13 @@
         <v>93</v>
       </c>
       <c r="B91">
-        <v>0.2929</v>
+        <v>0.2914</v>
       </c>
       <c r="C91">
         <v>0.1326</v>
       </c>
       <c r="D91">
-        <v>0.1603</v>
+        <v>0.1588</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -2187,13 +2229,13 @@
         <v>94</v>
       </c>
       <c r="B92">
-        <v>0.2935</v>
+        <v>0.2919</v>
       </c>
       <c r="C92">
         <v>0.1321</v>
       </c>
       <c r="D92">
-        <v>0.1614</v>
+        <v>0.1599</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -2201,13 +2243,13 @@
         <v>95</v>
       </c>
       <c r="B93">
-        <v>0.294</v>
+        <v>0.2924</v>
       </c>
       <c r="C93">
-        <v>0.1322</v>
+        <v>0.1321</v>
       </c>
       <c r="D93">
-        <v>0.1618</v>
+        <v>0.1603</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -2215,13 +2257,13 @@
         <v>96</v>
       </c>
       <c r="B94">
-        <v>0.295</v>
+        <v>0.2934</v>
       </c>
       <c r="C94">
-        <v>0.1328</v>
+        <v>0.1327</v>
       </c>
       <c r="D94">
-        <v>0.1622</v>
+        <v>0.1606</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -2229,13 +2271,13 @@
         <v>97</v>
       </c>
       <c r="B95">
-        <v>0.2947</v>
+        <v>0.2931</v>
       </c>
       <c r="C95">
-        <v>0.1324</v>
+        <v>0.1323</v>
       </c>
       <c r="D95">
-        <v>0.1623</v>
+        <v>0.1607</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -2243,13 +2285,13 @@
         <v>98</v>
       </c>
       <c r="B96">
-        <v>0.2944</v>
+        <v>0.2927</v>
       </c>
       <c r="C96">
         <v>0.1324</v>
       </c>
       <c r="D96">
-        <v>0.162</v>
+        <v>0.1604</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -2257,13 +2299,13 @@
         <v>99</v>
       </c>
       <c r="B97">
-        <v>0.2977</v>
+        <v>0.296</v>
       </c>
       <c r="C97">
         <v>0.1343</v>
       </c>
       <c r="D97">
-        <v>0.1634</v>
+        <v>0.1617</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -2271,13 +2313,13 @@
         <v>100</v>
       </c>
       <c r="B98">
-        <v>0.3012</v>
+        <v>0.2995</v>
       </c>
       <c r="C98">
-        <v>0.1363</v>
+        <v>0.1362</v>
       </c>
       <c r="D98">
-        <v>0.1649</v>
+        <v>0.1633</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -2285,13 +2327,13 @@
         <v>101</v>
       </c>
       <c r="B99">
-        <v>0.3048</v>
+        <v>0.3031</v>
       </c>
       <c r="C99">
         <v>0.1385</v>
       </c>
       <c r="D99">
-        <v>0.1663</v>
+        <v>0.1646</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -2299,13 +2341,13 @@
         <v>102</v>
       </c>
       <c r="B100">
-        <v>0.3079</v>
+        <v>0.3061</v>
       </c>
       <c r="C100">
-        <v>0.1405</v>
+        <v>0.1404</v>
       </c>
       <c r="D100">
-        <v>0.1674</v>
+        <v>0.1657</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -2313,13 +2355,13 @@
         <v>103</v>
       </c>
       <c r="B101">
-        <v>0.3124</v>
+        <v>0.3105</v>
       </c>
       <c r="C101">
-        <v>0.1436</v>
+        <v>0.1435</v>
       </c>
       <c r="D101">
-        <v>0.1688</v>
+        <v>0.167</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -2327,13 +2369,13 @@
         <v>104</v>
       </c>
       <c r="B102">
-        <v>0.3166</v>
+        <v>0.3147</v>
       </c>
       <c r="C102">
-        <v>0.1468</v>
+        <v>0.1467</v>
       </c>
       <c r="D102">
-        <v>0.1698</v>
+        <v>0.168</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -2341,13 +2383,13 @@
         <v>105</v>
       </c>
       <c r="B103">
-        <v>0.3207</v>
+        <v>0.3188</v>
       </c>
       <c r="C103">
-        <v>0.1501</v>
+        <v>0.15</v>
       </c>
       <c r="D103">
-        <v>0.1707</v>
+        <v>0.1688</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -2355,13 +2397,13 @@
         <v>106</v>
       </c>
       <c r="B104">
-        <v>0.324</v>
+        <v>0.322</v>
       </c>
       <c r="C104">
-        <v>0.1528</v>
+        <v>0.1527</v>
       </c>
       <c r="D104">
-        <v>0.1712</v>
+        <v>0.1693</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -2369,13 +2411,13 @@
         <v>107</v>
       </c>
       <c r="B105">
-        <v>0.3257</v>
+        <v>0.3238</v>
       </c>
       <c r="C105">
-        <v>0.1541</v>
+        <v>0.154</v>
       </c>
       <c r="D105">
-        <v>0.1716</v>
+        <v>0.1698</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -2383,13 +2425,13 @@
         <v>108</v>
       </c>
       <c r="B106">
-        <v>0.3269</v>
+        <v>0.3249</v>
       </c>
       <c r="C106">
-        <v>0.1552</v>
+        <v>0.1551</v>
       </c>
       <c r="D106">
-        <v>0.1717</v>
+        <v>0.1698</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -2397,13 +2439,13 @@
         <v>109</v>
       </c>
       <c r="B107">
-        <v>0.3279</v>
+        <v>0.3259</v>
       </c>
       <c r="C107">
-        <v>0.1563</v>
+        <v>0.1562</v>
       </c>
       <c r="D107">
-        <v>0.1716</v>
+        <v>0.1696</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -2411,13 +2453,13 @@
         <v>110</v>
       </c>
       <c r="B108">
-        <v>0.3284</v>
+        <v>0.3263</v>
       </c>
       <c r="C108">
-        <v>0.1577</v>
+        <v>0.1576</v>
       </c>
       <c r="D108">
-        <v>0.1707</v>
+        <v>0.1688</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -2425,13 +2467,13 @@
         <v>111</v>
       </c>
       <c r="B109">
-        <v>0.3293</v>
+        <v>0.3272</v>
       </c>
       <c r="C109">
-        <v>0.1591</v>
+        <v>0.159</v>
       </c>
       <c r="D109">
-        <v>0.1702</v>
+        <v>0.1682</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -2439,13 +2481,13 @@
         <v>112</v>
       </c>
       <c r="B110">
-        <v>0.3307</v>
+        <v>0.3286</v>
       </c>
       <c r="C110">
-        <v>0.1604</v>
+        <v>0.1603</v>
       </c>
       <c r="D110">
-        <v>0.1704</v>
+        <v>0.1683</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -2453,13 +2495,13 @@
         <v>113</v>
       </c>
       <c r="B111">
-        <v>0.3324</v>
+        <v>0.3302</v>
       </c>
       <c r="C111">
         <v>0.1617</v>
       </c>
       <c r="D111">
-        <v>0.1706</v>
+        <v>0.1686</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -2467,13 +2509,13 @@
         <v>114</v>
       </c>
       <c r="B112">
-        <v>0.3341</v>
+        <v>0.332</v>
       </c>
       <c r="C112">
-        <v>0.163</v>
+        <v>0.1629</v>
       </c>
       <c r="D112">
-        <v>0.1711</v>
+        <v>0.1691</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -2481,13 +2523,13 @@
         <v>115</v>
       </c>
       <c r="B113">
-        <v>0.3351</v>
+        <v>0.3329</v>
       </c>
       <c r="C113">
-        <v>0.1633</v>
+        <v>0.1632</v>
       </c>
       <c r="D113">
-        <v>0.1718</v>
+        <v>0.1697</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -2495,13 +2537,13 @@
         <v>116</v>
       </c>
       <c r="B114">
-        <v>0.3352</v>
+        <v>0.333</v>
       </c>
       <c r="C114">
-        <v>0.1635</v>
+        <v>0.1634</v>
       </c>
       <c r="D114">
-        <v>0.1717</v>
+        <v>0.1696</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -2509,13 +2551,13 @@
         <v>117</v>
       </c>
       <c r="B115">
-        <v>0.3359</v>
+        <v>0.3336</v>
       </c>
       <c r="C115">
         <v>0.1642</v>
       </c>
       <c r="D115">
-        <v>0.1716</v>
+        <v>0.1695</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -2523,13 +2565,13 @@
         <v>118</v>
       </c>
       <c r="B116">
-        <v>0.3365</v>
+        <v>0.3342</v>
       </c>
       <c r="C116">
-        <v>0.1647</v>
+        <v>0.1646</v>
       </c>
       <c r="D116">
-        <v>0.1718</v>
+        <v>0.1696</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -2537,13 +2579,13 @@
         <v>119</v>
       </c>
       <c r="B117">
-        <v>0.3341</v>
+        <v>0.3318</v>
       </c>
       <c r="C117">
-        <v>0.1638</v>
+        <v>0.1637</v>
       </c>
       <c r="D117">
-        <v>0.1703</v>
+        <v>0.1681</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -2551,13 +2593,13 @@
         <v>120</v>
       </c>
       <c r="B118">
-        <v>0.3316</v>
+        <v>0.3293</v>
       </c>
       <c r="C118">
-        <v>0.163</v>
+        <v>0.1629</v>
       </c>
       <c r="D118">
-        <v>0.1687</v>
+        <v>0.1664</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -2565,13 +2607,13 @@
         <v>121</v>
       </c>
       <c r="B119">
-        <v>0.33</v>
+        <v>0.3276</v>
       </c>
       <c r="C119">
-        <v>0.1628</v>
+        <v>0.1627</v>
       </c>
       <c r="D119">
-        <v>0.1672</v>
+        <v>0.1648</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -2579,13 +2621,13 @@
         <v>122</v>
       </c>
       <c r="B120">
-        <v>0.3281</v>
+        <v>0.3257</v>
       </c>
       <c r="C120">
-        <v>0.1626</v>
+        <v>0.1625</v>
       </c>
       <c r="D120">
-        <v>0.1655</v>
+        <v>0.1631</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -2593,13 +2635,13 @@
         <v>123</v>
       </c>
       <c r="B121">
-        <v>0.3246</v>
+        <v>0.3222</v>
       </c>
       <c r="C121">
+        <v>0.161</v>
+      </c>
+      <c r="D121">
         <v>0.1611</v>
-      </c>
-      <c r="D121">
-        <v>0.1635</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -2607,13 +2649,13 @@
         <v>124</v>
       </c>
       <c r="B122">
-        <v>0.3208</v>
+        <v>0.3183</v>
       </c>
       <c r="C122">
-        <v>0.1594</v>
+        <v>0.1593</v>
       </c>
       <c r="D122">
-        <v>0.1614</v>
+        <v>0.1589</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -2621,13 +2663,13 @@
         <v>125</v>
       </c>
       <c r="B123">
-        <v>0.3163</v>
+        <v>0.3138</v>
       </c>
       <c r="C123">
-        <v>0.1574</v>
+        <v>0.1573</v>
       </c>
       <c r="D123">
-        <v>0.1589</v>
+        <v>0.1565</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -2635,13 +2677,13 @@
         <v>126</v>
       </c>
       <c r="B124">
-        <v>0.3138</v>
+        <v>0.3112</v>
       </c>
       <c r="C124">
-        <v>0.1566</v>
+        <v>0.1565</v>
       </c>
       <c r="D124">
-        <v>0.1572</v>
+        <v>0.1547</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -2649,13 +2691,13 @@
         <v>127</v>
       </c>
       <c r="B125">
-        <v>0.3108</v>
+        <v>0.3082</v>
       </c>
       <c r="C125">
-        <v>0.1558</v>
+        <v>0.1557</v>
       </c>
       <c r="D125">
-        <v>0.1551</v>
+        <v>0.1525</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -2663,13 +2705,13 @@
         <v>128</v>
       </c>
       <c r="B126">
-        <v>0.3091</v>
+        <v>0.3064</v>
       </c>
       <c r="C126">
-        <v>0.1558</v>
+        <v>0.1556</v>
       </c>
       <c r="D126">
-        <v>0.1533</v>
+        <v>0.1508</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -2677,13 +2719,13 @@
         <v>129</v>
       </c>
       <c r="B127">
-        <v>0.3073</v>
+        <v>0.3046</v>
       </c>
       <c r="C127">
-        <v>0.1561</v>
+        <v>0.156</v>
       </c>
       <c r="D127">
-        <v>0.1512</v>
+        <v>0.1486</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -2691,13 +2733,13 @@
         <v>130</v>
       </c>
       <c r="B128">
-        <v>0.3052</v>
+        <v>0.3025</v>
       </c>
       <c r="C128">
-        <v>0.1556</v>
+        <v>0.1555</v>
       </c>
       <c r="D128">
-        <v>0.1496</v>
+        <v>0.147</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -2705,13 +2747,13 @@
         <v>131</v>
       </c>
       <c r="B129">
-        <v>0.3037</v>
+        <v>0.301</v>
       </c>
       <c r="C129">
-        <v>0.1551</v>
+        <v>0.155</v>
       </c>
       <c r="D129">
-        <v>0.1486</v>
+        <v>0.1459</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -2719,13 +2761,13 @@
         <v>132</v>
       </c>
       <c r="B130">
-        <v>0.3027</v>
+        <v>0.2999</v>
       </c>
       <c r="C130">
-        <v>0.1559</v>
+        <v>0.1558</v>
       </c>
       <c r="D130">
-        <v>0.1468</v>
+        <v>0.1441</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -2733,13 +2775,13 @@
         <v>133</v>
       </c>
       <c r="B131">
-        <v>0.3032</v>
+        <v>0.3004</v>
       </c>
       <c r="C131">
-        <v>0.1581</v>
+        <v>0.158</v>
       </c>
       <c r="D131">
-        <v>0.1451</v>
+        <v>0.1424</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -2747,13 +2789,13 @@
         <v>134</v>
       </c>
       <c r="B132">
-        <v>0.3045</v>
+        <v>0.3016</v>
       </c>
       <c r="C132">
-        <v>0.1598</v>
+        <v>0.1596</v>
       </c>
       <c r="D132">
-        <v>0.1447</v>
+        <v>0.142</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -2761,13 +2803,13 @@
         <v>135</v>
       </c>
       <c r="B133">
-        <v>0.3045</v>
+        <v>0.3016</v>
       </c>
       <c r="C133">
-        <v>0.1604</v>
+        <v>0.1603</v>
       </c>
       <c r="D133">
-        <v>0.1441</v>
+        <v>0.1413</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -2775,13 +2817,13 @@
         <v>136</v>
       </c>
       <c r="B134">
-        <v>0.3046</v>
+        <v>0.3017</v>
       </c>
       <c r="C134">
-        <v>0.1612</v>
+        <v>0.161</v>
       </c>
       <c r="D134">
-        <v>0.1435</v>
+        <v>0.1407</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -2789,13 +2831,13 @@
         <v>137</v>
       </c>
       <c r="B135">
-        <v>0.3045</v>
+        <v>0.3015</v>
       </c>
       <c r="C135">
-        <v>0.1617</v>
+        <v>0.1615</v>
       </c>
       <c r="D135">
-        <v>0.1428</v>
+        <v>0.14</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -2803,13 +2845,13 @@
         <v>138</v>
       </c>
       <c r="B136">
-        <v>0.3042</v>
+        <v>0.3012</v>
       </c>
       <c r="C136">
-        <v>0.1623</v>
+        <v>0.1622</v>
       </c>
       <c r="D136">
-        <v>0.1419</v>
+        <v>0.139</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -2817,13 +2859,13 @@
         <v>139</v>
       </c>
       <c r="B137">
-        <v>0.3045</v>
+        <v>0.3014</v>
       </c>
       <c r="C137">
-        <v>0.1632</v>
+        <v>0.163</v>
       </c>
       <c r="D137">
-        <v>0.1414</v>
+        <v>0.1385</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -2831,13 +2873,13 @@
         <v>140</v>
       </c>
       <c r="B138">
-        <v>0.3049</v>
+        <v>0.3018</v>
       </c>
       <c r="C138">
-        <v>0.1639</v>
+        <v>0.1637</v>
       </c>
       <c r="D138">
-        <v>0.141</v>
+        <v>0.138</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -2845,13 +2887,13 @@
         <v>141</v>
       </c>
       <c r="B139">
-        <v>0.3036</v>
+        <v>0.3004</v>
       </c>
       <c r="C139">
-        <v>0.1633</v>
+        <v>0.1631</v>
       </c>
       <c r="D139">
-        <v>0.1403</v>
+        <v>0.1373</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -2859,13 +2901,13 @@
         <v>142</v>
       </c>
       <c r="B140">
-        <v>0.3024</v>
+        <v>0.2992</v>
       </c>
       <c r="C140">
-        <v>0.1624</v>
+        <v>0.1622</v>
       </c>
       <c r="D140">
-        <v>0.14</v>
+        <v>0.137</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -2873,13 +2915,13 @@
         <v>143</v>
       </c>
       <c r="B141">
-        <v>0.3024</v>
+        <v>0.2991</v>
       </c>
       <c r="C141">
-        <v>0.1629</v>
+        <v>0.1626</v>
       </c>
       <c r="D141">
-        <v>0.1395</v>
+        <v>0.1365</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -2887,13 +2929,13 @@
         <v>144</v>
       </c>
       <c r="B142">
-        <v>0.3012</v>
+        <v>0.2979</v>
       </c>
       <c r="C142">
-        <v>0.1624</v>
+        <v>0.1622</v>
       </c>
       <c r="D142">
-        <v>0.1389</v>
+        <v>0.1358</v>
       </c>
     </row>
     <row r="143" spans="1:4">
@@ -2901,13 +2943,13 @@
         <v>145</v>
       </c>
       <c r="B143">
-        <v>0.3</v>
+        <v>0.2967</v>
       </c>
       <c r="C143">
-        <v>0.1619</v>
+        <v>0.1617</v>
       </c>
       <c r="D143">
-        <v>0.1381</v>
+        <v>0.1349</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -2915,13 +2957,13 @@
         <v>146</v>
       </c>
       <c r="B144">
-        <v>0.2974</v>
+        <v>0.294</v>
       </c>
       <c r="C144">
-        <v>0.1608</v>
+        <v>0.1605</v>
       </c>
       <c r="D144">
-        <v>0.1367</v>
+        <v>0.1335</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -2929,13 +2971,13 @@
         <v>147</v>
       </c>
       <c r="B145">
-        <v>0.2961</v>
+        <v>0.2927</v>
       </c>
       <c r="C145">
-        <v>0.1603</v>
+        <v>0.1601</v>
       </c>
       <c r="D145">
-        <v>0.1358</v>
+        <v>0.1326</v>
       </c>
     </row>
     <row r="146" spans="1:4">
@@ -2943,13 +2985,13 @@
         <v>148</v>
       </c>
       <c r="B146">
-        <v>0.295</v>
+        <v>0.2915</v>
       </c>
       <c r="C146">
-        <v>0.1602</v>
+        <v>0.1599</v>
       </c>
       <c r="D146">
-        <v>0.1348</v>
+        <v>0.1315</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -2957,13 +2999,13 @@
         <v>149</v>
       </c>
       <c r="B147">
-        <v>0.2928</v>
+        <v>0.2892</v>
       </c>
       <c r="C147">
-        <v>0.1587</v>
+        <v>0.1585</v>
       </c>
       <c r="D147">
-        <v>0.1341</v>
+        <v>0.1308</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -2971,13 +3013,13 @@
         <v>150</v>
       </c>
       <c r="B148">
-        <v>0.2914</v>
+        <v>0.2878</v>
       </c>
       <c r="C148">
-        <v>0.1585</v>
+        <v>0.1583</v>
       </c>
       <c r="D148">
-        <v>0.1328</v>
+        <v>0.1295</v>
       </c>
     </row>
     <row r="149" spans="1:4">
@@ -2985,13 +3027,13 @@
         <v>151</v>
       </c>
       <c r="B149">
-        <v>0.2905</v>
+        <v>0.2868</v>
       </c>
       <c r="C149">
-        <v>0.1596</v>
+        <v>0.1594</v>
       </c>
       <c r="D149">
-        <v>0.1309</v>
+        <v>0.1275</v>
       </c>
     </row>
     <row r="150" spans="1:4">
@@ -2999,13 +3041,13 @@
         <v>152</v>
       </c>
       <c r="B150">
-        <v>0.2874</v>
+        <v>0.2837</v>
       </c>
       <c r="C150">
-        <v>0.1588</v>
+        <v>0.1585</v>
       </c>
       <c r="D150">
-        <v>0.1286</v>
+        <v>0.1252</v>
       </c>
     </row>
     <row r="151" spans="1:4">
@@ -3013,13 +3055,13 @@
         <v>153</v>
       </c>
       <c r="B151">
-        <v>0.2847</v>
+        <v>0.281</v>
       </c>
       <c r="C151">
-        <v>0.1581</v>
+        <v>0.1578</v>
       </c>
       <c r="D151">
-        <v>0.1266</v>
+        <v>0.1232</v>
       </c>
     </row>
     <row r="152" spans="1:4">
@@ -3027,13 +3069,13 @@
         <v>154</v>
       </c>
       <c r="B152">
-        <v>0.2806</v>
+        <v>0.2768</v>
       </c>
       <c r="C152">
-        <v>0.1573</v>
+        <v>0.157</v>
       </c>
       <c r="D152">
-        <v>0.1233</v>
+        <v>0.1198</v>
       </c>
     </row>
     <row r="153" spans="1:4">
@@ -3041,13 +3083,13 @@
         <v>155</v>
       </c>
       <c r="B153">
-        <v>0.2777</v>
+        <v>0.2739</v>
       </c>
       <c r="C153">
-        <v>0.1577</v>
+        <v>0.1574</v>
       </c>
       <c r="D153">
-        <v>0.12</v>
+        <v>0.1164</v>
       </c>
     </row>
     <row r="154" spans="1:4">
@@ -3055,13 +3097,13 @@
         <v>156</v>
       </c>
       <c r="B154">
-        <v>0.2748</v>
+        <v>0.2709</v>
       </c>
       <c r="C154">
-        <v>0.1581</v>
+        <v>0.1578</v>
       </c>
       <c r="D154">
-        <v>0.1168</v>
+        <v>0.1132</v>
       </c>
     </row>
     <row r="155" spans="1:4">
@@ -3069,13 +3111,13 @@
         <v>157</v>
       </c>
       <c r="B155">
-        <v>0.272</v>
+        <v>0.268</v>
       </c>
       <c r="C155">
-        <v>0.1581</v>
+        <v>0.1578</v>
       </c>
       <c r="D155">
-        <v>0.1139</v>
+        <v>0.1103</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -3083,13 +3125,13 @@
         <v>158</v>
       </c>
       <c r="B156">
-        <v>0.2695</v>
+        <v>0.2655</v>
       </c>
       <c r="C156">
-        <v>0.1584</v>
+        <v>0.1581</v>
       </c>
       <c r="D156">
-        <v>0.1111</v>
+        <v>0.1075</v>
       </c>
     </row>
     <row r="157" spans="1:4">
@@ -3097,13 +3139,13 @@
         <v>159</v>
       </c>
       <c r="B157">
-        <v>0.2651</v>
+        <v>0.2611</v>
       </c>
       <c r="C157">
-        <v>0.1571</v>
+        <v>0.1567</v>
       </c>
       <c r="D157">
-        <v>0.1081</v>
+        <v>0.1044</v>
       </c>
     </row>
     <row r="158" spans="1:4">
@@ -3111,13 +3153,13 @@
         <v>160</v>
       </c>
       <c r="B158">
-        <v>0.2611</v>
+        <v>0.2571</v>
       </c>
       <c r="C158">
-        <v>0.156</v>
+        <v>0.1556</v>
       </c>
       <c r="D158">
-        <v>0.1051</v>
+        <v>0.1015</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -3125,13 +3167,13 @@
         <v>161</v>
       </c>
       <c r="B159">
-        <v>0.2575</v>
+        <v>0.2534</v>
       </c>
       <c r="C159">
-        <v>0.1551</v>
+        <v>0.1547</v>
       </c>
       <c r="D159">
-        <v>0.1024</v>
+        <v>0.0987</v>
       </c>
     </row>
     <row r="160" spans="1:4">
@@ -3139,13 +3181,13 @@
         <v>162</v>
       </c>
       <c r="B160">
-        <v>0.2542</v>
+        <v>0.2501</v>
       </c>
       <c r="C160">
-        <v>0.1546</v>
+        <v>0.1542</v>
       </c>
       <c r="D160">
-        <v>0.0997</v>
+        <v>0.0959</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -3153,13 +3195,13 @@
         <v>163</v>
       </c>
       <c r="B161">
-        <v>0.2508</v>
+        <v>0.2467</v>
       </c>
       <c r="C161">
-        <v>0.1536</v>
+        <v>0.1531</v>
       </c>
       <c r="D161">
-        <v>0.0973</v>
+        <v>0.0935</v>
       </c>
     </row>
     <row r="162" spans="1:4">
@@ -3167,13 +3209,13 @@
         <v>164</v>
       </c>
       <c r="B162">
-        <v>0.2477</v>
+        <v>0.2435</v>
       </c>
       <c r="C162">
-        <v>0.1524</v>
+        <v>0.152</v>
       </c>
       <c r="D162">
-        <v>0.09520000000000001</v>
+        <v>0.0915</v>
       </c>
     </row>
     <row r="163" spans="1:4">
@@ -3181,13 +3223,13 @@
         <v>165</v>
       </c>
       <c r="B163">
-        <v>0.2457</v>
+        <v>0.2414</v>
       </c>
       <c r="C163">
-        <v>0.152</v>
+        <v>0.1516</v>
       </c>
       <c r="D163">
-        <v>0.0936</v>
+        <v>0.0898</v>
       </c>
     </row>
     <row r="164" spans="1:4">
@@ -3195,13 +3237,13 @@
         <v>166</v>
       </c>
       <c r="B164">
-        <v>0.2436</v>
+        <v>0.2394</v>
       </c>
       <c r="C164">
-        <v>0.1513</v>
+        <v>0.1509</v>
       </c>
       <c r="D164">
-        <v>0.09229999999999999</v>
+        <v>0.0885</v>
       </c>
     </row>
     <row r="165" spans="1:4">
@@ -3209,13 +3251,13 @@
         <v>167</v>
       </c>
       <c r="B165">
-        <v>0.2413</v>
+        <v>0.2371</v>
       </c>
       <c r="C165">
-        <v>0.1503</v>
+        <v>0.1499</v>
       </c>
       <c r="D165">
-        <v>0.091</v>
+        <v>0.0872</v>
       </c>
     </row>
     <row r="166" spans="1:4">
@@ -3223,13 +3265,13 @@
         <v>168</v>
       </c>
       <c r="B166">
-        <v>0.2396</v>
+        <v>0.2352</v>
       </c>
       <c r="C166">
-        <v>0.1497</v>
+        <v>0.1493</v>
       </c>
       <c r="D166">
-        <v>0.0898</v>
+        <v>0.0859</v>
       </c>
     </row>
     <row r="167" spans="1:4">
@@ -3237,13 +3279,13 @@
         <v>169</v>
       </c>
       <c r="B167">
-        <v>0.2371</v>
+        <v>0.2327</v>
       </c>
       <c r="C167">
-        <v>0.1485</v>
+        <v>0.1481</v>
       </c>
       <c r="D167">
-        <v>0.0886</v>
+        <v>0.08459999999999999</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -3251,13 +3293,13 @@
         <v>170</v>
       </c>
       <c r="B168">
-        <v>0.2339</v>
+        <v>0.2295</v>
       </c>
       <c r="C168">
-        <v>0.1465</v>
+        <v>0.146</v>
       </c>
       <c r="D168">
-        <v>0.08740000000000001</v>
+        <v>0.0835</v>
       </c>
     </row>
     <row r="169" spans="1:4">
@@ -3265,13 +3307,13 @@
         <v>171</v>
       </c>
       <c r="B169">
-        <v>0.2294</v>
+        <v>0.225</v>
       </c>
       <c r="C169">
-        <v>0.1428</v>
+        <v>0.1423</v>
       </c>
       <c r="D169">
-        <v>0.0866</v>
+        <v>0.08260000000000001</v>
       </c>
     </row>
     <row r="170" spans="1:4">
@@ -3279,13 +3321,13 @@
         <v>172</v>
       </c>
       <c r="B170">
-        <v>0.2293</v>
+        <v>0.2248</v>
       </c>
       <c r="C170">
-        <v>0.141</v>
+        <v>0.1405</v>
       </c>
       <c r="D170">
-        <v>0.0883</v>
+        <v>0.0843</v>
       </c>
     </row>
     <row r="171" spans="1:4">
@@ -3293,13 +3335,13 @@
         <v>173</v>
       </c>
       <c r="B171">
-        <v>0.2278</v>
+        <v>0.2233</v>
       </c>
       <c r="C171">
-        <v>0.1381</v>
+        <v>0.1376</v>
       </c>
       <c r="D171">
-        <v>0.0897</v>
+        <v>0.0857</v>
       </c>
     </row>
     <row r="172" spans="1:4">
@@ -3307,13 +3349,13 @@
         <v>174</v>
       </c>
       <c r="B172">
-        <v>0.227</v>
+        <v>0.2225</v>
       </c>
       <c r="C172">
-        <v>0.1359</v>
+        <v>0.1354</v>
       </c>
       <c r="D172">
-        <v>0.0912</v>
+        <v>0.0871</v>
       </c>
     </row>
     <row r="173" spans="1:4">
@@ -3321,13 +3363,13 @@
         <v>175</v>
       </c>
       <c r="B173">
-        <v>0.2259</v>
+        <v>0.2207</v>
       </c>
       <c r="C173">
-        <v>0.1332</v>
+        <v>0.1322</v>
       </c>
       <c r="D173">
-        <v>0.0926</v>
+        <v>0.0885</v>
       </c>
     </row>
     <row r="174" spans="1:4">
@@ -3335,13 +3377,209 @@
         <v>176</v>
       </c>
       <c r="B174">
+        <v>0.2193</v>
+      </c>
+      <c r="C174">
+        <v>0.1294</v>
+      </c>
+      <c r="D174">
+        <v>0.0898</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4">
+      <c r="A175" t="s">
+        <v>177</v>
+      </c>
+      <c r="B175">
+        <v>0.2172</v>
+      </c>
+      <c r="C175">
+        <v>0.1265</v>
+      </c>
+      <c r="D175">
+        <v>0.09080000000000001</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4">
+      <c r="A176" t="s">
+        <v>178</v>
+      </c>
+      <c r="B176">
+        <v>0.2152</v>
+      </c>
+      <c r="C176">
+        <v>0.1233</v>
+      </c>
+      <c r="D176">
+        <v>0.0919</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4">
+      <c r="A177" t="s">
+        <v>179</v>
+      </c>
+      <c r="B177">
+        <v>0.2155</v>
+      </c>
+      <c r="C177">
+        <v>0.122</v>
+      </c>
+      <c r="D177">
+        <v>0.0935</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4">
+      <c r="A178" t="s">
+        <v>180</v>
+      </c>
+      <c r="B178">
+        <v>0.2153</v>
+      </c>
+      <c r="C178">
+        <v>0.1202</v>
+      </c>
+      <c r="D178">
+        <v>0.0951</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4">
+      <c r="A179" t="s">
+        <v>181</v>
+      </c>
+      <c r="B179">
+        <v>0.2167</v>
+      </c>
+      <c r="C179">
+        <v>0.1194</v>
+      </c>
+      <c r="D179">
+        <v>0.0973</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4">
+      <c r="A180" t="s">
+        <v>182</v>
+      </c>
+      <c r="B180">
+        <v>0.2196</v>
+      </c>
+      <c r="C180">
+        <v>0.1192</v>
+      </c>
+      <c r="D180">
+        <v>0.1003</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4">
+      <c r="A181" t="s">
+        <v>183</v>
+      </c>
+      <c r="B181">
+        <v>0.2214</v>
+      </c>
+      <c r="C181">
+        <v>0.1178</v>
+      </c>
+      <c r="D181">
+        <v>0.1036</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4">
+      <c r="A182" t="s">
+        <v>184</v>
+      </c>
+      <c r="B182">
         <v>0.225</v>
       </c>
-      <c r="C174">
-        <v>0.1308</v>
-      </c>
-      <c r="D174">
-        <v>0.09420000000000001</v>
+      <c r="C182">
+        <v>0.118</v>
+      </c>
+      <c r="D182">
+        <v>0.107</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4">
+      <c r="A183" t="s">
+        <v>185</v>
+      </c>
+      <c r="B183">
+        <v>0.2297</v>
+      </c>
+      <c r="C183">
+        <v>0.1188</v>
+      </c>
+      <c r="D183">
+        <v>0.1109</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4">
+      <c r="A184" t="s">
+        <v>186</v>
+      </c>
+      <c r="B184">
+        <v>0.2338</v>
+      </c>
+      <c r="C184">
+        <v>0.1194</v>
+      </c>
+      <c r="D184">
+        <v>0.1145</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4">
+      <c r="A185" t="s">
+        <v>187</v>
+      </c>
+      <c r="B185">
+        <v>0.2386</v>
+      </c>
+      <c r="C185">
+        <v>0.1205</v>
+      </c>
+      <c r="D185">
+        <v>0.1182</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4">
+      <c r="A186" t="s">
+        <v>188</v>
+      </c>
+      <c r="B186">
+        <v>0.2421</v>
+      </c>
+      <c r="C186">
+        <v>0.1204</v>
+      </c>
+      <c r="D186">
+        <v>0.1217</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4">
+      <c r="A187" t="s">
+        <v>189</v>
+      </c>
+      <c r="B187">
+        <v>0.2457</v>
+      </c>
+      <c r="C187">
+        <v>0.1201</v>
+      </c>
+      <c r="D187">
+        <v>0.1257</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4">
+      <c r="A188" t="s">
+        <v>190</v>
+      </c>
+      <c r="B188">
+        <v>0.2488</v>
+      </c>
+      <c r="C188">
+        <v>0.1194</v>
+      </c>
+      <c r="D188">
+        <v>0.1294</v>
       </c>
     </row>
   </sheetData>

--- a/5/9/Índice de stress local 2021 - Diaria.xlsx
+++ b/5/9/Índice de stress local 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="200">
   <si>
     <t>Serie</t>
   </si>
@@ -587,6 +587,33 @@
   </si>
   <si>
     <t>29-09-2021</t>
+  </si>
+  <si>
+    <t>30-09-2021</t>
+  </si>
+  <si>
+    <t>01-10-2021</t>
+  </si>
+  <si>
+    <t>04-10-2021</t>
+  </si>
+  <si>
+    <t>05-10-2021</t>
+  </si>
+  <si>
+    <t>06-10-2021</t>
+  </si>
+  <si>
+    <t>07-10-2021</t>
+  </si>
+  <si>
+    <t>08-10-2021</t>
+  </si>
+  <si>
+    <t>12-10-2021</t>
+  </si>
+  <si>
+    <t>13-10-2021</t>
   </si>
 </sst>
 </file>
@@ -944,7 +971,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D188"/>
+  <dimension ref="A1:D197"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -969,13 +996,13 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>0.3876</v>
+        <v>0.3863</v>
       </c>
       <c r="C2">
         <v>0.1322</v>
       </c>
       <c r="D2">
-        <v>0.2554</v>
+        <v>0.2541</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -983,13 +1010,13 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>0.3853</v>
+        <v>0.384</v>
       </c>
       <c r="C3">
-        <v>0.1308</v>
+        <v>0.1307</v>
       </c>
       <c r="D3">
-        <v>0.2545</v>
+        <v>0.2533</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -997,13 +1024,13 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>0.3824</v>
+        <v>0.3811</v>
       </c>
       <c r="C4">
-        <v>0.1292</v>
+        <v>0.1291</v>
       </c>
       <c r="D4">
-        <v>0.2532</v>
+        <v>0.252</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1011,13 +1038,13 @@
         <v>7</v>
       </c>
       <c r="B5">
-        <v>0.3792</v>
+        <v>0.3779</v>
       </c>
       <c r="C5">
         <v>0.1272</v>
       </c>
       <c r="D5">
-        <v>0.252</v>
+        <v>0.2508</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1025,13 +1052,13 @@
         <v>8</v>
       </c>
       <c r="B6">
-        <v>0.3772</v>
+        <v>0.3759</v>
       </c>
       <c r="C6">
-        <v>0.1262</v>
+        <v>0.1261</v>
       </c>
       <c r="D6">
-        <v>0.251</v>
+        <v>0.2498</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1039,13 +1066,13 @@
         <v>9</v>
       </c>
       <c r="B7">
-        <v>0.375</v>
+        <v>0.3737</v>
       </c>
       <c r="C7">
         <v>0.1253</v>
       </c>
       <c r="D7">
-        <v>0.2496</v>
+        <v>0.2484</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1053,13 +1080,13 @@
         <v>10</v>
       </c>
       <c r="B8">
-        <v>0.3742</v>
+        <v>0.3729</v>
       </c>
       <c r="C8">
-        <v>0.1256</v>
+        <v>0.1255</v>
       </c>
       <c r="D8">
-        <v>0.2486</v>
+        <v>0.2474</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1067,13 +1094,13 @@
         <v>11</v>
       </c>
       <c r="B9">
-        <v>0.374</v>
+        <v>0.3727</v>
       </c>
       <c r="C9">
         <v>0.1264</v>
       </c>
       <c r="D9">
-        <v>0.2476</v>
+        <v>0.2464</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1081,13 +1108,13 @@
         <v>12</v>
       </c>
       <c r="B10">
-        <v>0.3758</v>
+        <v>0.3745</v>
       </c>
       <c r="C10">
-        <v>0.129</v>
+        <v>0.1289</v>
       </c>
       <c r="D10">
-        <v>0.2468</v>
+        <v>0.2456</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1095,13 +1122,13 @@
         <v>13</v>
       </c>
       <c r="B11">
-        <v>0.3785</v>
+        <v>0.3772</v>
       </c>
       <c r="C11">
-        <v>0.1324</v>
+        <v>0.1323</v>
       </c>
       <c r="D11">
-        <v>0.2461</v>
+        <v>0.2449</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1109,13 +1136,13 @@
         <v>14</v>
       </c>
       <c r="B12">
-        <v>0.3818</v>
+        <v>0.3805</v>
       </c>
       <c r="C12">
-        <v>0.1362</v>
+        <v>0.1361</v>
       </c>
       <c r="D12">
-        <v>0.2456</v>
+        <v>0.2444</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1123,13 +1150,13 @@
         <v>15</v>
       </c>
       <c r="B13">
-        <v>0.3838</v>
+        <v>0.3825</v>
       </c>
       <c r="C13">
-        <v>0.1391</v>
+        <v>0.139</v>
       </c>
       <c r="D13">
-        <v>0.2446</v>
+        <v>0.2434</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1137,13 +1164,13 @@
         <v>16</v>
       </c>
       <c r="B14">
-        <v>0.3848</v>
+        <v>0.3835</v>
       </c>
       <c r="C14">
-        <v>0.1413</v>
+        <v>0.1411</v>
       </c>
       <c r="D14">
-        <v>0.2436</v>
+        <v>0.2424</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -1151,13 +1178,13 @@
         <v>17</v>
       </c>
       <c r="B15">
-        <v>0.3856</v>
+        <v>0.3843</v>
       </c>
       <c r="C15">
-        <v>0.1431</v>
+        <v>0.143</v>
       </c>
       <c r="D15">
-        <v>0.2425</v>
+        <v>0.2413</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -1165,13 +1192,13 @@
         <v>18</v>
       </c>
       <c r="B16">
-        <v>0.3862</v>
+        <v>0.3848</v>
       </c>
       <c r="C16">
-        <v>0.1448</v>
+        <v>0.1447</v>
       </c>
       <c r="D16">
-        <v>0.2414</v>
+        <v>0.2402</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -1179,13 +1206,13 @@
         <v>19</v>
       </c>
       <c r="B17">
-        <v>0.3873</v>
+        <v>0.3859</v>
       </c>
       <c r="C17">
-        <v>0.1467</v>
+        <v>0.1466</v>
       </c>
       <c r="D17">
-        <v>0.2405</v>
+        <v>0.2393</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -1193,13 +1220,13 @@
         <v>20</v>
       </c>
       <c r="B18">
-        <v>0.3878</v>
+        <v>0.3864</v>
       </c>
       <c r="C18">
-        <v>0.148</v>
+        <v>0.1479</v>
       </c>
       <c r="D18">
-        <v>0.2398</v>
+        <v>0.2386</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -1207,13 +1234,13 @@
         <v>21</v>
       </c>
       <c r="B19">
-        <v>0.3886</v>
+        <v>0.3873</v>
       </c>
       <c r="C19">
-        <v>0.1495</v>
+        <v>0.1494</v>
       </c>
       <c r="D19">
-        <v>0.2391</v>
+        <v>0.2379</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -1221,13 +1248,13 @@
         <v>22</v>
       </c>
       <c r="B20">
-        <v>0.3896</v>
+        <v>0.3882</v>
       </c>
       <c r="C20">
-        <v>0.1515</v>
+        <v>0.1514</v>
       </c>
       <c r="D20">
-        <v>0.2381</v>
+        <v>0.2368</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -1235,13 +1262,13 @@
         <v>23</v>
       </c>
       <c r="B21">
-        <v>0.39</v>
+        <v>0.3886</v>
       </c>
       <c r="C21">
-        <v>0.1531</v>
+        <v>0.153</v>
       </c>
       <c r="D21">
-        <v>0.2368</v>
+        <v>0.2356</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -1249,13 +1276,13 @@
         <v>24</v>
       </c>
       <c r="B22">
-        <v>0.3906</v>
+        <v>0.3893</v>
       </c>
       <c r="C22">
-        <v>0.1552</v>
+        <v>0.1551</v>
       </c>
       <c r="D22">
-        <v>0.2354</v>
+        <v>0.2341</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -1263,13 +1290,13 @@
         <v>25</v>
       </c>
       <c r="B23">
-        <v>0.3909</v>
+        <v>0.3896</v>
       </c>
       <c r="C23">
-        <v>0.1573</v>
+        <v>0.1572</v>
       </c>
       <c r="D23">
-        <v>0.2336</v>
+        <v>0.2323</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -1277,13 +1304,13 @@
         <v>26</v>
       </c>
       <c r="B24">
-        <v>0.3916</v>
+        <v>0.3902</v>
       </c>
       <c r="C24">
         <v>0.1598</v>
       </c>
       <c r="D24">
-        <v>0.2318</v>
+        <v>0.2305</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -1291,13 +1318,13 @@
         <v>27</v>
       </c>
       <c r="B25">
-        <v>0.3919</v>
+        <v>0.3906</v>
       </c>
       <c r="C25">
         <v>0.1621</v>
       </c>
       <c r="D25">
-        <v>0.2298</v>
+        <v>0.2285</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -1305,13 +1332,13 @@
         <v>28</v>
       </c>
       <c r="B26">
-        <v>0.3914</v>
+        <v>0.39</v>
       </c>
       <c r="C26">
         <v>0.1639</v>
       </c>
       <c r="D26">
-        <v>0.2275</v>
+        <v>0.2261</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -1319,13 +1346,13 @@
         <v>29</v>
       </c>
       <c r="B27">
-        <v>0.3906</v>
+        <v>0.3892</v>
       </c>
       <c r="C27">
         <v>0.1656</v>
       </c>
       <c r="D27">
-        <v>0.225</v>
+        <v>0.2236</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -1333,13 +1360,13 @@
         <v>30</v>
       </c>
       <c r="B28">
-        <v>0.3886</v>
+        <v>0.3873</v>
       </c>
       <c r="C28">
         <v>0.1664</v>
       </c>
       <c r="D28">
-        <v>0.2222</v>
+        <v>0.2209</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -1347,13 +1374,13 @@
         <v>31</v>
       </c>
       <c r="B29">
-        <v>0.3865</v>
+        <v>0.3852</v>
       </c>
       <c r="C29">
         <v>0.167</v>
       </c>
       <c r="D29">
-        <v>0.2195</v>
+        <v>0.2181</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -1361,13 +1388,13 @@
         <v>32</v>
       </c>
       <c r="B30">
-        <v>0.3829</v>
+        <v>0.3815</v>
       </c>
       <c r="C30">
         <v>0.1664</v>
       </c>
       <c r="D30">
-        <v>0.2165</v>
+        <v>0.2151</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -1375,13 +1402,13 @@
         <v>33</v>
       </c>
       <c r="B31">
-        <v>0.3773</v>
+        <v>0.376</v>
       </c>
       <c r="C31">
         <v>0.1641</v>
       </c>
       <c r="D31">
-        <v>0.2132</v>
+        <v>0.2118</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -1389,13 +1416,13 @@
         <v>34</v>
       </c>
       <c r="B32">
-        <v>0.3706</v>
+        <v>0.3692</v>
       </c>
       <c r="C32">
-        <v>0.161</v>
+        <v>0.1611</v>
       </c>
       <c r="D32">
-        <v>0.2096</v>
+        <v>0.2082</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -1403,13 +1430,13 @@
         <v>35</v>
       </c>
       <c r="B33">
-        <v>0.3651</v>
+        <v>0.3637</v>
       </c>
       <c r="C33">
-        <v>0.1588</v>
+        <v>0.1589</v>
       </c>
       <c r="D33">
-        <v>0.2062</v>
+        <v>0.2048</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -1417,13 +1444,13 @@
         <v>36</v>
       </c>
       <c r="B34">
-        <v>0.3602</v>
+        <v>0.3588</v>
       </c>
       <c r="C34">
         <v>0.157</v>
       </c>
       <c r="D34">
-        <v>0.2032</v>
+        <v>0.2018</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -1431,13 +1458,13 @@
         <v>37</v>
       </c>
       <c r="B35">
-        <v>0.3553</v>
+        <v>0.3539</v>
       </c>
       <c r="C35">
-        <v>0.1551</v>
+        <v>0.1552</v>
       </c>
       <c r="D35">
-        <v>0.2001</v>
+        <v>0.1987</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -1445,13 +1472,13 @@
         <v>38</v>
       </c>
       <c r="B36">
-        <v>0.3506</v>
+        <v>0.3492</v>
       </c>
       <c r="C36">
-        <v>0.1537</v>
+        <v>0.1538</v>
       </c>
       <c r="D36">
-        <v>0.1969</v>
+        <v>0.1954</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -1459,13 +1486,13 @@
         <v>39</v>
       </c>
       <c r="B37">
-        <v>0.346</v>
+        <v>0.3447</v>
       </c>
       <c r="C37">
-        <v>0.1525</v>
+        <v>0.1526</v>
       </c>
       <c r="D37">
-        <v>0.1935</v>
+        <v>0.192</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -1473,13 +1500,13 @@
         <v>40</v>
       </c>
       <c r="B38">
-        <v>0.3418</v>
+        <v>0.3404</v>
       </c>
       <c r="C38">
-        <v>0.1511</v>
+        <v>0.1512</v>
       </c>
       <c r="D38">
-        <v>0.1907</v>
+        <v>0.1892</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -1487,13 +1514,13 @@
         <v>41</v>
       </c>
       <c r="B39">
-        <v>0.3374</v>
+        <v>0.336</v>
       </c>
       <c r="C39">
-        <v>0.1496</v>
+        <v>0.1498</v>
       </c>
       <c r="D39">
-        <v>0.1877</v>
+        <v>0.1862</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -1501,13 +1528,13 @@
         <v>42</v>
       </c>
       <c r="B40">
-        <v>0.3319</v>
+        <v>0.3305</v>
       </c>
       <c r="C40">
-        <v>0.1473</v>
+        <v>0.1475</v>
       </c>
       <c r="D40">
-        <v>0.1846</v>
+        <v>0.183</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -1515,13 +1542,13 @@
         <v>43</v>
       </c>
       <c r="B41">
-        <v>0.328</v>
+        <v>0.3265</v>
       </c>
       <c r="C41">
-        <v>0.1462</v>
+        <v>0.1463</v>
       </c>
       <c r="D41">
-        <v>0.1818</v>
+        <v>0.1802</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -1529,13 +1556,13 @@
         <v>44</v>
       </c>
       <c r="B42">
-        <v>0.3252</v>
+        <v>0.3237</v>
       </c>
       <c r="C42">
-        <v>0.1458</v>
+        <v>0.1459</v>
       </c>
       <c r="D42">
-        <v>0.1793</v>
+        <v>0.1778</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -1543,13 +1570,13 @@
         <v>45</v>
       </c>
       <c r="B43">
-        <v>0.3225</v>
+        <v>0.321</v>
       </c>
       <c r="C43">
-        <v>0.1452</v>
+        <v>0.1453</v>
       </c>
       <c r="D43">
-        <v>0.1773</v>
+        <v>0.1757</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -1557,13 +1584,13 @@
         <v>46</v>
       </c>
       <c r="B44">
-        <v>0.32</v>
+        <v>0.3184</v>
       </c>
       <c r="C44">
         <v>0.1448</v>
       </c>
       <c r="D44">
-        <v>0.1752</v>
+        <v>0.1736</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1571,13 +1598,13 @@
         <v>47</v>
       </c>
       <c r="B45">
-        <v>0.3187</v>
+        <v>0.3171</v>
       </c>
       <c r="C45">
-        <v>0.1448</v>
+        <v>0.1449</v>
       </c>
       <c r="D45">
-        <v>0.1739</v>
+        <v>0.1722</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1585,13 +1612,13 @@
         <v>48</v>
       </c>
       <c r="B46">
-        <v>0.3171</v>
+        <v>0.3155</v>
       </c>
       <c r="C46">
         <v>0.1446</v>
       </c>
       <c r="D46">
-        <v>0.1725</v>
+        <v>0.1708</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1599,13 +1626,13 @@
         <v>49</v>
       </c>
       <c r="B47">
-        <v>0.3159</v>
+        <v>0.3143</v>
       </c>
       <c r="C47">
-        <v>0.1445</v>
+        <v>0.1446</v>
       </c>
       <c r="D47">
-        <v>0.1714</v>
+        <v>0.1697</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1613,13 +1640,13 @@
         <v>50</v>
       </c>
       <c r="B48">
-        <v>0.315</v>
+        <v>0.3134</v>
       </c>
       <c r="C48">
-        <v>0.1448</v>
+        <v>0.1449</v>
       </c>
       <c r="D48">
-        <v>0.1702</v>
+        <v>0.1685</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1627,13 +1654,13 @@
         <v>51</v>
       </c>
       <c r="B49">
-        <v>0.3138</v>
+        <v>0.3122</v>
       </c>
       <c r="C49">
         <v>0.145</v>
       </c>
       <c r="D49">
-        <v>0.1688</v>
+        <v>0.1672</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -1641,13 +1668,13 @@
         <v>52</v>
       </c>
       <c r="B50">
-        <v>0.3136</v>
+        <v>0.312</v>
       </c>
       <c r="C50">
         <v>0.1459</v>
       </c>
       <c r="D50">
-        <v>0.1677</v>
+        <v>0.1661</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -1655,13 +1682,13 @@
         <v>53</v>
       </c>
       <c r="B51">
-        <v>0.3134</v>
+        <v>0.3118</v>
       </c>
       <c r="C51">
-        <v>0.1466</v>
+        <v>0.1467</v>
       </c>
       <c r="D51">
-        <v>0.1668</v>
+        <v>0.1652</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -1669,13 +1696,13 @@
         <v>54</v>
       </c>
       <c r="B52">
-        <v>0.3143</v>
+        <v>0.3127</v>
       </c>
       <c r="C52">
         <v>0.1481</v>
       </c>
       <c r="D52">
-        <v>0.1662</v>
+        <v>0.1646</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -1683,13 +1710,13 @@
         <v>55</v>
       </c>
       <c r="B53">
-        <v>0.3149</v>
+        <v>0.3133</v>
       </c>
       <c r="C53">
         <v>0.1494</v>
       </c>
       <c r="D53">
-        <v>0.1655</v>
+        <v>0.1639</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -1697,13 +1724,13 @@
         <v>56</v>
       </c>
       <c r="B54">
-        <v>0.3148</v>
+        <v>0.3132</v>
       </c>
       <c r="C54">
         <v>0.1505</v>
       </c>
       <c r="D54">
-        <v>0.1643</v>
+        <v>0.1627</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -1711,13 +1738,13 @@
         <v>57</v>
       </c>
       <c r="B55">
-        <v>0.3147</v>
+        <v>0.3132</v>
       </c>
       <c r="C55">
         <v>0.1516</v>
       </c>
       <c r="D55">
-        <v>0.1631</v>
+        <v>0.1616</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -1725,13 +1752,13 @@
         <v>58</v>
       </c>
       <c r="B56">
-        <v>0.3155</v>
+        <v>0.314</v>
       </c>
       <c r="C56">
-        <v>0.1532</v>
+        <v>0.1531</v>
       </c>
       <c r="D56">
-        <v>0.1624</v>
+        <v>0.1608</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -1739,13 +1766,13 @@
         <v>59</v>
       </c>
       <c r="B57">
-        <v>0.3161</v>
+        <v>0.3145</v>
       </c>
       <c r="C57">
         <v>0.1543</v>
       </c>
       <c r="D57">
-        <v>0.1617</v>
+        <v>0.1603</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -1753,13 +1780,13 @@
         <v>60</v>
       </c>
       <c r="B58">
-        <v>0.3162</v>
+        <v>0.3147</v>
       </c>
       <c r="C58">
         <v>0.1557</v>
       </c>
       <c r="D58">
-        <v>0.1604</v>
+        <v>0.159</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -1767,13 +1794,13 @@
         <v>61</v>
       </c>
       <c r="B59">
-        <v>0.3166</v>
+        <v>0.3151</v>
       </c>
       <c r="C59">
-        <v>0.1574</v>
+        <v>0.1573</v>
       </c>
       <c r="D59">
-        <v>0.1592</v>
+        <v>0.1577</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -1781,13 +1808,13 @@
         <v>62</v>
       </c>
       <c r="B60">
-        <v>0.318</v>
+        <v>0.3166</v>
       </c>
       <c r="C60">
         <v>0.1599</v>
       </c>
       <c r="D60">
-        <v>0.1581</v>
+        <v>0.1567</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -1795,13 +1822,13 @@
         <v>63</v>
       </c>
       <c r="B61">
-        <v>0.3175</v>
+        <v>0.3161</v>
       </c>
       <c r="C61">
-        <v>0.1609</v>
+        <v>0.1608</v>
       </c>
       <c r="D61">
-        <v>0.1566</v>
+        <v>0.1552</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -1809,13 +1836,13 @@
         <v>64</v>
       </c>
       <c r="B62">
-        <v>0.318</v>
+        <v>0.3165</v>
       </c>
       <c r="C62">
         <v>0.1614</v>
       </c>
       <c r="D62">
-        <v>0.1565</v>
+        <v>0.1552</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -1823,13 +1850,13 @@
         <v>65</v>
       </c>
       <c r="B63">
-        <v>0.3179</v>
+        <v>0.3165</v>
       </c>
       <c r="C63">
         <v>0.1619</v>
       </c>
       <c r="D63">
-        <v>0.156</v>
+        <v>0.1546</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -1837,13 +1864,13 @@
         <v>66</v>
       </c>
       <c r="B64">
-        <v>0.3173</v>
+        <v>0.3159</v>
       </c>
       <c r="C64">
         <v>0.1618</v>
       </c>
       <c r="D64">
-        <v>0.1554</v>
+        <v>0.1541</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -1851,13 +1878,13 @@
         <v>67</v>
       </c>
       <c r="B65">
-        <v>0.3167</v>
+        <v>0.3153</v>
       </c>
       <c r="C65">
         <v>0.1623</v>
       </c>
       <c r="D65">
-        <v>0.1544</v>
+        <v>0.1531</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -1865,13 +1892,13 @@
         <v>68</v>
       </c>
       <c r="B66">
-        <v>0.3156</v>
+        <v>0.3143</v>
       </c>
       <c r="C66">
         <v>0.162</v>
       </c>
       <c r="D66">
-        <v>0.1536</v>
+        <v>0.1522</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -1879,13 +1906,13 @@
         <v>69</v>
       </c>
       <c r="B67">
-        <v>0.3146</v>
+        <v>0.3133</v>
       </c>
       <c r="C67">
         <v>0.1617</v>
       </c>
       <c r="D67">
-        <v>0.1529</v>
+        <v>0.1515</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -1893,13 +1920,13 @@
         <v>70</v>
       </c>
       <c r="B68">
-        <v>0.3131</v>
+        <v>0.3118</v>
       </c>
       <c r="C68">
         <v>0.161</v>
       </c>
       <c r="D68">
-        <v>0.1521</v>
+        <v>0.1508</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -1907,13 +1934,13 @@
         <v>71</v>
       </c>
       <c r="B69">
-        <v>0.3113</v>
+        <v>0.31</v>
       </c>
       <c r="C69">
         <v>0.1598</v>
       </c>
       <c r="D69">
-        <v>0.1516</v>
+        <v>0.1502</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -1921,13 +1948,13 @@
         <v>72</v>
       </c>
       <c r="B70">
-        <v>0.308</v>
+        <v>0.3067</v>
       </c>
       <c r="C70">
         <v>0.1574</v>
       </c>
       <c r="D70">
-        <v>0.1506</v>
+        <v>0.1493</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -1935,13 +1962,13 @@
         <v>73</v>
       </c>
       <c r="B71">
-        <v>0.3056</v>
+        <v>0.3043</v>
       </c>
       <c r="C71">
-        <v>0.1557</v>
+        <v>0.1558</v>
       </c>
       <c r="D71">
-        <v>0.1499</v>
+        <v>0.1486</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -1949,13 +1976,13 @@
         <v>74</v>
       </c>
       <c r="B72">
-        <v>0.3029</v>
+        <v>0.3016</v>
       </c>
       <c r="C72">
         <v>0.1539</v>
       </c>
       <c r="D72">
-        <v>0.149</v>
+        <v>0.1477</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -1963,13 +1990,13 @@
         <v>75</v>
       </c>
       <c r="B73">
-        <v>0.3014</v>
+        <v>0.3001</v>
       </c>
       <c r="C73">
         <v>0.1527</v>
       </c>
       <c r="D73">
-        <v>0.1487</v>
+        <v>0.1474</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -1977,13 +2004,13 @@
         <v>76</v>
       </c>
       <c r="B74">
-        <v>0.3003</v>
+        <v>0.299</v>
       </c>
       <c r="C74">
-        <v>0.1511</v>
+        <v>0.1512</v>
       </c>
       <c r="D74">
-        <v>0.1491</v>
+        <v>0.1478</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -1991,13 +2018,13 @@
         <v>77</v>
       </c>
       <c r="B75">
-        <v>0.2997</v>
+        <v>0.2984</v>
       </c>
       <c r="C75">
-        <v>0.1499</v>
+        <v>0.15</v>
       </c>
       <c r="D75">
-        <v>0.1498</v>
+        <v>0.1484</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -2005,13 +2032,13 @@
         <v>78</v>
       </c>
       <c r="B76">
-        <v>0.2988</v>
+        <v>0.2975</v>
       </c>
       <c r="C76">
         <v>0.1485</v>
       </c>
       <c r="D76">
-        <v>0.1504</v>
+        <v>0.149</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -2019,13 +2046,13 @@
         <v>79</v>
       </c>
       <c r="B77">
-        <v>0.2977</v>
+        <v>0.2964</v>
       </c>
       <c r="C77">
-        <v>0.147</v>
+        <v>0.1471</v>
       </c>
       <c r="D77">
-        <v>0.1507</v>
+        <v>0.1493</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -2033,13 +2060,13 @@
         <v>80</v>
       </c>
       <c r="B78">
-        <v>0.2965</v>
+        <v>0.2952</v>
       </c>
       <c r="C78">
-        <v>0.1457</v>
+        <v>0.1458</v>
       </c>
       <c r="D78">
-        <v>0.1508</v>
+        <v>0.1495</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -2047,13 +2074,13 @@
         <v>81</v>
       </c>
       <c r="B79">
-        <v>0.2953</v>
+        <v>0.294</v>
       </c>
       <c r="C79">
-        <v>0.1441</v>
+        <v>0.1442</v>
       </c>
       <c r="D79">
-        <v>0.1512</v>
+        <v>0.1498</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -2061,13 +2088,13 @@
         <v>82</v>
       </c>
       <c r="B80">
-        <v>0.2944</v>
+        <v>0.2931</v>
       </c>
       <c r="C80">
         <v>0.1428</v>
       </c>
       <c r="D80">
-        <v>0.1517</v>
+        <v>0.1503</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -2075,13 +2102,13 @@
         <v>83</v>
       </c>
       <c r="B81">
-        <v>0.294</v>
+        <v>0.2926</v>
       </c>
       <c r="C81">
-        <v>0.1415</v>
+        <v>0.1416</v>
       </c>
       <c r="D81">
-        <v>0.1524</v>
+        <v>0.1511</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -2089,13 +2116,13 @@
         <v>84</v>
       </c>
       <c r="B82">
-        <v>0.2921</v>
+        <v>0.2908</v>
       </c>
       <c r="C82">
         <v>0.1402</v>
       </c>
       <c r="D82">
-        <v>0.1519</v>
+        <v>0.1506</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -2103,13 +2130,13 @@
         <v>85</v>
       </c>
       <c r="B83">
-        <v>0.2905</v>
+        <v>0.2892</v>
       </c>
       <c r="C83">
         <v>0.1386</v>
       </c>
       <c r="D83">
-        <v>0.1519</v>
+        <v>0.1505</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -2117,13 +2144,13 @@
         <v>86</v>
       </c>
       <c r="B84">
-        <v>0.2893</v>
+        <v>0.288</v>
       </c>
       <c r="C84">
         <v>0.1372</v>
       </c>
       <c r="D84">
-        <v>0.1521</v>
+        <v>0.1507</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -2131,13 +2158,13 @@
         <v>87</v>
       </c>
       <c r="B85">
-        <v>0.2881</v>
+        <v>0.2867</v>
       </c>
       <c r="C85">
         <v>0.1357</v>
       </c>
       <c r="D85">
-        <v>0.1523</v>
+        <v>0.151</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -2145,13 +2172,13 @@
         <v>88</v>
       </c>
       <c r="B86">
-        <v>0.2875</v>
+        <v>0.2861</v>
       </c>
       <c r="C86">
         <v>0.1345</v>
       </c>
       <c r="D86">
-        <v>0.153</v>
+        <v>0.1516</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -2159,13 +2186,13 @@
         <v>89</v>
       </c>
       <c r="B87">
-        <v>0.2871</v>
+        <v>0.2857</v>
       </c>
       <c r="C87">
         <v>0.1336</v>
       </c>
       <c r="D87">
-        <v>0.1536</v>
+        <v>0.1522</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -2173,13 +2200,13 @@
         <v>90</v>
       </c>
       <c r="B88">
-        <v>0.2879</v>
+        <v>0.2865</v>
       </c>
       <c r="C88">
         <v>0.133</v>
       </c>
       <c r="D88">
-        <v>0.1549</v>
+        <v>0.1535</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -2187,13 +2214,13 @@
         <v>91</v>
       </c>
       <c r="B89">
-        <v>0.2888</v>
+        <v>0.2873</v>
       </c>
       <c r="C89">
-        <v>0.1327</v>
+        <v>0.1326</v>
       </c>
       <c r="D89">
-        <v>0.1561</v>
+        <v>0.1547</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -2201,13 +2228,13 @@
         <v>92</v>
       </c>
       <c r="B90">
-        <v>0.2903</v>
+        <v>0.2888</v>
       </c>
       <c r="C90">
-        <v>0.1328</v>
+        <v>0.1327</v>
       </c>
       <c r="D90">
-        <v>0.1575</v>
+        <v>0.1561</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -2215,13 +2242,13 @@
         <v>93</v>
       </c>
       <c r="B91">
-        <v>0.2914</v>
+        <v>0.29</v>
       </c>
       <c r="C91">
         <v>0.1326</v>
       </c>
       <c r="D91">
-        <v>0.1588</v>
+        <v>0.1574</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -2229,13 +2256,13 @@
         <v>94</v>
       </c>
       <c r="B92">
-        <v>0.2919</v>
+        <v>0.2905</v>
       </c>
       <c r="C92">
-        <v>0.1321</v>
+        <v>0.132</v>
       </c>
       <c r="D92">
-        <v>0.1599</v>
+        <v>0.1584</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -2243,13 +2270,13 @@
         <v>95</v>
       </c>
       <c r="B93">
-        <v>0.2924</v>
+        <v>0.291</v>
       </c>
       <c r="C93">
         <v>0.1321</v>
       </c>
       <c r="D93">
-        <v>0.1603</v>
+        <v>0.1589</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -2257,13 +2284,13 @@
         <v>96</v>
       </c>
       <c r="B94">
-        <v>0.2934</v>
+        <v>0.2919</v>
       </c>
       <c r="C94">
         <v>0.1327</v>
       </c>
       <c r="D94">
-        <v>0.1606</v>
+        <v>0.1592</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -2271,13 +2298,13 @@
         <v>97</v>
       </c>
       <c r="B95">
-        <v>0.2931</v>
+        <v>0.2916</v>
       </c>
       <c r="C95">
         <v>0.1323</v>
       </c>
       <c r="D95">
-        <v>0.1607</v>
+        <v>0.1593</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -2285,13 +2312,13 @@
         <v>98</v>
       </c>
       <c r="B96">
-        <v>0.2927</v>
+        <v>0.2913</v>
       </c>
       <c r="C96">
-        <v>0.1324</v>
+        <v>0.1323</v>
       </c>
       <c r="D96">
-        <v>0.1604</v>
+        <v>0.159</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -2299,13 +2326,13 @@
         <v>99</v>
       </c>
       <c r="B97">
-        <v>0.296</v>
+        <v>0.2945</v>
       </c>
       <c r="C97">
-        <v>0.1343</v>
+        <v>0.1342</v>
       </c>
       <c r="D97">
-        <v>0.1617</v>
+        <v>0.1603</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -2313,13 +2340,13 @@
         <v>100</v>
       </c>
       <c r="B98">
-        <v>0.2995</v>
+        <v>0.298</v>
       </c>
       <c r="C98">
-        <v>0.1362</v>
+        <v>0.1361</v>
       </c>
       <c r="D98">
-        <v>0.1633</v>
+        <v>0.1618</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -2327,13 +2354,13 @@
         <v>101</v>
       </c>
       <c r="B99">
-        <v>0.3031</v>
+        <v>0.3016</v>
       </c>
       <c r="C99">
-        <v>0.1385</v>
+        <v>0.1384</v>
       </c>
       <c r="D99">
-        <v>0.1646</v>
+        <v>0.1632</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -2341,13 +2368,13 @@
         <v>102</v>
       </c>
       <c r="B100">
-        <v>0.3061</v>
+        <v>0.3046</v>
       </c>
       <c r="C100">
         <v>0.1404</v>
       </c>
       <c r="D100">
-        <v>0.1657</v>
+        <v>0.1643</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -2355,13 +2382,13 @@
         <v>103</v>
       </c>
       <c r="B101">
-        <v>0.3105</v>
+        <v>0.309</v>
       </c>
       <c r="C101">
-        <v>0.1435</v>
+        <v>0.1434</v>
       </c>
       <c r="D101">
-        <v>0.167</v>
+        <v>0.1656</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -2369,13 +2396,13 @@
         <v>104</v>
       </c>
       <c r="B102">
-        <v>0.3147</v>
+        <v>0.3132</v>
       </c>
       <c r="C102">
-        <v>0.1467</v>
+        <v>0.1466</v>
       </c>
       <c r="D102">
-        <v>0.168</v>
+        <v>0.1666</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -2383,13 +2410,13 @@
         <v>105</v>
       </c>
       <c r="B103">
-        <v>0.3188</v>
+        <v>0.3173</v>
       </c>
       <c r="C103">
-        <v>0.15</v>
+        <v>0.1499</v>
       </c>
       <c r="D103">
-        <v>0.1688</v>
+        <v>0.1674</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -2397,13 +2424,13 @@
         <v>106</v>
       </c>
       <c r="B104">
-        <v>0.322</v>
+        <v>0.3205</v>
       </c>
       <c r="C104">
-        <v>0.1527</v>
+        <v>0.1526</v>
       </c>
       <c r="D104">
-        <v>0.1693</v>
+        <v>0.1679</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -2411,13 +2438,13 @@
         <v>107</v>
       </c>
       <c r="B105">
-        <v>0.3238</v>
+        <v>0.3223</v>
       </c>
       <c r="C105">
-        <v>0.154</v>
+        <v>0.1539</v>
       </c>
       <c r="D105">
-        <v>0.1698</v>
+        <v>0.1684</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -2425,13 +2452,13 @@
         <v>108</v>
       </c>
       <c r="B106">
-        <v>0.3249</v>
+        <v>0.3235</v>
       </c>
       <c r="C106">
-        <v>0.1551</v>
+        <v>0.155</v>
       </c>
       <c r="D106">
-        <v>0.1698</v>
+        <v>0.1684</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -2439,13 +2466,13 @@
         <v>109</v>
       </c>
       <c r="B107">
-        <v>0.3259</v>
+        <v>0.3244</v>
       </c>
       <c r="C107">
         <v>0.1562</v>
       </c>
       <c r="D107">
-        <v>0.1696</v>
+        <v>0.1683</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -2453,13 +2480,13 @@
         <v>110</v>
       </c>
       <c r="B108">
-        <v>0.3263</v>
+        <v>0.325</v>
       </c>
       <c r="C108">
-        <v>0.1576</v>
+        <v>0.1575</v>
       </c>
       <c r="D108">
-        <v>0.1688</v>
+        <v>0.1674</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -2467,13 +2494,13 @@
         <v>111</v>
       </c>
       <c r="B109">
-        <v>0.3272</v>
+        <v>0.3258</v>
       </c>
       <c r="C109">
         <v>0.159</v>
       </c>
       <c r="D109">
-        <v>0.1682</v>
+        <v>0.1669</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -2481,13 +2508,13 @@
         <v>112</v>
       </c>
       <c r="B110">
-        <v>0.3286</v>
+        <v>0.3273</v>
       </c>
       <c r="C110">
         <v>0.1603</v>
       </c>
       <c r="D110">
-        <v>0.1683</v>
+        <v>0.167</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -2495,13 +2522,13 @@
         <v>113</v>
       </c>
       <c r="B111">
-        <v>0.3302</v>
+        <v>0.3288</v>
       </c>
       <c r="C111">
-        <v>0.1617</v>
+        <v>0.1616</v>
       </c>
       <c r="D111">
-        <v>0.1686</v>
+        <v>0.1672</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -2509,13 +2536,13 @@
         <v>114</v>
       </c>
       <c r="B112">
-        <v>0.332</v>
+        <v>0.3305</v>
       </c>
       <c r="C112">
         <v>0.1629</v>
       </c>
       <c r="D112">
-        <v>0.1691</v>
+        <v>0.1677</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -2523,13 +2550,13 @@
         <v>115</v>
       </c>
       <c r="B113">
-        <v>0.3329</v>
+        <v>0.3314</v>
       </c>
       <c r="C113">
         <v>0.1632</v>
       </c>
       <c r="D113">
-        <v>0.1697</v>
+        <v>0.1683</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -2537,13 +2564,13 @@
         <v>116</v>
       </c>
       <c r="B114">
-        <v>0.333</v>
+        <v>0.3316</v>
       </c>
       <c r="C114">
         <v>0.1634</v>
       </c>
       <c r="D114">
-        <v>0.1696</v>
+        <v>0.1682</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -2551,13 +2578,13 @@
         <v>117</v>
       </c>
       <c r="B115">
-        <v>0.3336</v>
+        <v>0.3322</v>
       </c>
       <c r="C115">
         <v>0.1642</v>
       </c>
       <c r="D115">
-        <v>0.1695</v>
+        <v>0.168</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -2565,13 +2592,13 @@
         <v>118</v>
       </c>
       <c r="B116">
-        <v>0.3342</v>
+        <v>0.3328</v>
       </c>
       <c r="C116">
         <v>0.1646</v>
       </c>
       <c r="D116">
-        <v>0.1696</v>
+        <v>0.1682</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -2579,13 +2606,13 @@
         <v>119</v>
       </c>
       <c r="B117">
-        <v>0.3318</v>
+        <v>0.3304</v>
       </c>
       <c r="C117">
         <v>0.1637</v>
       </c>
       <c r="D117">
-        <v>0.1681</v>
+        <v>0.1667</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -2593,13 +2620,13 @@
         <v>120</v>
       </c>
       <c r="B118">
-        <v>0.3293</v>
+        <v>0.3279</v>
       </c>
       <c r="C118">
         <v>0.1629</v>
       </c>
       <c r="D118">
-        <v>0.1664</v>
+        <v>0.165</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -2607,13 +2634,13 @@
         <v>121</v>
       </c>
       <c r="B119">
-        <v>0.3276</v>
+        <v>0.3263</v>
       </c>
       <c r="C119">
-        <v>0.1627</v>
+        <v>0.1628</v>
       </c>
       <c r="D119">
-        <v>0.1648</v>
+        <v>0.1635</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -2621,13 +2648,13 @@
         <v>122</v>
       </c>
       <c r="B120">
-        <v>0.3257</v>
+        <v>0.3244</v>
       </c>
       <c r="C120">
-        <v>0.1625</v>
+        <v>0.1626</v>
       </c>
       <c r="D120">
-        <v>0.1631</v>
+        <v>0.1618</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -2635,13 +2662,13 @@
         <v>123</v>
       </c>
       <c r="B121">
-        <v>0.3222</v>
+        <v>0.3209</v>
       </c>
       <c r="C121">
-        <v>0.161</v>
+        <v>0.1611</v>
       </c>
       <c r="D121">
-        <v>0.1611</v>
+        <v>0.1598</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -2649,13 +2676,13 @@
         <v>124</v>
       </c>
       <c r="B122">
-        <v>0.3183</v>
+        <v>0.317</v>
       </c>
       <c r="C122">
-        <v>0.1593</v>
+        <v>0.1594</v>
       </c>
       <c r="D122">
-        <v>0.1589</v>
+        <v>0.1576</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -2663,13 +2690,13 @@
         <v>125</v>
       </c>
       <c r="B123">
-        <v>0.3138</v>
+        <v>0.3125</v>
       </c>
       <c r="C123">
         <v>0.1573</v>
       </c>
       <c r="D123">
-        <v>0.1565</v>
+        <v>0.1552</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -2677,13 +2704,13 @@
         <v>126</v>
       </c>
       <c r="B124">
-        <v>0.3112</v>
+        <v>0.3099</v>
       </c>
       <c r="C124">
-        <v>0.1565</v>
+        <v>0.1566</v>
       </c>
       <c r="D124">
-        <v>0.1547</v>
+        <v>0.1534</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -2691,13 +2718,13 @@
         <v>127</v>
       </c>
       <c r="B125">
-        <v>0.3082</v>
+        <v>0.3069</v>
       </c>
       <c r="C125">
         <v>0.1557</v>
       </c>
       <c r="D125">
-        <v>0.1525</v>
+        <v>0.1512</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -2705,13 +2732,13 @@
         <v>128</v>
       </c>
       <c r="B126">
-        <v>0.3064</v>
+        <v>0.305</v>
       </c>
       <c r="C126">
-        <v>0.1556</v>
+        <v>0.1557</v>
       </c>
       <c r="D126">
-        <v>0.1508</v>
+        <v>0.1494</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -2719,13 +2746,13 @@
         <v>129</v>
       </c>
       <c r="B127">
-        <v>0.3046</v>
+        <v>0.3032</v>
       </c>
       <c r="C127">
         <v>0.156</v>
       </c>
       <c r="D127">
-        <v>0.1486</v>
+        <v>0.1472</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -2733,13 +2760,13 @@
         <v>130</v>
       </c>
       <c r="B128">
-        <v>0.3025</v>
+        <v>0.301</v>
       </c>
       <c r="C128">
         <v>0.1555</v>
       </c>
       <c r="D128">
-        <v>0.147</v>
+        <v>0.1455</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -2747,13 +2774,13 @@
         <v>131</v>
       </c>
       <c r="B129">
-        <v>0.301</v>
+        <v>0.2994</v>
       </c>
       <c r="C129">
         <v>0.155</v>
       </c>
       <c r="D129">
-        <v>0.1459</v>
+        <v>0.1444</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -2761,13 +2788,13 @@
         <v>132</v>
       </c>
       <c r="B130">
-        <v>0.2999</v>
+        <v>0.2984</v>
       </c>
       <c r="C130">
         <v>0.1558</v>
       </c>
       <c r="D130">
-        <v>0.1441</v>
+        <v>0.1426</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -2775,13 +2802,13 @@
         <v>133</v>
       </c>
       <c r="B131">
-        <v>0.3004</v>
+        <v>0.2988</v>
       </c>
       <c r="C131">
         <v>0.158</v>
       </c>
       <c r="D131">
-        <v>0.1424</v>
+        <v>0.1408</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -2789,13 +2816,13 @@
         <v>134</v>
       </c>
       <c r="B132">
-        <v>0.3016</v>
+        <v>0.3</v>
       </c>
       <c r="C132">
         <v>0.1596</v>
       </c>
       <c r="D132">
-        <v>0.142</v>
+        <v>0.1404</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -2803,13 +2830,13 @@
         <v>135</v>
       </c>
       <c r="B133">
-        <v>0.3016</v>
+        <v>0.2999</v>
       </c>
       <c r="C133">
-        <v>0.1603</v>
+        <v>0.1602</v>
       </c>
       <c r="D133">
-        <v>0.1413</v>
+        <v>0.1397</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -2817,13 +2844,13 @@
         <v>136</v>
       </c>
       <c r="B134">
-        <v>0.3017</v>
+        <v>0.3</v>
       </c>
       <c r="C134">
-        <v>0.161</v>
+        <v>0.1609</v>
       </c>
       <c r="D134">
-        <v>0.1407</v>
+        <v>0.139</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -2831,13 +2858,13 @@
         <v>137</v>
       </c>
       <c r="B135">
-        <v>0.3015</v>
+        <v>0.2998</v>
       </c>
       <c r="C135">
         <v>0.1615</v>
       </c>
       <c r="D135">
-        <v>0.14</v>
+        <v>0.1383</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -2845,13 +2872,13 @@
         <v>138</v>
       </c>
       <c r="B136">
-        <v>0.3012</v>
+        <v>0.2994</v>
       </c>
       <c r="C136">
-        <v>0.1622</v>
+        <v>0.1621</v>
       </c>
       <c r="D136">
-        <v>0.139</v>
+        <v>0.1373</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -2859,13 +2886,13 @@
         <v>139</v>
       </c>
       <c r="B137">
-        <v>0.3014</v>
+        <v>0.2996</v>
       </c>
       <c r="C137">
-        <v>0.163</v>
+        <v>0.1629</v>
       </c>
       <c r="D137">
-        <v>0.1385</v>
+        <v>0.1367</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -2873,13 +2900,13 @@
         <v>140</v>
       </c>
       <c r="B138">
-        <v>0.3018</v>
+        <v>0.2999</v>
       </c>
       <c r="C138">
-        <v>0.1637</v>
+        <v>0.1636</v>
       </c>
       <c r="D138">
-        <v>0.138</v>
+        <v>0.1363</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -2887,13 +2914,13 @@
         <v>141</v>
       </c>
       <c r="B139">
-        <v>0.3004</v>
+        <v>0.2985</v>
       </c>
       <c r="C139">
-        <v>0.1631</v>
+        <v>0.163</v>
       </c>
       <c r="D139">
-        <v>0.1373</v>
+        <v>0.1355</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -2901,13 +2928,13 @@
         <v>142</v>
       </c>
       <c r="B140">
-        <v>0.2992</v>
+        <v>0.2973</v>
       </c>
       <c r="C140">
-        <v>0.1622</v>
+        <v>0.1621</v>
       </c>
       <c r="D140">
-        <v>0.137</v>
+        <v>0.1352</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -2915,13 +2942,13 @@
         <v>143</v>
       </c>
       <c r="B141">
-        <v>0.2991</v>
+        <v>0.2973</v>
       </c>
       <c r="C141">
         <v>0.1626</v>
       </c>
       <c r="D141">
-        <v>0.1365</v>
+        <v>0.1347</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -2929,13 +2956,13 @@
         <v>144</v>
       </c>
       <c r="B142">
-        <v>0.2979</v>
+        <v>0.296</v>
       </c>
       <c r="C142">
-        <v>0.1622</v>
+        <v>0.1621</v>
       </c>
       <c r="D142">
-        <v>0.1358</v>
+        <v>0.1339</v>
       </c>
     </row>
     <row r="143" spans="1:4">
@@ -2943,13 +2970,13 @@
         <v>145</v>
       </c>
       <c r="B143">
-        <v>0.2967</v>
+        <v>0.2948</v>
       </c>
       <c r="C143">
         <v>0.1617</v>
       </c>
       <c r="D143">
-        <v>0.1349</v>
+        <v>0.1331</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -2957,13 +2984,13 @@
         <v>146</v>
       </c>
       <c r="B144">
-        <v>0.294</v>
+        <v>0.2921</v>
       </c>
       <c r="C144">
         <v>0.1605</v>
       </c>
       <c r="D144">
-        <v>0.1335</v>
+        <v>0.1317</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -2971,13 +2998,13 @@
         <v>147</v>
       </c>
       <c r="B145">
-        <v>0.2927</v>
+        <v>0.2908</v>
       </c>
       <c r="C145">
-        <v>0.1601</v>
+        <v>0.16</v>
       </c>
       <c r="D145">
-        <v>0.1326</v>
+        <v>0.1308</v>
       </c>
     </row>
     <row r="146" spans="1:4">
@@ -2985,13 +3012,13 @@
         <v>148</v>
       </c>
       <c r="B146">
-        <v>0.2915</v>
+        <v>0.2896</v>
       </c>
       <c r="C146">
         <v>0.1599</v>
       </c>
       <c r="D146">
-        <v>0.1315</v>
+        <v>0.1297</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -2999,13 +3026,13 @@
         <v>149</v>
       </c>
       <c r="B147">
-        <v>0.2892</v>
+        <v>0.2874</v>
       </c>
       <c r="C147">
-        <v>0.1585</v>
+        <v>0.1584</v>
       </c>
       <c r="D147">
-        <v>0.1308</v>
+        <v>0.129</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -3013,13 +3040,13 @@
         <v>150</v>
       </c>
       <c r="B148">
-        <v>0.2878</v>
+        <v>0.286</v>
       </c>
       <c r="C148">
-        <v>0.1583</v>
+        <v>0.1582</v>
       </c>
       <c r="D148">
-        <v>0.1295</v>
+        <v>0.1277</v>
       </c>
     </row>
     <row r="149" spans="1:4">
@@ -3027,13 +3054,13 @@
         <v>151</v>
       </c>
       <c r="B149">
-        <v>0.2868</v>
+        <v>0.2851</v>
       </c>
       <c r="C149">
-        <v>0.1594</v>
+        <v>0.1593</v>
       </c>
       <c r="D149">
-        <v>0.1275</v>
+        <v>0.1258</v>
       </c>
     </row>
     <row r="150" spans="1:4">
@@ -3041,13 +3068,13 @@
         <v>152</v>
       </c>
       <c r="B150">
-        <v>0.2837</v>
+        <v>0.282</v>
       </c>
       <c r="C150">
         <v>0.1585</v>
       </c>
       <c r="D150">
-        <v>0.1252</v>
+        <v>0.1235</v>
       </c>
     </row>
     <row r="151" spans="1:4">
@@ -3055,13 +3082,13 @@
         <v>153</v>
       </c>
       <c r="B151">
-        <v>0.281</v>
+        <v>0.2792</v>
       </c>
       <c r="C151">
-        <v>0.1578</v>
+        <v>0.1577</v>
       </c>
       <c r="D151">
-        <v>0.1232</v>
+        <v>0.1215</v>
       </c>
     </row>
     <row r="152" spans="1:4">
@@ -3069,13 +3096,13 @@
         <v>154</v>
       </c>
       <c r="B152">
-        <v>0.2768</v>
+        <v>0.2751</v>
       </c>
       <c r="C152">
         <v>0.157</v>
       </c>
       <c r="D152">
-        <v>0.1198</v>
+        <v>0.1181</v>
       </c>
     </row>
     <row r="153" spans="1:4">
@@ -3083,13 +3110,13 @@
         <v>155</v>
       </c>
       <c r="B153">
-        <v>0.2739</v>
+        <v>0.2722</v>
       </c>
       <c r="C153">
         <v>0.1574</v>
       </c>
       <c r="D153">
-        <v>0.1164</v>
+        <v>0.1148</v>
       </c>
     </row>
     <row r="154" spans="1:4">
@@ -3097,13 +3124,13 @@
         <v>156</v>
       </c>
       <c r="B154">
-        <v>0.2709</v>
+        <v>0.2693</v>
       </c>
       <c r="C154">
-        <v>0.1578</v>
+        <v>0.1577</v>
       </c>
       <c r="D154">
-        <v>0.1132</v>
+        <v>0.1116</v>
       </c>
     </row>
     <row r="155" spans="1:4">
@@ -3111,13 +3138,13 @@
         <v>157</v>
       </c>
       <c r="B155">
-        <v>0.268</v>
+        <v>0.2664</v>
       </c>
       <c r="C155">
-        <v>0.1578</v>
+        <v>0.1577</v>
       </c>
       <c r="D155">
-        <v>0.1103</v>
+        <v>0.1087</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -3125,13 +3152,13 @@
         <v>158</v>
       </c>
       <c r="B156">
-        <v>0.2655</v>
+        <v>0.2639</v>
       </c>
       <c r="C156">
-        <v>0.1581</v>
+        <v>0.158</v>
       </c>
       <c r="D156">
-        <v>0.1075</v>
+        <v>0.1059</v>
       </c>
     </row>
     <row r="157" spans="1:4">
@@ -3139,13 +3166,13 @@
         <v>159</v>
       </c>
       <c r="B157">
-        <v>0.2611</v>
+        <v>0.2595</v>
       </c>
       <c r="C157">
         <v>0.1567</v>
       </c>
       <c r="D157">
-        <v>0.1044</v>
+        <v>0.1028</v>
       </c>
     </row>
     <row r="158" spans="1:4">
@@ -3153,13 +3180,13 @@
         <v>160</v>
       </c>
       <c r="B158">
-        <v>0.2571</v>
+        <v>0.2555</v>
       </c>
       <c r="C158">
         <v>0.1556</v>
       </c>
       <c r="D158">
-        <v>0.1015</v>
+        <v>0.0999</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -3167,13 +3194,13 @@
         <v>161</v>
       </c>
       <c r="B159">
-        <v>0.2534</v>
+        <v>0.2518</v>
       </c>
       <c r="C159">
-        <v>0.1547</v>
+        <v>0.1546</v>
       </c>
       <c r="D159">
-        <v>0.0987</v>
+        <v>0.09710000000000001</v>
       </c>
     </row>
     <row r="160" spans="1:4">
@@ -3181,13 +3208,13 @@
         <v>162</v>
       </c>
       <c r="B160">
-        <v>0.2501</v>
+        <v>0.2485</v>
       </c>
       <c r="C160">
-        <v>0.1542</v>
+        <v>0.1541</v>
       </c>
       <c r="D160">
-        <v>0.0959</v>
+        <v>0.09429999999999999</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -3195,13 +3222,13 @@
         <v>163</v>
       </c>
       <c r="B161">
-        <v>0.2467</v>
+        <v>0.245</v>
       </c>
       <c r="C161">
         <v>0.1531</v>
       </c>
       <c r="D161">
-        <v>0.0935</v>
+        <v>0.0919</v>
       </c>
     </row>
     <row r="162" spans="1:4">
@@ -3209,13 +3236,13 @@
         <v>164</v>
       </c>
       <c r="B162">
-        <v>0.2435</v>
+        <v>0.2418</v>
       </c>
       <c r="C162">
-        <v>0.152</v>
+        <v>0.1519</v>
       </c>
       <c r="D162">
-        <v>0.0915</v>
+        <v>0.0898</v>
       </c>
     </row>
     <row r="163" spans="1:4">
@@ -3223,13 +3250,13 @@
         <v>165</v>
       </c>
       <c r="B163">
-        <v>0.2414</v>
+        <v>0.2397</v>
       </c>
       <c r="C163">
-        <v>0.1516</v>
+        <v>0.1515</v>
       </c>
       <c r="D163">
-        <v>0.0898</v>
+        <v>0.0882</v>
       </c>
     </row>
     <row r="164" spans="1:4">
@@ -3237,13 +3264,13 @@
         <v>166</v>
       </c>
       <c r="B164">
-        <v>0.2394</v>
+        <v>0.2376</v>
       </c>
       <c r="C164">
-        <v>0.1509</v>
+        <v>0.1508</v>
       </c>
       <c r="D164">
-        <v>0.0885</v>
+        <v>0.0868</v>
       </c>
     </row>
     <row r="165" spans="1:4">
@@ -3251,13 +3278,13 @@
         <v>167</v>
       </c>
       <c r="B165">
-        <v>0.2371</v>
+        <v>0.2353</v>
       </c>
       <c r="C165">
-        <v>0.1499</v>
+        <v>0.1498</v>
       </c>
       <c r="D165">
-        <v>0.0872</v>
+        <v>0.08550000000000001</v>
       </c>
     </row>
     <row r="166" spans="1:4">
@@ -3265,13 +3292,13 @@
         <v>168</v>
       </c>
       <c r="B166">
-        <v>0.2352</v>
+        <v>0.2334</v>
       </c>
       <c r="C166">
-        <v>0.1493</v>
+        <v>0.1492</v>
       </c>
       <c r="D166">
-        <v>0.0859</v>
+        <v>0.0842</v>
       </c>
     </row>
     <row r="167" spans="1:4">
@@ -3279,13 +3306,13 @@
         <v>169</v>
       </c>
       <c r="B167">
-        <v>0.2327</v>
+        <v>0.2308</v>
       </c>
       <c r="C167">
-        <v>0.1481</v>
+        <v>0.148</v>
       </c>
       <c r="D167">
-        <v>0.08459999999999999</v>
+        <v>0.0829</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -3293,13 +3320,13 @@
         <v>170</v>
       </c>
       <c r="B168">
-        <v>0.2295</v>
+        <v>0.2276</v>
       </c>
       <c r="C168">
-        <v>0.146</v>
+        <v>0.1459</v>
       </c>
       <c r="D168">
-        <v>0.0835</v>
+        <v>0.08160000000000001</v>
       </c>
     </row>
     <row r="169" spans="1:4">
@@ -3307,13 +3334,13 @@
         <v>171</v>
       </c>
       <c r="B169">
-        <v>0.225</v>
+        <v>0.223</v>
       </c>
       <c r="C169">
         <v>0.1423</v>
       </c>
       <c r="D169">
-        <v>0.08260000000000001</v>
+        <v>0.0808</v>
       </c>
     </row>
     <row r="170" spans="1:4">
@@ -3321,13 +3348,13 @@
         <v>172</v>
       </c>
       <c r="B170">
-        <v>0.2248</v>
+        <v>0.2228</v>
       </c>
       <c r="C170">
-        <v>0.1405</v>
+        <v>0.1404</v>
       </c>
       <c r="D170">
-        <v>0.0843</v>
+        <v>0.0824</v>
       </c>
     </row>
     <row r="171" spans="1:4">
@@ -3335,13 +3362,13 @@
         <v>173</v>
       </c>
       <c r="B171">
-        <v>0.2233</v>
+        <v>0.2212</v>
       </c>
       <c r="C171">
-        <v>0.1376</v>
+        <v>0.1375</v>
       </c>
       <c r="D171">
-        <v>0.0857</v>
+        <v>0.0837</v>
       </c>
     </row>
     <row r="172" spans="1:4">
@@ -3349,13 +3376,13 @@
         <v>174</v>
       </c>
       <c r="B172">
-        <v>0.2225</v>
+        <v>0.2204</v>
       </c>
       <c r="C172">
-        <v>0.1354</v>
+        <v>0.1353</v>
       </c>
       <c r="D172">
-        <v>0.0871</v>
+        <v>0.08500000000000001</v>
       </c>
     </row>
     <row r="173" spans="1:4">
@@ -3363,13 +3390,13 @@
         <v>175</v>
       </c>
       <c r="B173">
-        <v>0.2207</v>
+        <v>0.2185</v>
       </c>
       <c r="C173">
-        <v>0.1322</v>
+        <v>0.1321</v>
       </c>
       <c r="D173">
-        <v>0.0885</v>
+        <v>0.0864</v>
       </c>
     </row>
     <row r="174" spans="1:4">
@@ -3377,13 +3404,13 @@
         <v>176</v>
       </c>
       <c r="B174">
-        <v>0.2193</v>
+        <v>0.217</v>
       </c>
       <c r="C174">
-        <v>0.1294</v>
+        <v>0.1293</v>
       </c>
       <c r="D174">
-        <v>0.0898</v>
+        <v>0.0877</v>
       </c>
     </row>
     <row r="175" spans="1:4">
@@ -3391,13 +3418,13 @@
         <v>177</v>
       </c>
       <c r="B175">
-        <v>0.2172</v>
+        <v>0.2149</v>
       </c>
       <c r="C175">
-        <v>0.1265</v>
+        <v>0.1264</v>
       </c>
       <c r="D175">
-        <v>0.09080000000000001</v>
+        <v>0.0886</v>
       </c>
     </row>
     <row r="176" spans="1:4">
@@ -3405,13 +3432,13 @@
         <v>178</v>
       </c>
       <c r="B176">
-        <v>0.2152</v>
+        <v>0.2129</v>
       </c>
       <c r="C176">
-        <v>0.1233</v>
+        <v>0.1232</v>
       </c>
       <c r="D176">
-        <v>0.0919</v>
+        <v>0.0897</v>
       </c>
     </row>
     <row r="177" spans="1:4">
@@ -3419,13 +3446,13 @@
         <v>179</v>
       </c>
       <c r="B177">
-        <v>0.2155</v>
+        <v>0.2131</v>
       </c>
       <c r="C177">
-        <v>0.122</v>
+        <v>0.1219</v>
       </c>
       <c r="D177">
-        <v>0.0935</v>
+        <v>0.0912</v>
       </c>
     </row>
     <row r="178" spans="1:4">
@@ -3433,13 +3460,13 @@
         <v>180</v>
       </c>
       <c r="B178">
-        <v>0.2153</v>
+        <v>0.2129</v>
       </c>
       <c r="C178">
-        <v>0.1202</v>
+        <v>0.1201</v>
       </c>
       <c r="D178">
-        <v>0.0951</v>
+        <v>0.09279999999999999</v>
       </c>
     </row>
     <row r="179" spans="1:4">
@@ -3447,13 +3474,13 @@
         <v>181</v>
       </c>
       <c r="B179">
-        <v>0.2167</v>
+        <v>0.2143</v>
       </c>
       <c r="C179">
-        <v>0.1194</v>
+        <v>0.1193</v>
       </c>
       <c r="D179">
-        <v>0.0973</v>
+        <v>0.0949</v>
       </c>
     </row>
     <row r="180" spans="1:4">
@@ -3461,13 +3488,13 @@
         <v>182</v>
       </c>
       <c r="B180">
-        <v>0.2196</v>
+        <v>0.2171</v>
       </c>
       <c r="C180">
-        <v>0.1192</v>
+        <v>0.1191</v>
       </c>
       <c r="D180">
-        <v>0.1003</v>
+        <v>0.098</v>
       </c>
     </row>
     <row r="181" spans="1:4">
@@ -3475,13 +3502,13 @@
         <v>183</v>
       </c>
       <c r="B181">
-        <v>0.2214</v>
+        <v>0.2188</v>
       </c>
       <c r="C181">
-        <v>0.1178</v>
+        <v>0.1177</v>
       </c>
       <c r="D181">
-        <v>0.1036</v>
+        <v>0.1012</v>
       </c>
     </row>
     <row r="182" spans="1:4">
@@ -3489,13 +3516,13 @@
         <v>184</v>
       </c>
       <c r="B182">
-        <v>0.225</v>
+        <v>0.2223</v>
       </c>
       <c r="C182">
-        <v>0.118</v>
+        <v>0.1178</v>
       </c>
       <c r="D182">
-        <v>0.107</v>
+        <v>0.1045</v>
       </c>
     </row>
     <row r="183" spans="1:4">
@@ -3503,13 +3530,13 @@
         <v>185</v>
       </c>
       <c r="B183">
-        <v>0.2297</v>
+        <v>0.227</v>
       </c>
       <c r="C183">
-        <v>0.1188</v>
+        <v>0.1186</v>
       </c>
       <c r="D183">
-        <v>0.1109</v>
+        <v>0.1084</v>
       </c>
     </row>
     <row r="184" spans="1:4">
@@ -3517,13 +3544,13 @@
         <v>186</v>
       </c>
       <c r="B184">
-        <v>0.2338</v>
+        <v>0.2311</v>
       </c>
       <c r="C184">
-        <v>0.1194</v>
+        <v>0.1192</v>
       </c>
       <c r="D184">
-        <v>0.1145</v>
+        <v>0.1119</v>
       </c>
     </row>
     <row r="185" spans="1:4">
@@ -3531,13 +3558,13 @@
         <v>187</v>
       </c>
       <c r="B185">
-        <v>0.2386</v>
+        <v>0.2359</v>
       </c>
       <c r="C185">
-        <v>0.1205</v>
+        <v>0.1203</v>
       </c>
       <c r="D185">
-        <v>0.1182</v>
+        <v>0.1156</v>
       </c>
     </row>
     <row r="186" spans="1:4">
@@ -3545,13 +3572,13 @@
         <v>188</v>
       </c>
       <c r="B186">
-        <v>0.2421</v>
+        <v>0.2393</v>
       </c>
       <c r="C186">
-        <v>0.1204</v>
+        <v>0.1202</v>
       </c>
       <c r="D186">
-        <v>0.1217</v>
+        <v>0.1191</v>
       </c>
     </row>
     <row r="187" spans="1:4">
@@ -3559,13 +3586,13 @@
         <v>189</v>
       </c>
       <c r="B187">
-        <v>0.2457</v>
+        <v>0.2429</v>
       </c>
       <c r="C187">
-        <v>0.1201</v>
+        <v>0.1199</v>
       </c>
       <c r="D187">
-        <v>0.1257</v>
+        <v>0.123</v>
       </c>
     </row>
     <row r="188" spans="1:4">
@@ -3573,13 +3600,139 @@
         <v>190</v>
       </c>
       <c r="B188">
-        <v>0.2488</v>
+        <v>0.2474</v>
       </c>
       <c r="C188">
-        <v>0.1194</v>
+        <v>0.1204</v>
       </c>
       <c r="D188">
-        <v>0.1294</v>
+        <v>0.127</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4">
+      <c r="A189" t="s">
+        <v>191</v>
+      </c>
+      <c r="B189">
+        <v>0.251</v>
+      </c>
+      <c r="C189">
+        <v>0.1206</v>
+      </c>
+      <c r="D189">
+        <v>0.1305</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4">
+      <c r="A190" t="s">
+        <v>192</v>
+      </c>
+      <c r="B190">
+        <v>0.2523</v>
+      </c>
+      <c r="C190">
+        <v>0.1206</v>
+      </c>
+      <c r="D190">
+        <v>0.1317</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4">
+      <c r="A191" t="s">
+        <v>193</v>
+      </c>
+      <c r="B191">
+        <v>0.252</v>
+      </c>
+      <c r="C191">
+        <v>0.119</v>
+      </c>
+      <c r="D191">
+        <v>0.1329</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4">
+      <c r="A192" t="s">
+        <v>194</v>
+      </c>
+      <c r="B192">
+        <v>0.2518</v>
+      </c>
+      <c r="C192">
+        <v>0.1176</v>
+      </c>
+      <c r="D192">
+        <v>0.1343</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4">
+      <c r="A193" t="s">
+        <v>195</v>
+      </c>
+      <c r="B193">
+        <v>0.253</v>
+      </c>
+      <c r="C193">
+        <v>0.1174</v>
+      </c>
+      <c r="D193">
+        <v>0.1357</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4">
+      <c r="A194" t="s">
+        <v>196</v>
+      </c>
+      <c r="B194">
+        <v>0.253</v>
+      </c>
+      <c r="C194">
+        <v>0.1158</v>
+      </c>
+      <c r="D194">
+        <v>0.1372</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4">
+      <c r="A195" t="s">
+        <v>197</v>
+      </c>
+      <c r="B195">
+        <v>0.2541</v>
+      </c>
+      <c r="C195">
+        <v>0.1151</v>
+      </c>
+      <c r="D195">
+        <v>0.139</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4">
+      <c r="A196" t="s">
+        <v>198</v>
+      </c>
+      <c r="B196">
+        <v>0.2554</v>
+      </c>
+      <c r="C196">
+        <v>0.1136</v>
+      </c>
+      <c r="D196">
+        <v>0.1418</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4">
+      <c r="A197" t="s">
+        <v>199</v>
+      </c>
+      <c r="B197">
+        <v>0.2544</v>
+      </c>
+      <c r="C197">
+        <v>0.1103</v>
+      </c>
+      <c r="D197">
+        <v>0.1441</v>
       </c>
     </row>
   </sheetData>
